--- a/UNH.xlsx
+++ b/UNH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62572BF-2210-4100-9047-40875B1474B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F651D1C-BF1D-4C0F-90AB-6D5C377A60B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57225" yWindow="4860" windowWidth="19350" windowHeight="10485" activeTab="1" xr2:uid="{04FE48EC-24E3-4318-82CA-AE691D8B8F65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{04FE48EC-24E3-4318-82CA-AE691D8B8F65}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="86">
   <si>
     <t>Price</t>
   </si>
@@ -210,6 +210,90 @@
   </si>
   <si>
     <t>Optum Rx</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Other Receivables</t>
+  </si>
+  <si>
+    <t>AUM</t>
+  </si>
+  <si>
+    <t>Prepaids</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>Other Assets</t>
+  </si>
+  <si>
+    <t>Medical Costs</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>OCL</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>L+SE</t>
+  </si>
+  <si>
+    <t>Q119</t>
+  </si>
+  <si>
+    <t>Q219</t>
+  </si>
+  <si>
+    <t>Q319</t>
+  </si>
+  <si>
+    <t>Q419</t>
+  </si>
+  <si>
+    <t>Q418</t>
+  </si>
+  <si>
+    <t>Q318</t>
+  </si>
+  <si>
+    <t>Q218</t>
+  </si>
+  <si>
+    <t>Q118</t>
+  </si>
+  <si>
+    <t>Q117</t>
+  </si>
+  <si>
+    <t>Q217</t>
+  </si>
+  <si>
+    <t>Q317</t>
+  </si>
+  <si>
+    <t>Acquisitions</t>
   </si>
 </sst>
 </file>
@@ -217,9 +301,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -230,6 +314,13 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -251,10 +342,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -274,12 +366,14 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -299,16 +393,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -323,8 +417,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7115175" y="66675"/>
-          <a:ext cx="0" cy="4838700"/>
+          <a:off x="7953375" y="66675"/>
+          <a:ext cx="0" cy="13716000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -649,11 +743,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0A3C4E-9822-4718-A83E-52B4DD123491}">
   <dimension ref="L2:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L2" t="s">
@@ -668,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="3">
-        <v>950</v>
+        <v>935.38270999999997</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>17</v>
@@ -680,14 +775,17 @@
       </c>
       <c r="M4" s="3">
         <f>+M2*M3</f>
-        <v>517208.49999999994</v>
+        <v>509250.40880529996</v>
       </c>
     </row>
     <row r="5" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L5" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="3">
+        <f>24612+3352+42427</f>
+        <v>70391</v>
+      </c>
       <c r="N5" s="2" t="s">
         <v>17</v>
       </c>
@@ -696,7 +794,10 @@
       <c r="L6" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="3"/>
+      <c r="M6" s="3">
+        <f>5592+22978+45799</f>
+        <v>74369</v>
+      </c>
       <c r="N6" s="2" t="s">
         <v>17</v>
       </c>
@@ -705,7 +806,10 @@
       <c r="L7" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="3">
+        <f>+M4-M5+M6</f>
+        <v>513228.40880529996</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -714,66 +818,102 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09717AAE-9570-49D1-9F3C-CCC93C2EDF11}">
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:Z75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomRight" activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="2"/>
+    <col min="3" max="26" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>46</v>
       </c>
@@ -782,23 +922,35 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="4">
-        <v>7840</v>
-      </c>
+      <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="4">
-        <v>7985</v>
-      </c>
-      <c r="K3" s="4">
-        <v>7950</v>
-      </c>
-      <c r="L3" s="4">
-        <v>8010</v>
-      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4">
+        <v>7840</v>
+      </c>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4">
+        <v>7985</v>
+      </c>
+      <c r="W3" s="4">
+        <v>7950</v>
+      </c>
+      <c r="X3" s="4">
+        <v>8010</v>
+      </c>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+    </row>
+    <row r="4" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>47</v>
       </c>
@@ -807,23 +959,35 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="4">
-        <v>18395</v>
-      </c>
+      <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="4">
-        <v>18595</v>
-      </c>
-      <c r="K4" s="4">
-        <v>18460</v>
-      </c>
-      <c r="L4" s="4">
-        <v>18480</v>
-      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4">
+        <v>18395</v>
+      </c>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4">
+        <v>18595</v>
+      </c>
+      <c r="W4" s="4">
+        <v>18460</v>
+      </c>
+      <c r="X4" s="4">
+        <v>18480</v>
+      </c>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+    </row>
+    <row r="5" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>48</v>
       </c>
@@ -832,27 +996,39 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="4">
-        <f>+H4+H3</f>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4">
+        <f>+T4+T3</f>
         <v>26235</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4">
-        <f t="shared" ref="J5:L5" si="0">+J4+J3</f>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4">
+        <f t="shared" ref="V5:X5" si="0">+V4+V3</f>
         <v>26580</v>
       </c>
-      <c r="K5" s="4">
+      <c r="W5" s="4">
         <f t="shared" si="0"/>
         <v>26410</v>
       </c>
-      <c r="L5" s="4">
+      <c r="X5" s="4">
         <f t="shared" si="0"/>
         <v>26490</v>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+    </row>
+    <row r="6" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>49</v>
       </c>
@@ -861,23 +1037,35 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="4">
-        <v>6385</v>
-      </c>
+      <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4">
-        <v>6490</v>
-      </c>
-      <c r="K6" s="4">
-        <v>6890</v>
-      </c>
-      <c r="L6" s="4">
-        <v>6945</v>
-      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4">
+        <v>6385</v>
+      </c>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4">
+        <v>6490</v>
+      </c>
+      <c r="W6" s="4">
+        <v>6890</v>
+      </c>
+      <c r="X6" s="4">
+        <v>6945</v>
+      </c>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+    </row>
+    <row r="7" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>50</v>
       </c>
@@ -886,23 +1074,35 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="4">
-        <v>7130</v>
-      </c>
+      <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="4">
-        <v>7655</v>
-      </c>
-      <c r="K7" s="4">
-        <v>7810</v>
-      </c>
-      <c r="L7" s="4">
-        <v>7990</v>
-      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4">
+        <v>7130</v>
+      </c>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4">
+        <v>7655</v>
+      </c>
+      <c r="W7" s="4">
+        <v>7810</v>
+      </c>
+      <c r="X7" s="4">
+        <v>7990</v>
+      </c>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+    </row>
+    <row r="8" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>51</v>
       </c>
@@ -911,23 +1111,35 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="4">
-        <v>4390</v>
-      </c>
+      <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="4">
-        <v>4395</v>
-      </c>
-      <c r="K8" s="4">
-        <v>4355</v>
-      </c>
-      <c r="L8" s="4">
-        <v>4355</v>
-      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4">
+        <v>4390</v>
+      </c>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4">
+        <v>4395</v>
+      </c>
+      <c r="W8" s="4">
+        <v>4355</v>
+      </c>
+      <c r="X8" s="4">
+        <v>4355</v>
+      </c>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+    </row>
+    <row r="9" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>52</v>
       </c>
@@ -936,27 +1148,39 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="4">
-        <f>SUM(H6:H8)</f>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4">
+        <f>SUM(T6:T8)</f>
         <v>17905</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4">
-        <f t="shared" ref="J9:L9" si="1">SUM(J6:J8)</f>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4">
+        <f t="shared" ref="V9:X9" si="1">SUM(V6:V8)</f>
         <v>18540</v>
       </c>
-      <c r="K9" s="4">
+      <c r="W9" s="4">
         <f t="shared" si="1"/>
         <v>19055</v>
       </c>
-      <c r="L9" s="4">
+      <c r="X9" s="4">
         <f t="shared" si="1"/>
         <v>19290</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+    </row>
+    <row r="10" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>53</v>
       </c>
@@ -965,23 +1189,35 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="4">
-        <v>5485</v>
-      </c>
+      <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="4">
-        <v>5510</v>
-      </c>
-      <c r="K10" s="4">
-        <v>5500</v>
-      </c>
-      <c r="L10" s="4">
-        <v>5465</v>
-      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4">
+        <v>5485</v>
+      </c>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4">
+        <v>5510</v>
+      </c>
+      <c r="W10" s="4">
+        <v>5500</v>
+      </c>
+      <c r="X10" s="4">
+        <v>5465</v>
+      </c>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+    </row>
+    <row r="11" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>54</v>
       </c>
@@ -990,23 +1226,35 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="4">
-        <v>3750</v>
-      </c>
+      <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="4">
-        <v>3700</v>
-      </c>
-      <c r="K11" s="4">
-        <v>3360</v>
-      </c>
-      <c r="L11" s="4">
-        <v>3330</v>
-      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4">
+        <v>3750</v>
+      </c>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4">
+        <v>3700</v>
+      </c>
+      <c r="W11" s="4">
+        <v>3360</v>
+      </c>
+      <c r="X11" s="4">
+        <v>3330</v>
+      </c>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+    </row>
+    <row r="12" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1019,8 +1267,20 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+    </row>
+    <row r="13" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>55</v>
       </c>
@@ -1029,23 +1289,35 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4">
-        <v>99</v>
-      </c>
+      <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="4">
-        <v>100</v>
-      </c>
-      <c r="K13" s="4">
-        <v>100</v>
-      </c>
-      <c r="L13" s="4">
-        <v>101</v>
-      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4">
+        <v>99</v>
+      </c>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4">
+        <v>100</v>
+      </c>
+      <c r="W13" s="4">
+        <v>100</v>
+      </c>
+      <c r="X13" s="4">
+        <v>101</v>
+      </c>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+    </row>
+    <row r="14" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>56</v>
       </c>
@@ -1054,23 +1326,35 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="4">
-        <v>21.3</v>
-      </c>
+      <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="4">
-        <v>22.4</v>
-      </c>
-      <c r="K14" s="4">
-        <v>22.8</v>
-      </c>
-      <c r="L14" s="4">
-        <v>23.6</v>
-      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4">
+        <v>21.3</v>
+      </c>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4">
+        <v>22.4</v>
+      </c>
+      <c r="W14" s="4">
+        <v>22.8</v>
+      </c>
+      <c r="X14" s="4">
+        <v>23.6</v>
+      </c>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+    </row>
+    <row r="15" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>57</v>
       </c>
@@ -1079,23 +1363,35 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="4">
-        <v>342</v>
-      </c>
+      <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="4">
-        <v>353</v>
-      </c>
-      <c r="K15" s="4">
-        <v>352</v>
-      </c>
-      <c r="L15" s="4">
-        <v>357</v>
-      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
-    </row>
-    <row r="17" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4">
+        <v>342</v>
+      </c>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4">
+        <v>353</v>
+      </c>
+      <c r="W15" s="4">
+        <v>352</v>
+      </c>
+      <c r="X15" s="4">
+        <v>357</v>
+      </c>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+    </row>
+    <row r="17" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>38</v>
       </c>
@@ -1104,19 +1400,31 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="4">
-        <v>14942</v>
-      </c>
+      <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="4">
-        <v>15567</v>
-      </c>
+      <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4">
+        <v>14942</v>
+      </c>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4">
+        <v>15567</v>
+      </c>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+    </row>
+    <row r="18" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>39</v>
       </c>
@@ -1125,19 +1433,31 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="4">
-        <v>2118</v>
-      </c>
+      <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="4">
-        <v>2247</v>
-      </c>
+      <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
-    </row>
-    <row r="19" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4">
+        <v>2118</v>
+      </c>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4">
+        <v>2247</v>
+      </c>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+    </row>
+    <row r="19" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>40</v>
       </c>
@@ -1146,19 +1466,31 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="4">
-        <v>25304</v>
-      </c>
+      <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="4">
-        <v>28625</v>
-      </c>
+      <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
-    </row>
-    <row r="20" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4">
+        <v>25304</v>
+      </c>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4">
+        <v>28625</v>
+      </c>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+    </row>
+    <row r="20" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>41</v>
       </c>
@@ -1167,19 +1499,31 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="4">
-        <v>13110</v>
-      </c>
+      <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="4">
-        <v>15666</v>
-      </c>
+      <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
-    </row>
-    <row r="21" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4">
+        <v>13110</v>
+      </c>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4">
+        <v>15666</v>
+      </c>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+    </row>
+    <row r="21" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>42</v>
       </c>
@@ -1188,19 +1532,31 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="4">
-        <v>38303</v>
-      </c>
+      <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="4">
-        <v>45082</v>
-      </c>
+      <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
-    </row>
-    <row r="22" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4">
+        <v>38303</v>
+      </c>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4">
+        <v>45082</v>
+      </c>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+    </row>
+    <row r="22" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>43</v>
       </c>
@@ -1209,19 +1565,31 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="4">
-        <v>13300</v>
-      </c>
+      <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="4">
-        <v>17583</v>
-      </c>
+      <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
-    </row>
-    <row r="23" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4">
+        <v>13300</v>
+      </c>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4">
+        <v>17583</v>
+      </c>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+    </row>
+    <row r="23" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>44</v>
       </c>
@@ -1230,19 +1598,31 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="4">
-        <v>2957</v>
-      </c>
+      <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="4">
-        <v>3282</v>
-      </c>
+      <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
-    </row>
-    <row r="24" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4">
+        <v>2957</v>
+      </c>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4">
+        <v>3282</v>
+      </c>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+    </row>
+    <row r="24" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>45</v>
       </c>
@@ -1251,32 +1631,44 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="4">
-        <v>22524</v>
-      </c>
+      <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="4">
-        <v>24805</v>
-      </c>
+      <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4">
+        <v>22524</v>
+      </c>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4">
+        <v>24805</v>
+      </c>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>34</v>
       </c>
-      <c r="H26" s="4">
-        <f>H28-H33</f>
+      <c r="T26" s="4">
+        <f>T28-T33</f>
         <v>9687</v>
       </c>
-      <c r="L26" s="4">
-        <f>L28-L33</f>
+      <c r="X26" s="4">
+        <f>X28-X33</f>
         <v>11803</v>
       </c>
     </row>
-    <row r="28" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>7</v>
       </c>
@@ -1285,19 +1677,35 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="4">
-        <v>56233</v>
-      </c>
+      <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="4">
-        <v>63896</v>
-      </c>
+      <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
-    </row>
-    <row r="29" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4">
+        <v>55486</v>
+      </c>
+      <c r="T28" s="4">
+        <v>56233</v>
+      </c>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4">
+        <v>64070</v>
+      </c>
+      <c r="X28" s="4">
+        <v>63896</v>
+      </c>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+    </row>
+    <row r="29" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
         <v>20</v>
       </c>
@@ -1306,19 +1714,35 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="4">
-        <v>8433</v>
-      </c>
+      <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="4">
-        <v>9496</v>
-      </c>
+      <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
-    </row>
-    <row r="30" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4">
+        <v>8340</v>
+      </c>
+      <c r="T29" s="4">
+        <v>8433</v>
+      </c>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4">
+        <v>9340</v>
+      </c>
+      <c r="X29" s="4">
+        <v>9496</v>
+      </c>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+    </row>
+    <row r="30" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
         <v>22</v>
       </c>
@@ -1327,19 +1751,35 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="4">
-        <v>6099</v>
-      </c>
+      <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="4">
-        <v>6645</v>
-      </c>
+      <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
-    </row>
-    <row r="31" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4">
+        <v>5918</v>
+      </c>
+      <c r="T30" s="4">
+        <v>6099</v>
+      </c>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4">
+        <v>6372</v>
+      </c>
+      <c r="X30" s="4">
+        <v>6645</v>
+      </c>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+    </row>
+    <row r="31" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
         <v>21</v>
       </c>
@@ -1348,19 +1788,35 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="4">
-        <v>556</v>
-      </c>
+      <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="4">
-        <v>295</v>
-      </c>
+      <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
-    </row>
-    <row r="32" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4">
+        <v>452</v>
+      </c>
+      <c r="T31" s="4">
+        <v>556</v>
+      </c>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4">
+        <v>367</v>
+      </c>
+      <c r="X31" s="4">
+        <v>295</v>
+      </c>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+    </row>
+    <row r="32" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
         <v>23</v>
       </c>
@@ -1369,21 +1825,39 @@
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="6">
-        <f>SUM(H28:H31)</f>
-        <v>71321</v>
-      </c>
+      <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
-      <c r="L32" s="6">
-        <f>SUM(L28:L31)</f>
-        <v>80332</v>
-      </c>
+      <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
-    </row>
-    <row r="33" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6">
+        <f t="shared" ref="S32" si="2">SUM(S28:S31)</f>
+        <v>70196</v>
+      </c>
+      <c r="T32" s="6">
+        <f>SUM(T28:T31)</f>
+        <v>71321</v>
+      </c>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6">
+        <f t="shared" ref="W32" si="3">SUM(W28:W31)</f>
+        <v>80149</v>
+      </c>
+      <c r="X32" s="6">
+        <f>SUM(X28:X31)</f>
+        <v>80332</v>
+      </c>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+    </row>
+    <row r="33" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
         <v>24</v>
       </c>
@@ -1392,19 +1866,35 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="4">
-        <v>46546</v>
-      </c>
+      <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="4">
-        <v>52093</v>
-      </c>
+      <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
-    </row>
-    <row r="34" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4">
+        <v>44904</v>
+      </c>
+      <c r="T33" s="4">
+        <v>46546</v>
+      </c>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4">
+        <v>52523</v>
+      </c>
+      <c r="X33" s="4">
+        <v>52093</v>
+      </c>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+    </row>
+    <row r="34" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
         <v>25</v>
       </c>
@@ -1413,19 +1903,35 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="4">
-        <v>10359</v>
-      </c>
+      <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="4">
-        <v>11709</v>
-      </c>
+      <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
-    </row>
-    <row r="35" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4">
+        <v>10223</v>
+      </c>
+      <c r="T34" s="4">
+        <v>10359</v>
+      </c>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4">
+        <v>11401</v>
+      </c>
+      <c r="X34" s="4">
+        <v>11709</v>
+      </c>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+    </row>
+    <row r="35" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
         <v>26</v>
       </c>
@@ -1434,19 +1940,35 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="4">
-        <v>7660</v>
-      </c>
+      <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="4">
-        <v>8596</v>
-      </c>
+      <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
-    </row>
-    <row r="36" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4">
+        <v>7572</v>
+      </c>
+      <c r="T35" s="4">
+        <v>7660</v>
+      </c>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4">
+        <v>8487</v>
+      </c>
+      <c r="X35" s="4">
+        <v>8596</v>
+      </c>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+    </row>
+    <row r="36" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
         <v>27</v>
       </c>
@@ -1455,21 +1977,39 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="4">
-        <f>SUM(H33:H35)</f>
-        <v>64565</v>
-      </c>
+      <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="4">
-        <f>SUM(L33:L35)</f>
-        <v>72398</v>
-      </c>
+      <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
-    </row>
-    <row r="37" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4">
+        <f t="shared" ref="S36" si="4">SUM(S33:S35)</f>
+        <v>62699</v>
+      </c>
+      <c r="T36" s="4">
+        <f>SUM(T33:T35)</f>
+        <v>64565</v>
+      </c>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4">
+        <f t="shared" ref="W36" si="5">SUM(W33:W35)</f>
+        <v>72411</v>
+      </c>
+      <c r="X36" s="4">
+        <f>SUM(X33:X35)</f>
+        <v>72398</v>
+      </c>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+    </row>
+    <row r="37" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
         <v>30</v>
       </c>
@@ -1478,21 +2018,39 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="4">
-        <f>H32-H36</f>
-        <v>6756</v>
-      </c>
+      <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="4">
-        <f>L32-L36</f>
-        <v>7934</v>
-      </c>
+      <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
-    </row>
-    <row r="38" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4">
+        <f t="shared" ref="S37" si="6">S32-S36</f>
+        <v>7497</v>
+      </c>
+      <c r="T37" s="4">
+        <f>T32-T36</f>
+        <v>6756</v>
+      </c>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4">
+        <f t="shared" ref="W37" si="7">W32-W36</f>
+        <v>7738</v>
+      </c>
+      <c r="X37" s="4">
+        <f>X32-X36</f>
+        <v>7934</v>
+      </c>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+    </row>
+    <row r="38" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
         <v>29</v>
       </c>
@@ -1501,19 +2059,35 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="4">
-        <v>-410</v>
-      </c>
+      <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="4">
-        <v>-467</v>
-      </c>
+      <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
-    </row>
-    <row r="39" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4">
+        <v>-397</v>
+      </c>
+      <c r="T38" s="4">
+        <v>-410</v>
+      </c>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4">
+        <v>-433</v>
+      </c>
+      <c r="X38" s="4">
+        <v>-467</v>
+      </c>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+    </row>
+    <row r="39" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
         <v>28</v>
       </c>
@@ -1522,21 +2096,39 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="4">
-        <f>+H37+H38</f>
-        <v>6346</v>
-      </c>
+      <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="4">
-        <f>+L37+L38</f>
-        <v>7467</v>
-      </c>
+      <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
-    </row>
-    <row r="40" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4">
+        <f t="shared" ref="S39" si="8">+S37+S38</f>
+        <v>7100</v>
+      </c>
+      <c r="T39" s="4">
+        <f>+T37+T38</f>
+        <v>6346</v>
+      </c>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4">
+        <f t="shared" ref="W39" si="9">+W37+W38</f>
+        <v>7305</v>
+      </c>
+      <c r="X39" s="4">
+        <f>+X37+X38</f>
+        <v>7467</v>
+      </c>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+    </row>
+    <row r="40" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
         <v>31</v>
       </c>
@@ -1545,19 +2137,37 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="4">
-        <v>1196</v>
-      </c>
+      <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="4">
-        <v>1466</v>
-      </c>
+      <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
-    </row>
-    <row r="41" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4">
+        <f>1364+116</f>
+        <v>1480</v>
+      </c>
+      <c r="T40" s="4">
+        <v>1196</v>
+      </c>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4">
+        <f>1369+121</f>
+        <v>1490</v>
+      </c>
+      <c r="X40" s="4">
+        <v>1466</v>
+      </c>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+    </row>
+    <row r="41" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
         <v>32</v>
       </c>
@@ -1566,45 +2176,77 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="4">
-        <f>+H39-H40</f>
-        <v>5150</v>
-      </c>
+      <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
-      <c r="L41" s="4">
-        <f>+L39-L40</f>
-        <v>6001</v>
-      </c>
+      <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4">
+        <f t="shared" ref="S41" si="10">+S39-S40</f>
+        <v>5620</v>
+      </c>
+      <c r="T41" s="4">
+        <f>+T39-T40</f>
+        <v>5150</v>
+      </c>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4">
+        <f t="shared" ref="W41" si="11">+W39-W40</f>
+        <v>5815</v>
+      </c>
+      <c r="X41" s="4">
+        <f>+X39-X40</f>
+        <v>6001</v>
+      </c>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H42" s="7">
-        <f>H41/H43</f>
+      <c r="S42" s="7">
+        <f t="shared" ref="S42" si="12">S41/S43</f>
+        <v>5.8725182863113901</v>
+      </c>
+      <c r="T42" s="7">
+        <f>T41/T43</f>
         <v>5.3870292887029292</v>
       </c>
-      <c r="L42" s="7">
-        <f>L41/L43</f>
+      <c r="W42" s="7">
+        <f t="shared" ref="W42" si="13">W41/W43</f>
+        <v>6.0953878406708597</v>
+      </c>
+      <c r="X42" s="7">
+        <f>X41/X43</f>
         <v>6.3168421052631576</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H43" s="2">
+      <c r="S43" s="2">
+        <v>957</v>
+      </c>
+      <c r="T43" s="2">
         <v>956</v>
       </c>
-      <c r="L43" s="2">
+      <c r="W43" s="2">
+        <v>954</v>
+      </c>
+      <c r="X43" s="2">
         <v>950</v>
       </c>
     </row>
-    <row r="45" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="9" t="s">
         <v>35</v>
       </c>
@@ -1613,44 +2255,690 @@
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
-      <c r="H45" s="10">
-        <f>H33/H28</f>
-        <v>0.82773460423594691</v>
-      </c>
+      <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
-      <c r="L45" s="10">
-        <f>L33/L28</f>
-        <v>0.81527795167146611</v>
-      </c>
+      <c r="L45" s="10"/>
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10">
+        <f t="shared" ref="S45" si="14">S33/S28</f>
+        <v>0.80928522510182754</v>
+      </c>
+      <c r="T45" s="10">
+        <f>T33/T28</f>
+        <v>0.82773460423594691</v>
+      </c>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10">
+        <f>W33/W28</f>
+        <v>0.81977524582487904</v>
+      </c>
+      <c r="X45" s="10">
+        <f>X33/X28</f>
+        <v>0.81527795167146611</v>
+      </c>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="10"/>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>36</v>
       </c>
-      <c r="L47" s="8">
-        <f>L32/H32-1</f>
+      <c r="W47" s="8">
+        <f>W32/S32-1</f>
+        <v>0.1417887059091687</v>
+      </c>
+      <c r="X47" s="8">
+        <f>X32/T32-1</f>
         <v>0.12634427447736285</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>37</v>
       </c>
-      <c r="L48" s="8">
-        <f>L28/H28-1</f>
+      <c r="W48" s="8">
+        <f>W28/S28-1</f>
+        <v>0.15470569152579028</v>
+      </c>
+      <c r="X48" s="8">
+        <f>X28/T28-1</f>
         <v>0.13627229562712295</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
+    <row r="50" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4">
+        <f>25482+2914+42353</f>
+        <v>70749</v>
+      </c>
+      <c r="X50" s="4">
+        <f>24612+3352+42427</f>
+        <v>70391</v>
+      </c>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4"/>
+    </row>
+    <row r="51" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4">
+        <v>18871</v>
+      </c>
+      <c r="X51" s="4">
+        <v>18718</v>
+      </c>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4"/>
+    </row>
+    <row r="52" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4">
+        <v>11994</v>
+      </c>
+      <c r="X52" s="4">
+        <v>12439</v>
+      </c>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+    </row>
+    <row r="53" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4">
+        <v>4155</v>
+      </c>
+      <c r="X53" s="4">
+        <v>4017</v>
+      </c>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4"/>
+    </row>
+    <row r="54" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4">
+        <v>5613</v>
+      </c>
+      <c r="X54" s="4">
+        <v>5218</v>
+      </c>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="4"/>
+    </row>
+    <row r="55" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4">
+        <v>9183</v>
+      </c>
+      <c r="X55" s="4">
+        <v>9421</v>
+      </c>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="4"/>
+    </row>
+    <row r="56" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4">
+        <f>77548+9918</f>
+        <v>87466</v>
+      </c>
+      <c r="X56" s="4">
+        <f>84159+11285</f>
+        <v>95444</v>
+      </c>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="4"/>
+    </row>
+    <row r="57" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4">
+        <v>13207</v>
+      </c>
+      <c r="X57" s="4">
+        <v>14524</v>
+      </c>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="4"/>
+    </row>
+    <row r="58" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4">
+        <f t="shared" ref="W58" si="15">SUM(W50:W57)</f>
+        <v>221238</v>
+      </c>
+      <c r="X58" s="4">
+        <f>SUM(X50:X57)</f>
+        <v>230172</v>
+      </c>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4"/>
+    </row>
+    <row r="60" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+      <c r="S60" s="4"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="4">
+        <v>28676</v>
+      </c>
+      <c r="X60" s="4">
+        <v>28978</v>
+      </c>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="4"/>
+    </row>
+    <row r="61" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4">
+        <v>25058</v>
+      </c>
+      <c r="X61" s="4">
+        <v>25145</v>
+      </c>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="4"/>
+    </row>
+    <row r="62" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="4">
+        <f>6697+40796</f>
+        <v>47493</v>
+      </c>
+      <c r="X62" s="4">
+        <f>5592+45799</f>
+        <v>51391</v>
+      </c>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="4"/>
+    </row>
+    <row r="63" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="4">
+        <v>2675</v>
+      </c>
+      <c r="X63" s="4">
+        <v>2212</v>
+      </c>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="4"/>
+    </row>
+    <row r="64" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="4">
+        <v>25064</v>
+      </c>
+      <c r="X64" s="4">
+        <v>26771</v>
+      </c>
+      <c r="Y64" s="4"/>
+      <c r="Z64" s="4"/>
+    </row>
+    <row r="65" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="4">
+        <v>2954</v>
+      </c>
+      <c r="X65" s="4">
+        <v>2581</v>
+      </c>
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="4"/>
+    </row>
+    <row r="66" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
+      <c r="S66" s="4"/>
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="4"/>
+      <c r="W66" s="4">
+        <v>11671</v>
+      </c>
+      <c r="X66" s="4">
+        <v>11967</v>
+      </c>
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="4"/>
+    </row>
+    <row r="67" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="4"/>
+      <c r="W67" s="4">
+        <f>1519+76128</f>
+        <v>77647</v>
+      </c>
+      <c r="X67" s="4">
+        <f>76205+4922</f>
+        <v>81127</v>
+      </c>
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="4"/>
+    </row>
+    <row r="68" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4"/>
+      <c r="S68" s="4"/>
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="4">
+        <f t="shared" ref="W68" si="16">SUM(W60:W67)</f>
+        <v>221238</v>
+      </c>
+      <c r="X68" s="4">
+        <f>SUM(X60:X67)</f>
+        <v>230172</v>
+      </c>
+      <c r="Y68" s="4"/>
+      <c r="Z68" s="4"/>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" s="2">
+        <v>-468</v>
+      </c>
+      <c r="D75" s="2">
+        <f>-704-C75</f>
+        <v>-236</v>
+      </c>
+      <c r="E75" s="2">
+        <f>-908-D75-C75</f>
+        <v>-204</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{6C5060DB-B9BC-4C2E-9E18-24A38681A54C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/UNH.xlsx
+++ b/UNH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F651D1C-BF1D-4C0F-90AB-6D5C377A60B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D628F7-D537-441E-A42E-8C5DAD374708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{04FE48EC-24E3-4318-82CA-AE691D8B8F65}"/>
+    <workbookView xWindow="73725" yWindow="690" windowWidth="21390" windowHeight="18840" xr2:uid="{04FE48EC-24E3-4318-82CA-AE691D8B8F65}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -743,7 +743,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0A3C4E-9822-4718-A83E-52B4DD123491}">
   <dimension ref="L2:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -820,17 +822,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09717AAE-9570-49D1-9F3C-CCC93C2EDF11}">
   <dimension ref="A1:Z75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B75" sqref="B75"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
     <col min="3" max="26" width="9.140625" style="2"/>
   </cols>
   <sheetData>

--- a/UNH.xlsx
+++ b/UNH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D628F7-D537-441E-A42E-8C5DAD374708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100DCEAC-FD0C-4FD5-A20A-FA21BED2A3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="73725" yWindow="690" windowWidth="21390" windowHeight="18840" xr2:uid="{04FE48EC-24E3-4318-82CA-AE691D8B8F65}"/>
+    <workbookView xWindow="16155" yWindow="2085" windowWidth="24810" windowHeight="17385" activeTab="1" xr2:uid="{04FE48EC-24E3-4318-82CA-AE691D8B8F65}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -743,7 +743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0A3C4E-9822-4718-A83E-52B4DD123491}">
   <dimension ref="L2:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -822,11 +822,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09717AAE-9570-49D1-9F3C-CCC93C2EDF11}">
   <dimension ref="A1:Z75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="V14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="AB22" sqref="AB22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/UNH.xlsx
+++ b/UNH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100DCEAC-FD0C-4FD5-A20A-FA21BED2A3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531A476E-ADF6-4F4B-AB42-552693577F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16155" yWindow="2085" windowWidth="24810" windowHeight="17385" activeTab="1" xr2:uid="{04FE48EC-24E3-4318-82CA-AE691D8B8F65}"/>
+    <workbookView xWindow="11250" yWindow="4360" windowWidth="26500" windowHeight="15380" xr2:uid="{04FE48EC-24E3-4318-82CA-AE691D8B8F65}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="114">
   <si>
     <t>Price</t>
   </si>
@@ -294,6 +294,90 @@
   </si>
   <si>
     <t>Acquisitions</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Model NI</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>CFFI</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>Reported NI</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>SBC</t>
+  </si>
+  <si>
+    <t>Loss on Subsidiary</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>Buybacks</t>
+  </si>
+  <si>
+    <t>Dividends</t>
+  </si>
+  <si>
+    <t>Stock Issuances</t>
+  </si>
+  <si>
+    <t>Customer Funds</t>
+  </si>
+  <si>
+    <t>CFFF</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>CIC</t>
+  </si>
+  <si>
+    <t>Cyberattack</t>
+  </si>
+  <si>
+    <t>CEO: Andrew Witty</t>
   </si>
 </sst>
 </file>
@@ -346,7 +430,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -371,6 +455,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -393,16 +478,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>61707</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>61707</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>33130</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -417,8 +502,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7953375" y="66675"/>
-          <a:ext cx="0" cy="13716000"/>
+          <a:off x="20994620" y="0"/>
+          <a:ext cx="0" cy="16692217"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -445,9 +530,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -485,7 +570,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -591,7 +676,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -733,7 +818,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -741,76 +826,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0A3C4E-9822-4718-A83E-52B4DD123491}">
-  <dimension ref="L2:N7"/>
+  <dimension ref="L2:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L2" t="s">
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>544.42999999999995</v>
-      </c>
-    </row>
-    <row r="3" spans="12:14" x14ac:dyDescent="0.2">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="3" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L3" t="s">
         <v>1</v>
       </c>
       <c r="M3" s="3">
-        <v>935.38270999999997</v>
+        <v>928</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="12:14" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L4" t="s">
         <v>2</v>
       </c>
       <c r="M4" s="3">
         <f>+M2*M3</f>
-        <v>509250.40880529996</v>
-      </c>
-    </row>
-    <row r="5" spans="12:14" x14ac:dyDescent="0.2">
+        <v>530816</v>
+      </c>
+    </row>
+    <row r="5" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L5" t="s">
         <v>3</v>
       </c>
       <c r="M5" s="3">
-        <f>24612+3352+42427</f>
-        <v>70391</v>
+        <v>77436</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="12:14" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L6" t="s">
         <v>4</v>
       </c>
       <c r="M6" s="3">
-        <f>5592+22978+45799</f>
-        <v>74369</v>
+        <v>75098</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="12:14" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L7" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="3">
         <f>+M4-M5+M6</f>
-        <v>513228.40880529996</v>
+        <v>528478</v>
+      </c>
+    </row>
+    <row r="10" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -820,28 +908,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09717AAE-9570-49D1-9F3C-CCC93C2EDF11}">
-  <dimension ref="A1:Z75"/>
+  <dimension ref="A1:AH95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="V14" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="W38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB22" sqref="AB22"/>
+      <selection pane="bottomRight" activeCell="AF51" sqref="AF51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="26" width="9.140625" style="2"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="3" max="26" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>82</v>
       </c>
@@ -914,8 +1002,32 @@
       <c r="Z2" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>46</v>
       </c>
@@ -951,8 +1063,14 @@
       </c>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
-    </row>
-    <row r="4" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA3" s="3">
+        <v>8035</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>8735</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>47</v>
       </c>
@@ -988,8 +1106,14 @@
       </c>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
-    </row>
-    <row r="5" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA4" s="3">
+        <v>19140</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>20835</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>48</v>
       </c>
@@ -1029,8 +1153,16 @@
       </c>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
-    </row>
-    <row r="6" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA5" s="4">
+        <f t="shared" ref="AA5" si="1">+AA4+AA3</f>
+        <v>27175</v>
+      </c>
+      <c r="AE5" s="4">
+        <f t="shared" ref="AE5" si="2">+AE4+AE3</f>
+        <v>29570</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>49</v>
       </c>
@@ -1066,8 +1198,14 @@
       </c>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
-    </row>
-    <row r="7" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA6" s="3">
+        <v>7590</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>7770</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>50</v>
       </c>
@@ -1103,8 +1241,14 @@
       </c>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
-    </row>
-    <row r="8" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA7" s="3">
+        <v>8355</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>7410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>51</v>
       </c>
@@ -1140,8 +1284,14 @@
       </c>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
-    </row>
-    <row r="9" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>4330</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>4335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>52</v>
       </c>
@@ -1168,21 +1318,29 @@
       </c>
       <c r="U9" s="4"/>
       <c r="V9" s="4">
-        <f t="shared" ref="V9:X9" si="1">SUM(V6:V8)</f>
+        <f t="shared" ref="V9:X9" si="3">SUM(V6:V8)</f>
         <v>18540</v>
       </c>
       <c r="W9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>19055</v>
       </c>
       <c r="X9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>19290</v>
       </c>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
-    </row>
-    <row r="10" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA9" s="4">
+        <f t="shared" ref="AA9" si="4">SUM(AA6:AA8)</f>
+        <v>20275</v>
+      </c>
+      <c r="AE9" s="4">
+        <f t="shared" ref="AE9" si="5">SUM(AE6:AE8)</f>
+        <v>19515</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>53</v>
       </c>
@@ -1218,8 +1376,14 @@
       </c>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
-    </row>
-    <row r="11" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3">
+        <v>5385</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>54</v>
       </c>
@@ -1255,8 +1419,14 @@
       </c>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
-    </row>
-    <row r="12" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3">
+        <v>3355</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1282,7 +1452,7 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
     </row>
-    <row r="13" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>55</v>
       </c>
@@ -1319,7 +1489,7 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
     </row>
-    <row r="14" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>56</v>
       </c>
@@ -1356,7 +1526,7 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>57</v>
       </c>
@@ -1393,7 +1563,7 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
     </row>
-    <row r="17" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>38</v>
       </c>
@@ -1425,8 +1595,14 @@
       </c>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
-    </row>
-    <row r="18" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>16759</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>18646</v>
+      </c>
+    </row>
+    <row r="18" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>39</v>
       </c>
@@ -1458,8 +1634,14 @@
       </c>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
-    </row>
-    <row r="19" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>2325</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="19" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>40</v>
       </c>
@@ -1491,8 +1673,14 @@
       </c>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
-    </row>
-    <row r="20" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3">
+        <v>32440</v>
+      </c>
+      <c r="AE19" s="3">
+        <v>34904</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>41</v>
       </c>
@@ -1524,8 +1712,14 @@
       </c>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
-    </row>
-    <row r="21" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>18707</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>19725</v>
+      </c>
+    </row>
+    <row r="21" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>42</v>
       </c>
@@ -1557,8 +1751,14 @@
       </c>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
-    </row>
-    <row r="22" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3">
+        <v>56344</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>62879</v>
+      </c>
+    </row>
+    <row r="22" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>43</v>
       </c>
@@ -1591,7 +1791,7 @@
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
     </row>
-    <row r="23" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>44</v>
       </c>
@@ -1624,7 +1824,7 @@
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
     </row>
-    <row r="24" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>45</v>
       </c>
@@ -1657,7 +1857,7 @@
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>34</v>
       </c>
@@ -1670,7 +1870,7 @@
         <v>11803</v>
       </c>
     </row>
-    <row r="28" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>7</v>
       </c>
@@ -1706,8 +1906,20 @@
       </c>
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
-    </row>
-    <row r="29" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>72786</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>72474</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>77988</v>
+      </c>
+      <c r="AF28" s="3">
+        <v>76897</v>
+      </c>
+    </row>
+    <row r="29" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>20</v>
       </c>
@@ -1743,8 +1955,20 @@
       </c>
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
-    </row>
-    <row r="30" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>10267</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>10651</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>11909</v>
+      </c>
+      <c r="AF29" s="3">
+        <v>12211</v>
+      </c>
+    </row>
+    <row r="30" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>22</v>
       </c>
@@ -1780,8 +2004,20 @@
       </c>
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
-    </row>
-    <row r="31" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>8080</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>8663</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>8888</v>
+      </c>
+      <c r="AF30" s="3">
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="31" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>21</v>
       </c>
@@ -1817,8 +2053,20 @@
       </c>
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
-    </row>
-    <row r="32" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>798</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>1115</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>1011</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="32" spans="2:34" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
         <v>23</v>
       </c>
@@ -1839,7 +2087,7 @@
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6">
-        <f t="shared" ref="S32" si="2">SUM(S28:S31)</f>
+        <f t="shared" ref="S32" si="6">SUM(S28:S31)</f>
         <v>70196</v>
       </c>
       <c r="T32" s="6">
@@ -1849,17 +2097,55 @@
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
       <c r="W32" s="6">
-        <f t="shared" ref="W32" si="3">SUM(W28:W31)</f>
+        <f t="shared" ref="W32" si="7">SUM(W28:W31)</f>
         <v>80149</v>
       </c>
       <c r="X32" s="6">
-        <f>SUM(X28:X31)</f>
+        <f t="shared" ref="X32:AH32" si="8">SUM(X28:X31)</f>
         <v>80332</v>
       </c>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="6"/>
-    </row>
-    <row r="33" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y32" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="6">
+        <f t="shared" si="8"/>
+        <v>91931</v>
+      </c>
+      <c r="AB32" s="6">
+        <f t="shared" si="8"/>
+        <v>92903</v>
+      </c>
+      <c r="AC32" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AD32" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE32" s="6">
+        <f t="shared" si="8"/>
+        <v>99796</v>
+      </c>
+      <c r="AF32" s="6">
+        <f t="shared" si="8"/>
+        <v>98855</v>
+      </c>
+      <c r="AG32" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AH32" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>24</v>
       </c>
@@ -1895,8 +2181,20 @@
       </c>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
-    </row>
-    <row r="34" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>59845</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>60268</v>
+      </c>
+      <c r="AE33" s="3">
+        <v>65735</v>
+      </c>
+      <c r="AF33" s="3">
+        <v>65458</v>
+      </c>
+    </row>
+    <row r="34" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>25</v>
       </c>
@@ -1932,8 +2230,20 @@
       </c>
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
-    </row>
-    <row r="35" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>13625</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>13809</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>14077</v>
+      </c>
+      <c r="AF34" s="3">
+        <v>13162</v>
+      </c>
+    </row>
+    <row r="35" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>26</v>
       </c>
@@ -1969,8 +2279,20 @@
       </c>
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
-    </row>
-    <row r="36" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>9405</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>9748</v>
+      </c>
+      <c r="AE35" s="3">
+        <v>11056</v>
+      </c>
+      <c r="AF35" s="3">
+        <v>11340</v>
+      </c>
+    </row>
+    <row r="36" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>27</v>
       </c>
@@ -1991,7 +2313,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4">
-        <f t="shared" ref="S36" si="4">SUM(S33:S35)</f>
+        <f t="shared" ref="S36" si="9">SUM(S33:S35)</f>
         <v>62699</v>
       </c>
       <c r="T36" s="4">
@@ -2001,17 +2323,55 @@
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
       <c r="W36" s="4">
-        <f t="shared" ref="W36" si="5">SUM(W33:W35)</f>
+        <f t="shared" ref="W36" si="10">SUM(W33:W35)</f>
         <v>72411</v>
       </c>
       <c r="X36" s="4">
         <f>SUM(X33:X35)</f>
         <v>72398</v>
       </c>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
-    </row>
-    <row r="37" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y36" s="4">
+        <f t="shared" ref="Y36:AH36" si="11">SUM(Y33:Y35)</f>
+        <v>0</v>
+      </c>
+      <c r="Z36" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA36" s="4">
+        <f t="shared" si="11"/>
+        <v>82875</v>
+      </c>
+      <c r="AB36" s="4">
+        <f t="shared" si="11"/>
+        <v>83825</v>
+      </c>
+      <c r="AC36" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AD36" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AE36" s="4">
+        <f t="shared" si="11"/>
+        <v>90868</v>
+      </c>
+      <c r="AF36" s="4">
+        <f t="shared" si="11"/>
+        <v>89960</v>
+      </c>
+      <c r="AG36" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AH36" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>30</v>
       </c>
@@ -2032,7 +2392,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4">
-        <f t="shared" ref="S37" si="6">S32-S36</f>
+        <f t="shared" ref="S37" si="12">S32-S36</f>
         <v>7497</v>
       </c>
       <c r="T37" s="4">
@@ -2042,17 +2402,55 @@
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37" s="4">
-        <f t="shared" ref="W37" si="7">W32-W36</f>
+        <f t="shared" ref="W37" si="13">W32-W36</f>
         <v>7738</v>
       </c>
       <c r="X37" s="4">
         <f>X32-X36</f>
         <v>7934</v>
       </c>
-      <c r="Y37" s="4"/>
-      <c r="Z37" s="4"/>
-    </row>
-    <row r="38" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y37" s="4">
+        <f t="shared" ref="Y37:AH37" si="14">Y32-Y36</f>
+        <v>0</v>
+      </c>
+      <c r="Z37" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AA37" s="4">
+        <f t="shared" si="14"/>
+        <v>9056</v>
+      </c>
+      <c r="AB37" s="4">
+        <f t="shared" si="14"/>
+        <v>9078</v>
+      </c>
+      <c r="AC37" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD37" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE37" s="4">
+        <f t="shared" si="14"/>
+        <v>8928</v>
+      </c>
+      <c r="AF37" s="4">
+        <f t="shared" si="14"/>
+        <v>8895</v>
+      </c>
+      <c r="AG37" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH37" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>29</v>
       </c>
@@ -2088,8 +2486,20 @@
       </c>
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
-    </row>
-    <row r="39" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA38" s="3">
+        <v>-754</v>
+      </c>
+      <c r="AB38" s="3">
+        <v>-828</v>
+      </c>
+      <c r="AE38" s="3">
+        <v>-985</v>
+      </c>
+      <c r="AF38" s="3">
+        <v>-985</v>
+      </c>
+    </row>
+    <row r="39" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>28</v>
       </c>
@@ -2110,7 +2520,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4">
-        <f t="shared" ref="S39" si="8">+S37+S38</f>
+        <f t="shared" ref="S39" si="15">+S37+S38</f>
         <v>7100</v>
       </c>
       <c r="T39" s="4">
@@ -2120,7 +2530,7 @@
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
       <c r="W39" s="4">
-        <f t="shared" ref="W39" si="9">+W37+W38</f>
+        <f t="shared" ref="W39" si="16">+W37+W38</f>
         <v>7305</v>
       </c>
       <c r="X39" s="4">
@@ -2129,8 +2539,24 @@
       </c>
       <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
-    </row>
-    <row r="40" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA39" s="4">
+        <f>+AA37+AA38</f>
+        <v>8302</v>
+      </c>
+      <c r="AB39" s="4">
+        <f>+AB37+AB38</f>
+        <v>8250</v>
+      </c>
+      <c r="AE39" s="4">
+        <f>+AE37+AE38</f>
+        <v>7943</v>
+      </c>
+      <c r="AF39" s="4">
+        <f>+AF37+AF38</f>
+        <v>7910</v>
+      </c>
+    </row>
+    <row r="40" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>31</v>
       </c>
@@ -2168,8 +2594,24 @@
       </c>
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
-    </row>
-    <row r="41" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA40" s="4">
+        <f>1558+163</f>
+        <v>1721</v>
+      </c>
+      <c r="AB40" s="4">
+        <f>1572+183</f>
+        <v>1755</v>
+      </c>
+      <c r="AE40" s="4">
+        <f>1222+188</f>
+        <v>1410</v>
+      </c>
+      <c r="AF40" s="4">
+        <f>1244+205</f>
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="41" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>32</v>
       </c>
@@ -2190,7 +2632,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
       <c r="S41" s="4">
-        <f t="shared" ref="S41" si="10">+S39-S40</f>
+        <f t="shared" ref="S41" si="17">+S39-S40</f>
         <v>5620</v>
       </c>
       <c r="T41" s="4">
@@ -2200,7 +2642,7 @@
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
       <c r="W41" s="4">
-        <f t="shared" ref="W41" si="11">+W39-W40</f>
+        <f t="shared" ref="W41" si="18">+W39-W40</f>
         <v>5815</v>
       </c>
       <c r="X41" s="4">
@@ -2209,13 +2651,29 @@
       </c>
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="4">
+        <f>+AA39-AA40</f>
+        <v>6581</v>
+      </c>
+      <c r="AB41" s="4">
+        <f>+AB39-AB40</f>
+        <v>6495</v>
+      </c>
+      <c r="AE41" s="4">
+        <f>+AE39-AE40</f>
+        <v>6533</v>
+      </c>
+      <c r="AF41" s="4">
+        <f>+AF39-AF40</f>
+        <v>6461</v>
+      </c>
+    </row>
+    <row r="42" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S42" s="7">
-        <f t="shared" ref="S42" si="12">S41/S43</f>
+        <f t="shared" ref="S42" si="19">S41/S43</f>
         <v>5.8725182863113901</v>
       </c>
       <c r="T42" s="7">
@@ -2223,15 +2681,31 @@
         <v>5.3870292887029292</v>
       </c>
       <c r="W42" s="7">
-        <f t="shared" ref="W42" si="13">W41/W43</f>
+        <f t="shared" ref="W42" si="20">W41/W43</f>
         <v>6.0953878406708597</v>
       </c>
       <c r="X42" s="7">
         <f>X41/X43</f>
         <v>6.3168421052631576</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="7">
+        <f>AA41/AA43</f>
+        <v>6.9787910922587484</v>
+      </c>
+      <c r="AB42" s="7">
+        <f>AB41/AB43</f>
+        <v>6.9095744680851068</v>
+      </c>
+      <c r="AE42" s="7">
+        <f>AE41/AE43</f>
+        <v>7.0856832971800436</v>
+      </c>
+      <c r="AF42" s="7">
+        <f>AF41/AF43</f>
+        <v>6.962284482758621</v>
+      </c>
+    </row>
+    <row r="43" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>1</v>
       </c>
@@ -2247,8 +2721,20 @@
       <c r="X43" s="2">
         <v>950</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA43" s="2">
+        <v>943</v>
+      </c>
+      <c r="AB43" s="2">
+        <v>940</v>
+      </c>
+      <c r="AE43" s="2">
+        <v>922</v>
+      </c>
+      <c r="AF43" s="2">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="45" spans="2:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="9" t="s">
         <v>35</v>
       </c>
@@ -2269,7 +2755,7 @@
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
       <c r="S45" s="10">
-        <f t="shared" ref="S45" si="14">S33/S28</f>
+        <f t="shared" ref="S45" si="21">S33/S28</f>
         <v>0.80928522510182754</v>
       </c>
       <c r="T45" s="10">
@@ -2286,10 +2772,48 @@
         <f>X33/X28</f>
         <v>0.81527795167146611</v>
       </c>
-      <c r="Y45" s="10"/>
-      <c r="Z45" s="10"/>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Y45" s="10" t="e">
+        <f t="shared" ref="Y45:AH45" si="22">Y33/Y28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z45" s="10" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA45" s="10">
+        <f t="shared" si="22"/>
+        <v>0.82220481960816638</v>
+      </c>
+      <c r="AB45" s="10">
+        <f t="shared" si="22"/>
+        <v>0.8315809807655159</v>
+      </c>
+      <c r="AC45" s="10" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD45" s="10" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE45" s="10">
+        <f t="shared" si="22"/>
+        <v>0.84288608503872386</v>
+      </c>
+      <c r="AF45" s="10">
+        <f t="shared" si="22"/>
+        <v>0.85124257123164748</v>
+      </c>
+      <c r="AG45" s="10" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH45" s="10" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>36</v>
       </c>
@@ -2301,8 +2825,16 @@
         <f>X32/T32-1</f>
         <v>0.12634427447736285</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AE47" s="12">
+        <f>+AE32/AA32-1</f>
+        <v>8.5553295406337382E-2</v>
+      </c>
+      <c r="AF47" s="12">
+        <f>+AF32/AB32-1</f>
+        <v>6.4066822384637678E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>37</v>
       </c>
@@ -2314,8 +2846,16 @@
         <f>X28/T28-1</f>
         <v>0.13627229562712295</v>
       </c>
-    </row>
-    <row r="50" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE48" s="12">
+        <f>+AE28/AA28-1</f>
+        <v>7.1469788146071966E-2</v>
+      </c>
+      <c r="AF48" s="12">
+        <f>+AF28/AB28-1</f>
+        <v>6.1028782735877751E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>3</v>
       </c>
@@ -2349,8 +2889,16 @@
       </c>
       <c r="Y50" s="4"/>
       <c r="Z50" s="4"/>
-    </row>
-    <row r="51" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <f>28414+4296+45928</f>
+        <v>78638</v>
+      </c>
+      <c r="AF50" s="3">
+        <f>26286+5037+46113</f>
+        <v>77436</v>
+      </c>
+    </row>
+    <row r="51" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>59</v>
       </c>
@@ -2382,8 +2930,14 @@
       </c>
       <c r="Y51" s="4"/>
       <c r="Z51" s="4"/>
-    </row>
-    <row r="52" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>27197</v>
+      </c>
+      <c r="AF51" s="3">
+        <v>23115</v>
+      </c>
+    </row>
+    <row r="52" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>60</v>
       </c>
@@ -2415,8 +2969,14 @@
       </c>
       <c r="Y52" s="4"/>
       <c r="Z52" s="4"/>
-    </row>
-    <row r="53" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>19284</v>
+      </c>
+      <c r="AF52" s="3">
+        <v>26762</v>
+      </c>
+    </row>
+    <row r="53" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
         <v>61</v>
       </c>
@@ -2448,8 +3008,14 @@
       </c>
       <c r="Y53" s="4"/>
       <c r="Z53" s="4"/>
-    </row>
-    <row r="54" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>3619</v>
+      </c>
+      <c r="AF53" s="3">
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="54" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
         <v>62</v>
       </c>
@@ -2481,8 +3047,14 @@
       </c>
       <c r="Y54" s="4"/>
       <c r="Z54" s="4"/>
-    </row>
-    <row r="55" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3">
+        <v>6132</v>
+      </c>
+      <c r="AF54" s="3">
+        <v>7424</v>
+      </c>
+    </row>
+    <row r="55" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
         <v>63</v>
       </c>
@@ -2514,8 +3086,14 @@
       </c>
       <c r="Y55" s="4"/>
       <c r="Z55" s="4"/>
-    </row>
-    <row r="56" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3">
+        <v>10429</v>
+      </c>
+      <c r="AF55" s="3">
+        <v>9801</v>
+      </c>
+    </row>
+    <row r="56" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
         <v>64</v>
       </c>
@@ -2549,8 +3127,16 @@
       </c>
       <c r="Y56" s="4"/>
       <c r="Z56" s="4"/>
-    </row>
-    <row r="57" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3">
+        <f>105664+15543</f>
+        <v>121207</v>
+      </c>
+      <c r="AF56" s="3">
+        <f>105436+14729</f>
+        <v>120165</v>
+      </c>
+    </row>
+    <row r="57" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
         <v>65</v>
       </c>
@@ -2582,8 +3168,14 @@
       </c>
       <c r="Y57" s="4"/>
       <c r="Z57" s="4"/>
-    </row>
-    <row r="58" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>17704</v>
+      </c>
+      <c r="AF57" s="3">
+        <v>17939</v>
+      </c>
+    </row>
+    <row r="58" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
         <v>58</v>
       </c>
@@ -2608,7 +3200,7 @@
       <c r="U58" s="4"/>
       <c r="V58" s="4"/>
       <c r="W58" s="4">
-        <f t="shared" ref="W58" si="15">SUM(W50:W57)</f>
+        <f t="shared" ref="W58" si="23">SUM(W50:W57)</f>
         <v>221238</v>
       </c>
       <c r="X58" s="4">
@@ -2617,8 +3209,16 @@
       </c>
       <c r="Y58" s="4"/>
       <c r="Z58" s="4"/>
-    </row>
-    <row r="60" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE58" s="4">
+        <f t="shared" ref="AE58" si="24">SUM(AE50:AE57)</f>
+        <v>284210</v>
+      </c>
+      <c r="AF58" s="4">
+        <f>SUM(AF50:AF57)</f>
+        <v>286056</v>
+      </c>
+    </row>
+    <row r="60" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
         <v>66</v>
       </c>
@@ -2650,8 +3250,14 @@
       </c>
       <c r="Y60" s="4"/>
       <c r="Z60" s="4"/>
-    </row>
-    <row r="61" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>34032</v>
+      </c>
+      <c r="AF60" s="3">
+        <v>32547</v>
+      </c>
+    </row>
+    <row r="61" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
         <v>67</v>
       </c>
@@ -2683,8 +3289,14 @@
       </c>
       <c r="Y61" s="4"/>
       <c r="Z61" s="4"/>
-    </row>
-    <row r="62" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>30738</v>
+      </c>
+      <c r="AF61" s="3">
+        <v>30886</v>
+      </c>
+    </row>
+    <row r="62" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2718,8 +3330,16 @@
       </c>
       <c r="Y62" s="4"/>
       <c r="Z62" s="4"/>
-    </row>
-    <row r="63" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <f>9787+63850</f>
+        <v>73637</v>
+      </c>
+      <c r="AF62" s="3">
+        <f>11371+63727</f>
+        <v>75098</v>
+      </c>
+    </row>
+    <row r="63" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
         <v>68</v>
       </c>
@@ -2751,8 +3371,14 @@
       </c>
       <c r="Y63" s="4"/>
       <c r="Z63" s="4"/>
-    </row>
-    <row r="64" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>3206</v>
+      </c>
+      <c r="AF63" s="3">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="64" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>69</v>
       </c>
@@ -2784,8 +3410,14 @@
       </c>
       <c r="Y64" s="4"/>
       <c r="Z64" s="4"/>
-    </row>
-    <row r="65" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>26668</v>
+      </c>
+      <c r="AF64" s="3">
+        <v>27294</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
         <v>70</v>
       </c>
@@ -2817,8 +3449,14 @@
       </c>
       <c r="Y65" s="4"/>
       <c r="Z65" s="4"/>
-    </row>
-    <row r="66" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>4167</v>
+      </c>
+      <c r="AF65" s="3">
+        <v>3631</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
         <v>71</v>
       </c>
@@ -2850,8 +3488,14 @@
       </c>
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
-    </row>
-    <row r="67" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3">
+        <v>14844</v>
+      </c>
+      <c r="AF66" s="3">
+        <v>14794</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
         <v>72</v>
       </c>
@@ -2885,8 +3529,16 @@
       </c>
       <c r="Y67" s="4"/>
       <c r="Z67" s="4"/>
-    </row>
-    <row r="68" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3">
+        <f>4548+92370</f>
+        <v>96918</v>
+      </c>
+      <c r="AF67" s="3">
+        <f>94676+4558</f>
+        <v>99234</v>
+      </c>
+    </row>
+    <row r="68" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
         <v>73</v>
       </c>
@@ -2911,7 +3563,7 @@
       <c r="U68" s="4"/>
       <c r="V68" s="4"/>
       <c r="W68" s="4">
-        <f t="shared" ref="W68" si="16">SUM(W60:W67)</f>
+        <f t="shared" ref="W68" si="25">SUM(W60:W67)</f>
         <v>221238</v>
       </c>
       <c r="X68" s="4">
@@ -2920,21 +3572,703 @@
       </c>
       <c r="Y68" s="4"/>
       <c r="Z68" s="4"/>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
+      <c r="AE68" s="4">
+        <f t="shared" ref="AE68" si="26">SUM(AE60:AE67)</f>
+        <v>284210</v>
+      </c>
+      <c r="AF68" s="4">
+        <f>SUM(AF60:AF67)</f>
+        <v>286056</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+      <c r="S70" s="4"/>
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="4"/>
+      <c r="X70" s="4"/>
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="4"/>
+      <c r="AE70" s="3">
+        <f>+AE41</f>
+        <v>6533</v>
+      </c>
+      <c r="AF70" s="3">
+        <f>+AF41</f>
+        <v>6461</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4"/>
+      <c r="S71" s="4"/>
+      <c r="T71" s="4"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="4"/>
+      <c r="X71" s="4"/>
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="4"/>
+      <c r="AE71" s="3">
+        <v>-1221</v>
+      </c>
+      <c r="AF71" s="3">
+        <f>3200-AE71</f>
+        <v>4421</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="4"/>
+      <c r="X72" s="4"/>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="4"/>
+      <c r="AE72" s="3">
+        <v>997</v>
+      </c>
+      <c r="AF72" s="3">
+        <f>2017-AE72</f>
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4"/>
+      <c r="S73" s="4"/>
+      <c r="T73" s="4"/>
+      <c r="U73" s="4"/>
+      <c r="V73" s="4"/>
+      <c r="W73" s="4"/>
+      <c r="X73" s="4"/>
+      <c r="Y73" s="4"/>
+      <c r="Z73" s="4"/>
+      <c r="AE73" s="3">
+        <v>-27</v>
+      </c>
+      <c r="AF73" s="3">
+        <f>-358-AE73</f>
+        <v>-331</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4"/>
+      <c r="S74" s="4"/>
+      <c r="T74" s="4"/>
+      <c r="U74" s="4"/>
+      <c r="V74" s="4"/>
+      <c r="W74" s="4"/>
+      <c r="X74" s="4"/>
+      <c r="Y74" s="4"/>
+      <c r="Z74" s="4"/>
+      <c r="AE74" s="3">
+        <v>372</v>
+      </c>
+      <c r="AF74" s="3">
+        <f>594-AE74</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="4"/>
+      <c r="S75" s="4"/>
+      <c r="T75" s="4"/>
+      <c r="U75" s="4"/>
+      <c r="V75" s="4"/>
+      <c r="W75" s="4"/>
+      <c r="X75" s="4"/>
+      <c r="Y75" s="4"/>
+      <c r="Z75" s="4"/>
+      <c r="AE75" s="3">
+        <v>7086</v>
+      </c>
+      <c r="AF75" s="3">
+        <f>8311-AE75</f>
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+      <c r="S76" s="4"/>
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="4"/>
+      <c r="X76" s="4"/>
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="4"/>
+      <c r="AE76" s="3">
+        <v>179</v>
+      </c>
+      <c r="AF76" s="3">
+        <f>459-AE76</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+      <c r="S77" s="4"/>
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="4"/>
+      <c r="X77" s="4"/>
+      <c r="Y77" s="4"/>
+      <c r="Z77" s="4"/>
+      <c r="AE77" s="3">
+        <f>-6162-1927+2069-231+9</f>
+        <v>-6242</v>
+      </c>
+      <c r="AF77" s="3">
+        <f>-2471-4121+777+36-554-AE77</f>
+        <v>-91</v>
+      </c>
+    </row>
+    <row r="78" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4"/>
+      <c r="S78" s="4"/>
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+      <c r="V78" s="4"/>
+      <c r="W78" s="4"/>
+      <c r="X78" s="4"/>
+      <c r="Y78" s="4"/>
+      <c r="Z78" s="4"/>
+      <c r="AE78" s="3">
+        <f>SUM(AE71:AE77)</f>
+        <v>1144</v>
+      </c>
+      <c r="AF78" s="3">
+        <f>SUM(AF71:AF77)</f>
+        <v>6746</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4"/>
+      <c r="S79" s="4"/>
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="4"/>
+      <c r="W79" s="4"/>
+      <c r="X79" s="4"/>
+      <c r="Y79" s="4"/>
+      <c r="Z79" s="4"/>
+    </row>
+    <row r="80" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
+      <c r="S80" s="4"/>
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
+      <c r="V80" s="4"/>
+      <c r="W80" s="4"/>
+      <c r="X80" s="4"/>
+      <c r="Y80" s="4"/>
+      <c r="Z80" s="4"/>
+      <c r="AE80" s="3">
+        <f>-4798+2976+2314</f>
+        <v>492</v>
+      </c>
+      <c r="AF80" s="3">
+        <f>-10130+5288+4621-AE80</f>
+        <v>-713</v>
+      </c>
+    </row>
+    <row r="81" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C81" s="4">
         <v>-468</v>
       </c>
-      <c r="D75" s="2">
-        <f>-704-C75</f>
+      <c r="D81" s="4">
+        <f>-704-C81</f>
         <v>-236</v>
       </c>
-      <c r="E75" s="2">
-        <f>-908-D75-C75</f>
+      <c r="E81" s="4">
+        <f>-908-D81-C81</f>
         <v>-204</v>
+      </c>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4"/>
+      <c r="S81" s="4"/>
+      <c r="T81" s="4"/>
+      <c r="U81" s="4"/>
+      <c r="V81" s="4"/>
+      <c r="W81" s="4"/>
+      <c r="X81" s="4"/>
+      <c r="Y81" s="4"/>
+      <c r="Z81" s="4"/>
+      <c r="AE81" s="3">
+        <v>-3006</v>
+      </c>
+      <c r="AF81" s="3">
+        <f>-3031-AE81</f>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="82" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4"/>
+      <c r="S82" s="4"/>
+      <c r="T82" s="4"/>
+      <c r="U82" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="4"/>
+      <c r="X82" s="4"/>
+      <c r="Y82" s="4"/>
+      <c r="Z82" s="4"/>
+      <c r="AE82" s="3">
+        <v>-743</v>
+      </c>
+      <c r="AF82" s="3">
+        <f>-1596-AE82</f>
+        <v>-853</v>
+      </c>
+    </row>
+    <row r="83" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+      <c r="R83" s="4"/>
+      <c r="S83" s="4"/>
+      <c r="T83" s="4"/>
+      <c r="U83" s="4"/>
+      <c r="V83" s="4"/>
+      <c r="W83" s="4"/>
+      <c r="X83" s="4"/>
+      <c r="Y83" s="4"/>
+      <c r="Z83" s="4"/>
+      <c r="AE83" s="3">
+        <v>-3083</v>
+      </c>
+      <c r="AF83" s="3">
+        <f>-809-AE83</f>
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="84" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4"/>
+      <c r="R84" s="4"/>
+      <c r="S84" s="4"/>
+      <c r="T84" s="4"/>
+      <c r="U84" s="4"/>
+      <c r="V84" s="4"/>
+      <c r="W84" s="4"/>
+      <c r="X84" s="4"/>
+      <c r="Y84" s="4"/>
+      <c r="Z84" s="4"/>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF84" s="3">
+        <f>-8100-AE84</f>
+        <v>-8100</v>
+      </c>
+    </row>
+    <row r="85" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
+      <c r="R85" s="4"/>
+      <c r="S85" s="4"/>
+      <c r="T85" s="4"/>
+      <c r="U85" s="4"/>
+      <c r="V85" s="4"/>
+      <c r="W85" s="4"/>
+      <c r="X85" s="4"/>
+      <c r="Y85" s="4"/>
+      <c r="Z85" s="4"/>
+      <c r="AE85" s="3">
+        <f>SUM(AE80:AE84)</f>
+        <v>-6340</v>
+      </c>
+      <c r="AF85" s="3">
+        <f>SUM(AF80:AF84)</f>
+        <v>-7417</v>
+      </c>
+    </row>
+    <row r="87" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B87" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>-3072</v>
+      </c>
+      <c r="AF87" s="3">
+        <f>-3072-AE87</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B88" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>-1729</v>
+      </c>
+      <c r="AF88" s="3">
+        <f>-3664-AE88</f>
+        <v>-1935</v>
+      </c>
+    </row>
+    <row r="89" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B89" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE89" s="3">
+        <v>486</v>
+      </c>
+      <c r="AF89" s="3">
+        <f>744-AE89</f>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="90" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B90" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE90" s="3">
+        <f>-750+6189+5925</f>
+        <v>11364</v>
+      </c>
+      <c r="AF90" s="3">
+        <f>-1750+8615+5925-AE90</f>
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="91" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B91" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>1745</v>
+      </c>
+      <c r="AF91" s="3">
+        <f>990-AE91</f>
+        <v>-755</v>
+      </c>
+    </row>
+    <row r="92" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B92" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>-563</v>
+      </c>
+      <c r="AF92" s="3">
+        <f>-753-AE92</f>
+        <v>-190</v>
+      </c>
+    </row>
+    <row r="93" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B93" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE93" s="3">
+        <f>SUM(AE87:AE92)</f>
+        <v>8231</v>
+      </c>
+      <c r="AF93" s="3">
+        <f>SUM(AF87:AF92)</f>
+        <v>-1196</v>
+      </c>
+    </row>
+    <row r="94" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B94" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>-48</v>
+      </c>
+      <c r="AF94" s="3">
+        <f>-44-AE94</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B95" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE95" s="3">
+        <f>+AE94+AE93+AE85+AE78</f>
+        <v>2987</v>
+      </c>
+      <c r="AF95" s="3">
+        <f>+AF94+AF93+AF85+AF78</f>
+        <v>-1863</v>
       </c>
     </row>
   </sheetData>

--- a/UNH.xlsx
+++ b/UNH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531A476E-ADF6-4F4B-AB42-552693577F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9842CD6D-C261-433B-9733-1947A6289D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11250" yWindow="4360" windowWidth="26500" windowHeight="15380" xr2:uid="{04FE48EC-24E3-4318-82CA-AE691D8B8F65}"/>
+    <workbookView xWindow="-51015" yWindow="1500" windowWidth="20610" windowHeight="16575" activeTab="1" xr2:uid="{04FE48EC-24E3-4318-82CA-AE691D8B8F65}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -383,7 +383,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -462,7 +462,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{349EB731-8041-4370-8EC6-DFDE759F8ADB}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -828,16 +830,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0A3C4E-9822-4718-A83E-52B4DD123491}">
   <dimension ref="L2:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L2" t="s">
         <v>0</v>
       </c>
@@ -845,7 +847,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="3" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L3" t="s">
         <v>1</v>
       </c>
@@ -856,7 +858,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L4" t="s">
         <v>2</v>
       </c>
@@ -865,7 +867,7 @@
         <v>530816</v>
       </c>
     </row>
-    <row r="5" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L5" t="s">
         <v>3</v>
       </c>
@@ -876,7 +878,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L6" t="s">
         <v>4</v>
       </c>
@@ -887,7 +889,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L7" t="s">
         <v>5</v>
       </c>
@@ -896,7 +898,7 @@
         <v>528478</v>
       </c>
     </row>
-    <row r="10" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L10" t="s">
         <v>113</v>
       </c>
@@ -910,26 +912,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09717AAE-9570-49D1-9F3C-CCC93C2EDF11}">
   <dimension ref="A1:AH95"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="W38" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AD24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AF51" sqref="AF51"/>
+      <selection pane="bottomRight" activeCell="AF37" sqref="AF37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" customWidth="1"/>
-    <col min="3" max="26" width="9.1796875" style="2"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="26" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>82</v>
       </c>
@@ -1027,7 +1029,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>46</v>
       </c>
@@ -1070,7 +1072,7 @@
         <v>8735</v>
       </c>
     </row>
-    <row r="4" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>47</v>
       </c>
@@ -1113,7 +1115,7 @@
         <v>20835</v>
       </c>
     </row>
-    <row r="5" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>48</v>
       </c>
@@ -1162,7 +1164,7 @@
         <v>29570</v>
       </c>
     </row>
-    <row r="6" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>49</v>
       </c>
@@ -1205,7 +1207,7 @@
         <v>7770</v>
       </c>
     </row>
-    <row r="7" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>50</v>
       </c>
@@ -1248,7 +1250,7 @@
         <v>7410</v>
       </c>
     </row>
-    <row r="8" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>51</v>
       </c>
@@ -1291,7 +1293,7 @@
         <v>4335</v>
       </c>
     </row>
-    <row r="9" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>52</v>
       </c>
@@ -1340,7 +1342,7 @@
         <v>19515</v>
       </c>
     </row>
-    <row r="10" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>53</v>
       </c>
@@ -1383,7 +1385,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="11" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>54</v>
       </c>
@@ -1426,7 +1428,7 @@
         <v>3065</v>
       </c>
     </row>
-    <row r="12" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1452,7 +1454,7 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
     </row>
-    <row r="13" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>55</v>
       </c>
@@ -1489,7 +1491,7 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
     </row>
-    <row r="14" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>56</v>
       </c>
@@ -1526,7 +1528,7 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>57</v>
       </c>
@@ -1563,7 +1565,7 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
     </row>
-    <row r="17" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>38</v>
       </c>
@@ -1602,7 +1604,7 @@
         <v>18646</v>
       </c>
     </row>
-    <row r="18" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>39</v>
       </c>
@@ -1641,7 +1643,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="19" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>40</v>
       </c>
@@ -1680,7 +1682,7 @@
         <v>34904</v>
       </c>
     </row>
-    <row r="20" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>41</v>
       </c>
@@ -1719,7 +1721,7 @@
         <v>19725</v>
       </c>
     </row>
-    <row r="21" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>42</v>
       </c>
@@ -1758,7 +1760,7 @@
         <v>62879</v>
       </c>
     </row>
-    <row r="22" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>43</v>
       </c>
@@ -1791,7 +1793,7 @@
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
     </row>
-    <row r="23" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>44</v>
       </c>
@@ -1824,7 +1826,7 @@
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
     </row>
-    <row r="24" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>45</v>
       </c>
@@ -1857,7 +1859,7 @@
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
     </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>34</v>
       </c>
@@ -1869,8 +1871,12 @@
         <f>X28-X33</f>
         <v>11803</v>
       </c>
-    </row>
-    <row r="28" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF26" s="3"/>
+    </row>
+    <row r="27" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AF27" s="5"/>
+    </row>
+    <row r="28" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>7</v>
       </c>
@@ -1919,7 +1925,7 @@
         <v>76897</v>
       </c>
     </row>
-    <row r="29" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
         <v>20</v>
       </c>
@@ -1968,7 +1974,7 @@
         <v>12211</v>
       </c>
     </row>
-    <row r="30" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
         <v>22</v>
       </c>
@@ -2017,7 +2023,7 @@
         <v>8750</v>
       </c>
     </row>
-    <row r="31" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
         <v>21</v>
       </c>
@@ -2066,7 +2072,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="32" spans="2:34" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
         <v>23</v>
       </c>
@@ -2145,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
         <v>24</v>
       </c>
@@ -2194,7 +2200,7 @@
         <v>65458</v>
       </c>
     </row>
-    <row r="34" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
         <v>25</v>
       </c>
@@ -2243,7 +2249,7 @@
         <v>13162</v>
       </c>
     </row>
-    <row r="35" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
         <v>26</v>
       </c>
@@ -2292,7 +2298,7 @@
         <v>11340</v>
       </c>
     </row>
-    <row r="36" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
         <v>27</v>
       </c>
@@ -2371,7 +2377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
         <v>30</v>
       </c>
@@ -2437,7 +2443,7 @@
         <f t="shared" si="14"/>
         <v>8928</v>
       </c>
-      <c r="AF37" s="4">
+      <c r="AF37" s="6">
         <f t="shared" si="14"/>
         <v>8895</v>
       </c>
@@ -2450,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
         <v>29</v>
       </c>
@@ -2499,7 +2505,7 @@
         <v>-985</v>
       </c>
     </row>
-    <row r="39" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
         <v>28</v>
       </c>
@@ -2556,7 +2562,7 @@
         <v>7910</v>
       </c>
     </row>
-    <row r="40" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
         <v>31</v>
       </c>
@@ -2611,7 +2617,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="41" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
         <v>32</v>
       </c>
@@ -2668,7 +2674,7 @@
         <v>6461</v>
       </c>
     </row>
-    <row r="42" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
         <v>33</v>
       </c>
@@ -2705,7 +2711,7 @@
         <v>6.962284482758621</v>
       </c>
     </row>
-    <row r="43" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
         <v>1</v>
       </c>
@@ -2734,7 +2740,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="45" spans="2:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="9" t="s">
         <v>35</v>
       </c>
@@ -2813,7 +2819,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>36</v>
       </c>
@@ -2834,7 +2840,7 @@
         <v>6.4066822384637678E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>37</v>
       </c>
@@ -2855,7 +2861,7 @@
         <v>6.1028782735877751E-2</v>
       </c>
     </row>
-    <row r="50" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,7 +2904,7 @@
         <v>77436</v>
       </c>
     </row>
-    <row r="51" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
         <v>59</v>
       </c>
@@ -2937,7 +2943,7 @@
         <v>23115</v>
       </c>
     </row>
-    <row r="52" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
         <v>60</v>
       </c>
@@ -2976,7 +2982,7 @@
         <v>26762</v>
       </c>
     </row>
-    <row r="53" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
         <v>61</v>
       </c>
@@ -3015,7 +3021,7 @@
         <v>3414</v>
       </c>
     </row>
-    <row r="54" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
         <v>62</v>
       </c>
@@ -3054,7 +3060,7 @@
         <v>7424</v>
       </c>
     </row>
-    <row r="55" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
         <v>63</v>
       </c>
@@ -3093,7 +3099,7 @@
         <v>9801</v>
       </c>
     </row>
-    <row r="56" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
         <v>64</v>
       </c>
@@ -3136,7 +3142,7 @@
         <v>120165</v>
       </c>
     </row>
-    <row r="57" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
         <v>65</v>
       </c>
@@ -3175,7 +3181,7 @@
         <v>17939</v>
       </c>
     </row>
-    <row r="58" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
         <v>58</v>
       </c>
@@ -3218,7 +3224,7 @@
         <v>286056</v>
       </c>
     </row>
-    <row r="60" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
         <v>66</v>
       </c>
@@ -3257,7 +3263,7 @@
         <v>32547</v>
       </c>
     </row>
-    <row r="61" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
         <v>67</v>
       </c>
@@ -3296,7 +3302,7 @@
         <v>30886</v>
       </c>
     </row>
-    <row r="62" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3339,7 +3345,7 @@
         <v>75098</v>
       </c>
     </row>
-    <row r="63" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="3" t="s">
         <v>68</v>
       </c>
@@ -3378,7 +3384,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="64" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="3" t="s">
         <v>69</v>
       </c>
@@ -3417,7 +3423,7 @@
         <v>27294</v>
       </c>
     </row>
-    <row r="65" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
         <v>70</v>
       </c>
@@ -3456,7 +3462,7 @@
         <v>3631</v>
       </c>
     </row>
-    <row r="66" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
         <v>71</v>
       </c>
@@ -3495,7 +3501,7 @@
         <v>14794</v>
       </c>
     </row>
-    <row r="67" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="3" t="s">
         <v>72</v>
       </c>
@@ -3538,7 +3544,7 @@
         <v>99234</v>
       </c>
     </row>
-    <row r="68" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="3" t="s">
         <v>73</v>
       </c>
@@ -3581,7 +3587,7 @@
         <v>286056</v>
       </c>
     </row>
-    <row r="70" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
         <v>94</v>
       </c>
@@ -3618,7 +3624,7 @@
         <v>6461</v>
       </c>
     </row>
-    <row r="71" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
         <v>100</v>
       </c>
@@ -3654,7 +3660,7 @@
         <v>4421</v>
       </c>
     </row>
-    <row r="72" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="3" t="s">
         <v>101</v>
       </c>
@@ -3690,7 +3696,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="73" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="3" t="s">
         <v>70</v>
       </c>
@@ -3726,7 +3732,7 @@
         <v>-331</v>
       </c>
     </row>
-    <row r="74" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="3" t="s">
         <v>102</v>
       </c>
@@ -3762,7 +3768,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="75" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="3" t="s">
         <v>103</v>
       </c>
@@ -3798,7 +3804,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="76" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
         <v>98</v>
       </c>
@@ -3834,7 +3840,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="77" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
         <v>104</v>
       </c>
@@ -3871,7 +3877,7 @@
         <v>-91</v>
       </c>
     </row>
-    <row r="78" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="3" t="s">
         <v>95</v>
       </c>
@@ -3908,7 +3914,7 @@
         <v>6746</v>
       </c>
     </row>
-    <row r="79" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -3934,7 +3940,7 @@
       <c r="Y79" s="4"/>
       <c r="Z79" s="4"/>
     </row>
-    <row r="80" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="3" t="s">
         <v>96</v>
       </c>
@@ -3971,7 +3977,7 @@
         <v>-713</v>
       </c>
     </row>
-    <row r="81" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="3" t="s">
         <v>85</v>
       </c>
@@ -4015,7 +4021,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="82" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="3" t="s">
         <v>99</v>
       </c>
@@ -4051,7 +4057,7 @@
         <v>-853</v>
       </c>
     </row>
-    <row r="83" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="3" t="s">
         <v>98</v>
       </c>
@@ -4087,7 +4093,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="84" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="3" t="s">
         <v>112</v>
       </c>
@@ -4123,7 +4129,7 @@
         <v>-8100</v>
       </c>
     </row>
-    <row r="85" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="3" t="s">
         <v>97</v>
       </c>
@@ -4160,7 +4166,7 @@
         <v>-7417</v>
       </c>
     </row>
-    <row r="87" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B87" s="3" t="s">
         <v>105</v>
       </c>
@@ -4172,7 +4178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B88" s="3" t="s">
         <v>106</v>
       </c>
@@ -4184,7 +4190,7 @@
         <v>-1935</v>
       </c>
     </row>
-    <row r="89" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B89" s="3" t="s">
         <v>107</v>
       </c>
@@ -4196,7 +4202,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="90" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
         <v>4</v>
       </c>
@@ -4209,7 +4215,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="91" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
         <v>108</v>
       </c>
@@ -4221,7 +4227,7 @@
         <v>-755</v>
       </c>
     </row>
-    <row r="92" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B92" s="3" t="s">
         <v>98</v>
       </c>
@@ -4233,7 +4239,7 @@
         <v>-190</v>
       </c>
     </row>
-    <row r="93" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B93" s="3" t="s">
         <v>109</v>
       </c>
@@ -4246,7 +4252,7 @@
         <v>-1196</v>
       </c>
     </row>
-    <row r="94" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B94" s="3" t="s">
         <v>110</v>
       </c>
@@ -4258,7 +4264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B95" s="3" t="s">
         <v>111</v>
       </c>

--- a/UNH.xlsx
+++ b/UNH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9842CD6D-C261-433B-9733-1947A6289D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313F4C3C-E51D-4EA8-B4FA-2F9D1B6647D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51015" yWindow="1500" windowWidth="20610" windowHeight="16575" activeTab="1" xr2:uid="{04FE48EC-24E3-4318-82CA-AE691D8B8F65}"/>
+    <workbookView xWindow="43210" yWindow="4520" windowWidth="18720" windowHeight="14690" activeTab="1" xr2:uid="{04FE48EC-24E3-4318-82CA-AE691D8B8F65}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="116">
   <si>
     <t>Price</t>
   </si>
@@ -378,6 +378,12 @@
   </si>
   <si>
     <t>CEO: Andrew Witty</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>Q125</t>
   </si>
 </sst>
 </file>
@@ -430,7 +436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -456,6 +462,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -506,6 +520,56 @@
         <a:xfrm>
           <a:off x="20994620" y="0"/>
           <a:ext cx="0" cy="16692217"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>22087</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>22087</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>11044</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{649D5D2C-EBF1-AECE-9C9A-542D19E61DF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27028913" y="66261"/>
+          <a:ext cx="0" cy="17735826"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -830,75 +894,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0A3C4E-9822-4718-A83E-52B4DD123491}">
   <dimension ref="L2:N10"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L2" t="s">
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="3" spans="12:14" x14ac:dyDescent="0.2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L3" t="s">
         <v>1</v>
       </c>
       <c r="M3" s="3">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="12:14" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L4" t="s">
         <v>2</v>
       </c>
       <c r="M4" s="3">
         <f>+M2*M3</f>
-        <v>530816</v>
-      </c>
-    </row>
-    <row r="5" spans="12:14" x14ac:dyDescent="0.2">
+        <v>348375</v>
+      </c>
+    </row>
+    <row r="5" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L5" t="s">
         <v>3</v>
       </c>
       <c r="M5" s="3">
-        <v>77436</v>
+        <v>81467</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="12:14" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L6" t="s">
         <v>4</v>
       </c>
       <c r="M6" s="3">
-        <v>75098</v>
+        <v>76904</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="12:14" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L7" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="3">
         <f>+M4-M5+M6</f>
-        <v>528478</v>
-      </c>
-    </row>
-    <row r="10" spans="12:14" x14ac:dyDescent="0.2">
+        <v>343812</v>
+      </c>
+    </row>
+    <row r="10" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L10" t="s">
         <v>113</v>
       </c>
@@ -910,28 +972,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09717AAE-9570-49D1-9F3C-CCC93C2EDF11}">
-  <dimension ref="A1:AH95"/>
+  <dimension ref="A1:AX97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AD24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AK22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AF37" sqref="AF37"/>
+      <selection pane="bottomRight" activeCell="AR43" sqref="AR43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="26" width="9.140625" style="2"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="3" max="26" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>82</v>
       </c>
@@ -1028,8 +1090,61 @@
       <c r="AH2" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="3" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AK2">
+        <v>2018</v>
+      </c>
+      <c r="AL2">
+        <v>2019</v>
+      </c>
+      <c r="AM2">
+        <v>2020</v>
+      </c>
+      <c r="AN2">
+        <f>+AM2+1</f>
+        <v>2021</v>
+      </c>
+      <c r="AO2">
+        <f>+AN2+1</f>
+        <v>2022</v>
+      </c>
+      <c r="AP2">
+        <f>+AO2+1</f>
+        <v>2023</v>
+      </c>
+      <c r="AQ2">
+        <f>+AP2+1</f>
+        <v>2024</v>
+      </c>
+      <c r="AR2">
+        <f>+AQ2+1</f>
+        <v>2025</v>
+      </c>
+      <c r="AS2">
+        <f>+AR2+1</f>
+        <v>2026</v>
+      </c>
+      <c r="AT2">
+        <f>+AS2+1</f>
+        <v>2027</v>
+      </c>
+      <c r="AU2">
+        <f>+AT2+1</f>
+        <v>2028</v>
+      </c>
+      <c r="AV2">
+        <f>+AU2+1</f>
+        <v>2029</v>
+      </c>
+      <c r="AW2">
+        <f>+AV2+1</f>
+        <v>2030</v>
+      </c>
+      <c r="AX2">
+        <f>+AW2+1</f>
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>46</v>
       </c>
@@ -1071,8 +1186,17 @@
       <c r="AE3" s="3">
         <v>8735</v>
       </c>
-    </row>
-    <row r="4" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO3" s="3">
+        <v>8045</v>
+      </c>
+      <c r="AP3" s="3">
+        <v>8115</v>
+      </c>
+      <c r="AQ3" s="3">
+        <v>8845</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>47</v>
       </c>
@@ -1114,57 +1238,78 @@
       <c r="AE4" s="3">
         <v>20835</v>
       </c>
-    </row>
-    <row r="5" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+      <c r="AO4" s="3">
+        <v>18640</v>
+      </c>
+      <c r="AP4" s="3">
+        <v>19200</v>
+      </c>
+      <c r="AQ4" s="3">
+        <v>20885</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6">
         <f>+T4+T3</f>
         <v>26235</v>
       </c>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4">
+      <c r="U5" s="6"/>
+      <c r="V5" s="6">
         <f t="shared" ref="V5:X5" si="0">+V4+V3</f>
         <v>26580</v>
       </c>
-      <c r="W5" s="4">
+      <c r="W5" s="6">
         <f t="shared" si="0"/>
         <v>26410</v>
       </c>
-      <c r="X5" s="4">
+      <c r="X5" s="6">
         <f t="shared" si="0"/>
         <v>26490</v>
       </c>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4">
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6">
         <f t="shared" ref="AA5" si="1">+AA4+AA3</f>
         <v>27175</v>
       </c>
-      <c r="AE5" s="4">
+      <c r="AE5" s="6">
         <f t="shared" ref="AE5" si="2">+AE4+AE3</f>
         <v>29570</v>
       </c>
-    </row>
-    <row r="6" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO5" s="5">
+        <f>+AO3+AO4</f>
+        <v>26685</v>
+      </c>
+      <c r="AP5" s="5">
+        <f>+AP3+AP4</f>
+        <v>27315</v>
+      </c>
+      <c r="AQ5" s="5">
+        <f>+AQ3+AQ4</f>
+        <v>29730</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>49</v>
       </c>
@@ -1206,8 +1351,17 @@
       <c r="AE6" s="3">
         <v>7770</v>
       </c>
-    </row>
-    <row r="7" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO6" s="3">
+        <v>7105</v>
+      </c>
+      <c r="AP6" s="3">
+        <v>7695</v>
+      </c>
+      <c r="AQ6" s="3">
+        <v>7845</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>50</v>
       </c>
@@ -1249,8 +1403,17 @@
       <c r="AE7" s="3">
         <v>7410</v>
       </c>
-    </row>
-    <row r="8" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO7" s="3">
+        <v>8170</v>
+      </c>
+      <c r="AP7" s="3">
+        <v>7845</v>
+      </c>
+      <c r="AQ7" s="3">
+        <v>7435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>51</v>
       </c>
@@ -1292,57 +1455,78 @@
       <c r="AE8" s="3">
         <v>4335</v>
       </c>
-    </row>
-    <row r="9" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
+      <c r="AO8" s="3">
+        <v>4375</v>
+      </c>
+      <c r="AP8" s="3">
+        <v>4355</v>
+      </c>
+      <c r="AQ8" s="3">
+        <v>4335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6">
         <f>SUM(T6:T8)</f>
         <v>17905</v>
       </c>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4">
+      <c r="U9" s="6"/>
+      <c r="V9" s="6">
         <f t="shared" ref="V9:X9" si="3">SUM(V6:V8)</f>
         <v>18540</v>
       </c>
-      <c r="W9" s="4">
+      <c r="W9" s="6">
         <f t="shared" si="3"/>
         <v>19055</v>
       </c>
-      <c r="X9" s="4">
+      <c r="X9" s="6">
         <f t="shared" si="3"/>
         <v>19290</v>
       </c>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4">
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6">
         <f t="shared" ref="AA9" si="4">SUM(AA6:AA8)</f>
         <v>20275</v>
       </c>
-      <c r="AE9" s="4">
+      <c r="AE9" s="6">
         <f t="shared" ref="AE9" si="5">SUM(AE6:AE8)</f>
         <v>19515</v>
       </c>
-    </row>
-    <row r="10" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO9" s="5">
+        <f>+AO8+AO7+AO6</f>
+        <v>19650</v>
+      </c>
+      <c r="AP9" s="5">
+        <f>+AP8+AP7+AP6</f>
+        <v>19895</v>
+      </c>
+      <c r="AQ9" s="5">
+        <f>+AQ8+AQ7+AQ6</f>
+        <v>19615</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>53</v>
       </c>
@@ -1384,8 +1568,17 @@
       <c r="AE10" s="3">
         <v>1330</v>
       </c>
-    </row>
-    <row r="11" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO10" s="3">
+        <v>5360</v>
+      </c>
+      <c r="AP10" s="3">
+        <v>5540</v>
+      </c>
+      <c r="AQ10" s="3">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>54</v>
       </c>
@@ -1427,8 +1620,17 @@
       <c r="AE11" s="3">
         <v>3065</v>
       </c>
-    </row>
-    <row r="12" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO11" s="3">
+        <v>3295</v>
+      </c>
+      <c r="AP11" s="3">
+        <v>3315</v>
+      </c>
+      <c r="AQ11" s="3">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1454,7 +1656,7 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
     </row>
-    <row r="13" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>55</v>
       </c>
@@ -1491,7 +1693,7 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
     </row>
-    <row r="14" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>56</v>
       </c>
@@ -1528,7 +1730,7 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>57</v>
       </c>
@@ -1565,7 +1767,7 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
     </row>
-    <row r="17" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>38</v>
       </c>
@@ -1604,7 +1806,7 @@
         <v>18646</v>
       </c>
     </row>
-    <row r="18" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>39</v>
       </c>
@@ -1643,7 +1845,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="19" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>40</v>
       </c>
@@ -1682,7 +1884,7 @@
         <v>34904</v>
       </c>
     </row>
-    <row r="20" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>41</v>
       </c>
@@ -1721,7 +1923,7 @@
         <v>19725</v>
       </c>
     </row>
-    <row r="21" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>42</v>
       </c>
@@ -1760,7 +1962,7 @@
         <v>62879</v>
       </c>
     </row>
-    <row r="22" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>43</v>
       </c>
@@ -1793,7 +1995,7 @@
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
     </row>
-    <row r="23" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>44</v>
       </c>
@@ -1826,7 +2028,7 @@
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
     </row>
-    <row r="24" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>45</v>
       </c>
@@ -1859,7 +2061,7 @@
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
     </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>34</v>
       </c>
@@ -1873,10 +2075,10 @@
       </c>
       <c r="AF26" s="3"/>
     </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:43" ht="13" x14ac:dyDescent="0.3">
       <c r="AF27" s="5"/>
     </row>
-    <row r="28" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>7</v>
       </c>
@@ -1924,8 +2126,26 @@
       <c r="AF28" s="3">
         <v>76897</v>
       </c>
-    </row>
-    <row r="29" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL28" s="3">
+        <v>189699</v>
+      </c>
+      <c r="AM28" s="3">
+        <v>201478</v>
+      </c>
+      <c r="AN28" s="3">
+        <v>226233</v>
+      </c>
+      <c r="AO28" s="3">
+        <v>257157</v>
+      </c>
+      <c r="AP28" s="3">
+        <v>290827</v>
+      </c>
+      <c r="AQ28" s="3">
+        <v>308810</v>
+      </c>
+    </row>
+    <row r="29" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>20</v>
       </c>
@@ -1973,8 +2193,26 @@
       <c r="AF29" s="3">
         <v>12211</v>
       </c>
-    </row>
-    <row r="30" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL29" s="3">
+        <v>31597</v>
+      </c>
+      <c r="AM29" s="3">
+        <v>34145</v>
+      </c>
+      <c r="AN29" s="3">
+        <v>34437</v>
+      </c>
+      <c r="AO29" s="3">
+        <v>37424</v>
+      </c>
+      <c r="AP29" s="3">
+        <v>42583</v>
+      </c>
+      <c r="AQ29" s="3">
+        <v>50226</v>
+      </c>
+    </row>
+    <row r="30" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>22</v>
       </c>
@@ -2022,8 +2260,26 @@
       <c r="AF30" s="3">
         <v>8750</v>
       </c>
-    </row>
-    <row r="31" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL30" s="3">
+        <v>18973</v>
+      </c>
+      <c r="AM30" s="3">
+        <v>20016</v>
+      </c>
+      <c r="AN30" s="3">
+        <v>24603</v>
+      </c>
+      <c r="AO30" s="3">
+        <v>27551</v>
+      </c>
+      <c r="AP30" s="3">
+        <v>34123</v>
+      </c>
+      <c r="AQ30" s="3">
+        <v>36040</v>
+      </c>
+    </row>
+    <row r="31" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>21</v>
       </c>
@@ -2071,8 +2327,26 @@
       <c r="AF31" s="3">
         <v>997</v>
       </c>
-    </row>
-    <row r="32" spans="2:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL31" s="3">
+        <v>1886</v>
+      </c>
+      <c r="AM31" s="3">
+        <v>1502</v>
+      </c>
+      <c r="AN31" s="3">
+        <v>2324</v>
+      </c>
+      <c r="AO31" s="3">
+        <v>2030</v>
+      </c>
+      <c r="AP31" s="3">
+        <v>4089</v>
+      </c>
+      <c r="AQ31" s="3">
+        <v>5202</v>
+      </c>
+    </row>
+    <row r="32" spans="2:43" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
         <v>23</v>
       </c>
@@ -2150,8 +2424,32 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL32" s="5">
+        <f>SUM(AL28:AL31)</f>
+        <v>242155</v>
+      </c>
+      <c r="AM32" s="5">
+        <f>SUM(AM28:AM31)</f>
+        <v>257141</v>
+      </c>
+      <c r="AN32" s="5">
+        <f>SUM(AN28:AN31)</f>
+        <v>287597</v>
+      </c>
+      <c r="AO32" s="5">
+        <f>SUM(AO28:AO31)</f>
+        <v>324162</v>
+      </c>
+      <c r="AP32" s="5">
+        <f>SUM(AP28:AP31)</f>
+        <v>371622</v>
+      </c>
+      <c r="AQ32" s="5">
+        <f>SUM(AQ28:AQ31)</f>
+        <v>400278</v>
+      </c>
+    </row>
+    <row r="33" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>24</v>
       </c>
@@ -2199,8 +2497,26 @@
       <c r="AF33" s="3">
         <v>65458</v>
       </c>
-    </row>
-    <row r="34" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL33" s="3">
+        <v>156440</v>
+      </c>
+      <c r="AM33" s="3">
+        <v>159396</v>
+      </c>
+      <c r="AN33" s="3">
+        <v>186911</v>
+      </c>
+      <c r="AO33" s="3">
+        <v>210842</v>
+      </c>
+      <c r="AP33" s="3">
+        <v>241894</v>
+      </c>
+      <c r="AQ33" s="3">
+        <v>264185</v>
+      </c>
+    </row>
+    <row r="34" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>25</v>
       </c>
@@ -2248,8 +2564,26 @@
       <c r="AF34" s="3">
         <v>13162</v>
       </c>
-    </row>
-    <row r="35" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL34" s="3">
+        <v>35193</v>
+      </c>
+      <c r="AM34" s="3">
+        <v>41704</v>
+      </c>
+      <c r="AN34" s="3">
+        <v>42579</v>
+      </c>
+      <c r="AO34" s="3">
+        <v>47782</v>
+      </c>
+      <c r="AP34" s="3">
+        <v>54628</v>
+      </c>
+      <c r="AQ34" s="3">
+        <v>53013</v>
+      </c>
+    </row>
+    <row r="35" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>26</v>
       </c>
@@ -2297,8 +2631,26 @@
       <c r="AF35" s="3">
         <v>11340</v>
       </c>
-    </row>
-    <row r="36" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL35" s="3">
+        <v>28117</v>
+      </c>
+      <c r="AM35" s="3">
+        <v>30745</v>
+      </c>
+      <c r="AN35" s="3">
+        <v>31034</v>
+      </c>
+      <c r="AO35" s="3">
+        <v>33703</v>
+      </c>
+      <c r="AP35" s="3">
+        <v>38770</v>
+      </c>
+      <c r="AQ35" s="3">
+        <v>46694</v>
+      </c>
+    </row>
+    <row r="36" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>27</v>
       </c>
@@ -2376,8 +2728,33 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AK36" s="4"/>
+      <c r="AL36" s="4">
+        <f t="shared" ref="AL36:AM36" si="12">SUM(AL33:AL35)</f>
+        <v>219750</v>
+      </c>
+      <c r="AM36" s="4">
+        <f t="shared" si="12"/>
+        <v>231845</v>
+      </c>
+      <c r="AN36" s="4">
+        <f t="shared" ref="AN36:AO36" si="13">SUM(AN33:AN35)</f>
+        <v>260524</v>
+      </c>
+      <c r="AO36" s="4">
+        <f t="shared" ref="AO36" si="14">SUM(AO33:AO35)</f>
+        <v>292327</v>
+      </c>
+      <c r="AP36" s="4">
+        <f t="shared" ref="AP36" si="15">SUM(AP33:AP35)</f>
+        <v>335292</v>
+      </c>
+      <c r="AQ36" s="4">
+        <f t="shared" ref="AQ36" si="16">SUM(AQ33:AQ35)</f>
+        <v>363892</v>
+      </c>
+    </row>
+    <row r="37" spans="2:43" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
         <v>30</v>
       </c>
@@ -2398,7 +2775,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4">
-        <f t="shared" ref="S37" si="12">S32-S36</f>
+        <f t="shared" ref="S37" si="17">S32-S36</f>
         <v>7497</v>
       </c>
       <c r="T37" s="4">
@@ -2408,7 +2785,7 @@
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37" s="4">
-        <f t="shared" ref="W37" si="13">W32-W36</f>
+        <f t="shared" ref="W37" si="18">W32-W36</f>
         <v>7738</v>
       </c>
       <c r="X37" s="4">
@@ -2416,47 +2793,72 @@
         <v>7934</v>
       </c>
       <c r="Y37" s="4">
-        <f t="shared" ref="Y37:AH37" si="14">Y32-Y36</f>
+        <f t="shared" ref="Y37:AH37" si="19">Y32-Y36</f>
         <v>0</v>
       </c>
       <c r="Z37" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AA37" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>9056</v>
       </c>
       <c r="AB37" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>9078</v>
       </c>
       <c r="AC37" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AD37" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AE37" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>8928</v>
       </c>
       <c r="AF37" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>8895</v>
       </c>
       <c r="AG37" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AH37" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AK37" s="4"/>
+      <c r="AL37" s="4">
+        <f t="shared" ref="AL37:AM37" si="20">AL32-AL36</f>
+        <v>22405</v>
+      </c>
+      <c r="AM37" s="4">
+        <f t="shared" si="20"/>
+        <v>25296</v>
+      </c>
+      <c r="AN37" s="4">
+        <f t="shared" ref="AN37:AO37" si="21">AN32-AN36</f>
+        <v>27073</v>
+      </c>
+      <c r="AO37" s="4">
+        <f t="shared" ref="AO37" si="22">AO32-AO36</f>
+        <v>31835</v>
+      </c>
+      <c r="AP37" s="4">
+        <f t="shared" ref="AP37" si="23">AP32-AP36</f>
+        <v>36330</v>
+      </c>
+      <c r="AQ37" s="4">
+        <f t="shared" ref="AQ37" si="24">AQ32-AQ36</f>
+        <v>36386</v>
+      </c>
+    </row>
+    <row r="38" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>29</v>
       </c>
@@ -2504,8 +2906,26 @@
       <c r="AF38" s="3">
         <v>-985</v>
       </c>
-    </row>
-    <row r="39" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL38" s="3">
+        <v>-1704</v>
+      </c>
+      <c r="AM38" s="3">
+        <v>-1663</v>
+      </c>
+      <c r="AN38" s="3">
+        <v>-1660</v>
+      </c>
+      <c r="AO38" s="3">
+        <v>-2092</v>
+      </c>
+      <c r="AP38" s="3">
+        <v>-3246</v>
+      </c>
+      <c r="AQ38" s="3">
+        <v>-3906</v>
+      </c>
+    </row>
+    <row r="39" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>28</v>
       </c>
@@ -2526,7 +2946,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4">
-        <f t="shared" ref="S39" si="15">+S37+S38</f>
+        <f t="shared" ref="S39" si="25">+S37+S38</f>
         <v>7100</v>
       </c>
       <c r="T39" s="4">
@@ -2536,7 +2956,7 @@
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
       <c r="W39" s="4">
-        <f t="shared" ref="W39" si="16">+W37+W38</f>
+        <f t="shared" ref="W39" si="26">+W37+W38</f>
         <v>7305</v>
       </c>
       <c r="X39" s="4">
@@ -2561,8 +2981,32 @@
         <f>+AF37+AF38</f>
         <v>7910</v>
       </c>
-    </row>
-    <row r="40" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL39" s="3">
+        <f>+AL37+AL38</f>
+        <v>20701</v>
+      </c>
+      <c r="AM39" s="3">
+        <f>+AM37+AM38</f>
+        <v>23633</v>
+      </c>
+      <c r="AN39" s="3">
+        <f>+AN37+AN38</f>
+        <v>25413</v>
+      </c>
+      <c r="AO39" s="3">
+        <f>+AO37+AO38</f>
+        <v>29743</v>
+      </c>
+      <c r="AP39" s="3">
+        <f>+AP37+AP38</f>
+        <v>33084</v>
+      </c>
+      <c r="AQ39" s="3">
+        <f>+AQ37+AQ38</f>
+        <v>32480</v>
+      </c>
+    </row>
+    <row r="40" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>31</v>
       </c>
@@ -2616,8 +3060,26 @@
         <f>1244+205</f>
         <v>1449</v>
       </c>
-    </row>
-    <row r="41" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL40" s="3">
+        <v>3742</v>
+      </c>
+      <c r="AM40" s="3">
+        <v>4973</v>
+      </c>
+      <c r="AN40" s="3">
+        <v>4578</v>
+      </c>
+      <c r="AO40" s="3">
+        <v>5704</v>
+      </c>
+      <c r="AP40" s="3">
+        <v>5986</v>
+      </c>
+      <c r="AQ40" s="3">
+        <v>4829</v>
+      </c>
+    </row>
+    <row r="41" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>32</v>
       </c>
@@ -2638,7 +3100,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
       <c r="S41" s="4">
-        <f t="shared" ref="S41" si="17">+S39-S40</f>
+        <f t="shared" ref="S41" si="27">+S39-S40</f>
         <v>5620</v>
       </c>
       <c r="T41" s="4">
@@ -2648,7 +3110,7 @@
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
       <c r="W41" s="4">
-        <f t="shared" ref="W41" si="18">+W39-W40</f>
+        <f t="shared" ref="W41" si="28">+W39-W40</f>
         <v>5815</v>
       </c>
       <c r="X41" s="4">
@@ -2673,13 +3135,37 @@
         <f>+AF39-AF40</f>
         <v>6461</v>
       </c>
-    </row>
-    <row r="42" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AL41" s="3">
+        <f>+AL39-AL40</f>
+        <v>16959</v>
+      </c>
+      <c r="AM41" s="3">
+        <f>+AM39-AM40</f>
+        <v>18660</v>
+      </c>
+      <c r="AN41" s="3">
+        <f>+AN39-AN40</f>
+        <v>20835</v>
+      </c>
+      <c r="AO41" s="3">
+        <f>+AO39-AO40</f>
+        <v>24039</v>
+      </c>
+      <c r="AP41" s="3">
+        <f>+AP39-AP40</f>
+        <v>27098</v>
+      </c>
+      <c r="AQ41" s="3">
+        <f>+AQ39-AQ40</f>
+        <v>27651</v>
+      </c>
+    </row>
+    <row r="42" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S42" s="7">
-        <f t="shared" ref="S42" si="19">S41/S43</f>
+        <f t="shared" ref="S42" si="29">S41/S43</f>
         <v>5.8725182863113901</v>
       </c>
       <c r="T42" s="7">
@@ -2687,7 +3173,7 @@
         <v>5.3870292887029292</v>
       </c>
       <c r="W42" s="7">
-        <f t="shared" ref="W42" si="20">W41/W43</f>
+        <f t="shared" ref="W42" si="30">W41/W43</f>
         <v>6.0953878406708597</v>
       </c>
       <c r="X42" s="7">
@@ -2710,8 +3196,33 @@
         <f>AF41/AF43</f>
         <v>6.962284482758621</v>
       </c>
-    </row>
-    <row r="43" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK42" s="1"/>
+      <c r="AL42" s="1">
+        <f>+AL41/AL43</f>
+        <v>17.555900621118013</v>
+      </c>
+      <c r="AM42" s="1">
+        <f>+AM41/AM43</f>
+        <v>19.417273673257025</v>
+      </c>
+      <c r="AN42" s="1">
+        <f>+AN41/AN43</f>
+        <v>21.793933054393307</v>
+      </c>
+      <c r="AO42" s="1">
+        <f>+AO41/AO43</f>
+        <v>25.304210526315789</v>
+      </c>
+      <c r="AP42" s="1">
+        <f>+AP41/AP43</f>
+        <v>28.889125799573559</v>
+      </c>
+      <c r="AQ42" s="1">
+        <f>+AQ41/AQ43</f>
+        <v>29.764262648008611</v>
+      </c>
+    </row>
+    <row r="43" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>1</v>
       </c>
@@ -2739,8 +3250,26 @@
       <c r="AF43" s="2">
         <v>928</v>
       </c>
-    </row>
-    <row r="45" spans="2:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL43">
+        <v>966</v>
+      </c>
+      <c r="AM43">
+        <v>961</v>
+      </c>
+      <c r="AN43">
+        <v>956</v>
+      </c>
+      <c r="AO43">
+        <v>950</v>
+      </c>
+      <c r="AP43">
+        <v>938</v>
+      </c>
+      <c r="AQ43">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="45" spans="2:43" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="9" t="s">
         <v>35</v>
       </c>
@@ -2761,7 +3290,7 @@
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
       <c r="S45" s="10">
-        <f t="shared" ref="S45" si="21">S33/S28</f>
+        <f t="shared" ref="S45" si="31">S33/S28</f>
         <v>0.80928522510182754</v>
       </c>
       <c r="T45" s="10">
@@ -2779,68 +3308,134 @@
         <v>0.81527795167146611</v>
       </c>
       <c r="Y45" s="10" t="e">
-        <f t="shared" ref="Y45:AH45" si="22">Y33/Y28</f>
+        <f t="shared" ref="Y45:AH45" si="32">Y33/Y28</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z45" s="10" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA45" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0.82220481960816638</v>
       </c>
       <c r="AB45" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0.8315809807655159</v>
       </c>
       <c r="AC45" s="10" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD45" s="10" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE45" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0.84288608503872386</v>
       </c>
       <c r="AF45" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0.85124257123164748</v>
       </c>
       <c r="AG45" s="10" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH45" s="10" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="47" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
+      <c r="AL45" s="10">
+        <f t="shared" ref="AL45:AM45" si="33">AL33/AL28</f>
+        <v>0.82467487967780539</v>
+      </c>
+      <c r="AM45" s="10">
+        <f t="shared" si="33"/>
+        <v>0.79113352326308584</v>
+      </c>
+      <c r="AN45" s="10">
+        <f t="shared" ref="AN45:AQ45" si="34">AN33/AN28</f>
+        <v>0.82618804506857979</v>
+      </c>
+      <c r="AO45" s="10">
+        <f t="shared" si="34"/>
+        <v>0.81989601683018543</v>
+      </c>
+      <c r="AP45" s="10">
+        <f t="shared" si="34"/>
+        <v>0.83174533313619436</v>
+      </c>
+      <c r="AQ45" s="10">
+        <f t="shared" si="34"/>
+        <v>0.8554936692464622</v>
+      </c>
+    </row>
+    <row r="47" spans="2:43" s="13" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B47" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="W47" s="8">
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="14"/>
+      <c r="V47" s="14"/>
+      <c r="W47" s="15">
         <f>W32/S32-1</f>
         <v>0.1417887059091687</v>
       </c>
-      <c r="X47" s="8">
+      <c r="X47" s="15">
         <f>X32/T32-1</f>
         <v>0.12634427447736285</v>
       </c>
-      <c r="AE47" s="12">
+      <c r="Y47" s="14"/>
+      <c r="Z47" s="14"/>
+      <c r="AE47" s="16">
         <f>+AE32/AA32-1</f>
         <v>8.5553295406337382E-2</v>
       </c>
-      <c r="AF47" s="12">
+      <c r="AF47" s="16">
         <f>+AF32/AB32-1</f>
         <v>6.4066822384637678E-2</v>
       </c>
-    </row>
-    <row r="48" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AM47" s="16">
+        <f>+AM32/AL32-1</f>
+        <v>6.1885982118890848E-2</v>
+      </c>
+      <c r="AN47" s="16">
+        <f>+AN32/AM32-1</f>
+        <v>0.11844085540617799</v>
+      </c>
+      <c r="AO47" s="16">
+        <f>+AO32/AN32-1</f>
+        <v>0.12713971286209524</v>
+      </c>
+      <c r="AP47" s="16">
+        <f>+AP32/AO32-1</f>
+        <v>0.14640827734281014</v>
+      </c>
+      <c r="AQ47" s="16">
+        <f>+AQ32/AP32-1</f>
+        <v>7.7110612396467326E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>37</v>
       </c>
@@ -2860,8 +3455,28 @@
         <f>+AF28/AB28-1</f>
         <v>6.1028782735877751E-2</v>
       </c>
-    </row>
-    <row r="50" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM48" s="12">
+        <f>+AM28/AL28-1</f>
+        <v>6.2093105393280945E-2</v>
+      </c>
+      <c r="AN48" s="12">
+        <f>+AN28/AM28-1</f>
+        <v>0.12286701277558842</v>
+      </c>
+      <c r="AO48" s="12">
+        <f>+AO28/AN28-1</f>
+        <v>0.13669093368341478</v>
+      </c>
+      <c r="AP48" s="12">
+        <f>+AP28/AO28-1</f>
+        <v>0.13093168764606844</v>
+      </c>
+      <c r="AQ48" s="12">
+        <f>+AQ28/AP28-1</f>
+        <v>6.1834011285059498E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>3</v>
       </c>
@@ -2903,8 +3518,16 @@
         <f>26286+5037+46113</f>
         <v>77436</v>
       </c>
-    </row>
-    <row r="51" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP50" s="3">
+        <f>25427+4201+47609</f>
+        <v>77237</v>
+      </c>
+      <c r="AQ50" s="3">
+        <f>25312+3801+52354</f>
+        <v>81467</v>
+      </c>
+    </row>
+    <row r="51" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>59</v>
       </c>
@@ -2942,8 +3565,14 @@
       <c r="AF51" s="3">
         <v>23115</v>
       </c>
-    </row>
-    <row r="52" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP51" s="3">
+        <v>21276</v>
+      </c>
+      <c r="AQ51" s="3">
+        <v>22365</v>
+      </c>
+    </row>
+    <row r="52" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>60</v>
       </c>
@@ -2981,8 +3610,14 @@
       <c r="AF52" s="3">
         <v>26762</v>
       </c>
-    </row>
-    <row r="53" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP52" s="3">
+        <v>17694</v>
+      </c>
+      <c r="AQ52" s="3">
+        <v>26089</v>
+      </c>
+    </row>
+    <row r="53" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
         <v>61</v>
       </c>
@@ -3020,8 +3655,14 @@
       <c r="AF53" s="3">
         <v>3414</v>
       </c>
-    </row>
-    <row r="54" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP53" s="3">
+        <v>3755</v>
+      </c>
+      <c r="AQ53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
         <v>62</v>
       </c>
@@ -3059,8 +3700,14 @@
       <c r="AF54" s="3">
         <v>7424</v>
       </c>
-    </row>
-    <row r="55" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP54" s="3">
+        <v>6084</v>
+      </c>
+      <c r="AQ54" s="3">
+        <v>8212</v>
+      </c>
+    </row>
+    <row r="55" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
         <v>63</v>
       </c>
@@ -3098,8 +3745,14 @@
       <c r="AF55" s="3">
         <v>9801</v>
       </c>
-    </row>
-    <row r="56" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP55" s="3">
+        <v>11450</v>
+      </c>
+      <c r="AQ55" s="3">
+        <v>10553</v>
+      </c>
+    </row>
+    <row r="56" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
         <v>64</v>
       </c>
@@ -3141,8 +3794,16 @@
         <f>105436+14729</f>
         <v>120165</v>
       </c>
-    </row>
-    <row r="57" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP56" s="3">
+        <f>103732+15194</f>
+        <v>118926</v>
+      </c>
+      <c r="AQ56" s="3">
+        <f>106734+23268</f>
+        <v>130002</v>
+      </c>
+    </row>
+    <row r="57" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
         <v>65</v>
       </c>
@@ -3180,8 +3841,14 @@
       <c r="AF57" s="3">
         <v>17939</v>
       </c>
-    </row>
-    <row r="58" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP57" s="3">
+        <v>17298</v>
+      </c>
+      <c r="AQ57" s="3">
+        <v>19590</v>
+      </c>
+    </row>
+    <row r="58" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
         <v>58</v>
       </c>
@@ -3206,7 +3873,7 @@
       <c r="U58" s="4"/>
       <c r="V58" s="4"/>
       <c r="W58" s="4">
-        <f t="shared" ref="W58" si="23">SUM(W50:W57)</f>
+        <f t="shared" ref="W58" si="35">SUM(W50:W57)</f>
         <v>221238</v>
       </c>
       <c r="X58" s="4">
@@ -3216,15 +3883,23 @@
       <c r="Y58" s="4"/>
       <c r="Z58" s="4"/>
       <c r="AE58" s="4">
-        <f t="shared" ref="AE58" si="24">SUM(AE50:AE57)</f>
+        <f t="shared" ref="AE58" si="36">SUM(AE50:AE57)</f>
         <v>284210</v>
       </c>
       <c r="AF58" s="4">
         <f>SUM(AF50:AF57)</f>
         <v>286056</v>
       </c>
-    </row>
-    <row r="60" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP58" s="3">
+        <f>SUM(AP50:AP57)</f>
+        <v>273720</v>
+      </c>
+      <c r="AQ58" s="3">
+        <f>SUM(AQ50:AQ57)</f>
+        <v>298278</v>
+      </c>
+    </row>
+    <row r="60" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
         <v>66</v>
       </c>
@@ -3262,8 +3937,14 @@
       <c r="AF60" s="3">
         <v>32547</v>
       </c>
-    </row>
-    <row r="61" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP60" s="3">
+        <v>32395</v>
+      </c>
+      <c r="AQ60" s="3">
+        <v>34224</v>
+      </c>
+    </row>
+    <row r="61" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
         <v>67</v>
       </c>
@@ -3301,8 +3982,14 @@
       <c r="AF61" s="3">
         <v>30886</v>
       </c>
-    </row>
-    <row r="62" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP61" s="3">
+        <v>31958</v>
+      </c>
+      <c r="AQ61" s="3">
+        <v>34337</v>
+      </c>
+    </row>
+    <row r="62" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3344,8 +4031,16 @@
         <f>11371+63727</f>
         <v>75098</v>
       </c>
-    </row>
-    <row r="63" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP62" s="3">
+        <f>4274+58263</f>
+        <v>62537</v>
+      </c>
+      <c r="AQ62" s="3">
+        <f>4545+72359</f>
+        <v>76904</v>
+      </c>
+    </row>
+    <row r="63" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
         <v>68</v>
       </c>
@@ -3383,8 +4078,14 @@
       <c r="AF63" s="3">
         <v>2572</v>
       </c>
-    </row>
-    <row r="64" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP63" s="3">
+        <v>3355</v>
+      </c>
+      <c r="AQ63" s="3">
+        <v>3317</v>
+      </c>
+    </row>
+    <row r="64" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>69</v>
       </c>
@@ -3422,8 +4123,14 @@
       <c r="AF64" s="3">
         <v>27294</v>
       </c>
-    </row>
-    <row r="65" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP64" s="3">
+        <v>27072</v>
+      </c>
+      <c r="AQ64" s="3">
+        <v>27346</v>
+      </c>
+    </row>
+    <row r="65" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
         <v>70</v>
       </c>
@@ -3461,8 +4168,14 @@
       <c r="AF65" s="3">
         <v>3631</v>
       </c>
-    </row>
-    <row r="66" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP65" s="3">
+        <v>3021</v>
+      </c>
+      <c r="AQ65" s="3">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="66" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
         <v>71</v>
       </c>
@@ -3500,8 +4213,14 @@
       <c r="AF66" s="3">
         <v>14794</v>
       </c>
-    </row>
-    <row r="67" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP66" s="3">
+        <v>14463</v>
+      </c>
+      <c r="AQ66" s="3">
+        <v>15939</v>
+      </c>
+    </row>
+    <row r="67" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
         <v>72</v>
       </c>
@@ -3543,8 +4262,16 @@
         <f>94676+4558</f>
         <v>99234</v>
       </c>
-    </row>
-    <row r="68" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP67" s="3">
+        <f>94421+4498</f>
+        <v>98919</v>
+      </c>
+      <c r="AQ67" s="3">
+        <f>98268+4323</f>
+        <v>102591</v>
+      </c>
+    </row>
+    <row r="68" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
         <v>73</v>
       </c>
@@ -3569,7 +4296,7 @@
       <c r="U68" s="4"/>
       <c r="V68" s="4"/>
       <c r="W68" s="4">
-        <f t="shared" ref="W68" si="25">SUM(W60:W67)</f>
+        <f t="shared" ref="W68" si="37">SUM(W60:W67)</f>
         <v>221238</v>
       </c>
       <c r="X68" s="4">
@@ -3579,15 +4306,23 @@
       <c r="Y68" s="4"/>
       <c r="Z68" s="4"/>
       <c r="AE68" s="4">
-        <f t="shared" ref="AE68" si="26">SUM(AE60:AE67)</f>
+        <f t="shared" ref="AE68" si="38">SUM(AE60:AE67)</f>
         <v>284210</v>
       </c>
       <c r="AF68" s="4">
         <f>SUM(AF60:AF67)</f>
         <v>286056</v>
       </c>
-    </row>
-    <row r="70" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP68" s="3">
+        <f>SUM(AP60:AP67)</f>
+        <v>273720</v>
+      </c>
+      <c r="AQ68" s="3">
+        <f>SUM(AQ60:AQ67)</f>
+        <v>298278</v>
+      </c>
+    </row>
+    <row r="70" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
         <v>94</v>
       </c>
@@ -3623,8 +4358,32 @@
         <f>+AF41</f>
         <v>6461</v>
       </c>
-    </row>
-    <row r="71" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL70" s="3">
+        <f>+AL41</f>
+        <v>16959</v>
+      </c>
+      <c r="AM70" s="3">
+        <f>+AM41</f>
+        <v>18660</v>
+      </c>
+      <c r="AN70" s="3">
+        <f>+AN41</f>
+        <v>20835</v>
+      </c>
+      <c r="AO70" s="3">
+        <f>+AO41</f>
+        <v>24039</v>
+      </c>
+      <c r="AP70" s="3">
+        <f>+AP41</f>
+        <v>27098</v>
+      </c>
+      <c r="AQ70" s="3">
+        <f>+AQ41</f>
+        <v>27651</v>
+      </c>
+    </row>
+    <row r="71" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
         <v>100</v>
       </c>
@@ -3659,8 +4418,26 @@
         <f>3200-AE71</f>
         <v>4421</v>
       </c>
-    </row>
-    <row r="72" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL71" s="3">
+        <v>14239</v>
+      </c>
+      <c r="AM71" s="3">
+        <v>15769</v>
+      </c>
+      <c r="AN71" s="3">
+        <v>17732</v>
+      </c>
+      <c r="AO71" s="3">
+        <v>20639</v>
+      </c>
+      <c r="AP71" s="3">
+        <v>23144</v>
+      </c>
+      <c r="AQ71" s="3">
+        <v>15242</v>
+      </c>
+    </row>
+    <row r="72" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
         <v>101</v>
       </c>
@@ -3695,8 +4472,26 @@
         <f>2017-AE72</f>
         <v>1020</v>
       </c>
-    </row>
-    <row r="73" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL72" s="3">
+        <v>2720</v>
+      </c>
+      <c r="AM72" s="3">
+        <v>2891</v>
+      </c>
+      <c r="AN72" s="3">
+        <v>3103</v>
+      </c>
+      <c r="AO72" s="3">
+        <v>3400</v>
+      </c>
+      <c r="AP72" s="3">
+        <v>3972</v>
+      </c>
+      <c r="AQ72" s="3">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="73" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
         <v>70</v>
       </c>
@@ -3731,8 +4526,26 @@
         <f>-358-AE73</f>
         <v>-331</v>
       </c>
-    </row>
-    <row r="74" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL73" s="3">
+        <v>230</v>
+      </c>
+      <c r="AM73" s="3">
+        <v>-8</v>
+      </c>
+      <c r="AN73" s="3">
+        <v>130</v>
+      </c>
+      <c r="AO73" s="3">
+        <v>-673</v>
+      </c>
+      <c r="AP73" s="3">
+        <v>-245</v>
+      </c>
+      <c r="AQ73" s="3">
+        <v>-296</v>
+      </c>
+    </row>
+    <row r="74" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
         <v>102</v>
       </c>
@@ -3767,8 +4580,26 @@
         <f>594-AE74</f>
         <v>222</v>
       </c>
-    </row>
-    <row r="75" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL74" s="3">
+        <v>697</v>
+      </c>
+      <c r="AM74" s="3">
+        <v>679</v>
+      </c>
+      <c r="AN74" s="3">
+        <v>800</v>
+      </c>
+      <c r="AO74" s="3">
+        <v>925</v>
+      </c>
+      <c r="AP74" s="3">
+        <v>1059</v>
+      </c>
+      <c r="AQ74" s="3">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="75" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
         <v>103</v>
       </c>
@@ -3803,8 +4634,26 @@
         <f>8311-AE75</f>
         <v>1225</v>
       </c>
-    </row>
-    <row r="76" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ75" s="3">
+        <v>8310</v>
+      </c>
+    </row>
+    <row r="76" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
         <v>98</v>
       </c>
@@ -3839,8 +4688,29 @@
         <f>459-AE76</f>
         <v>280</v>
       </c>
-    </row>
-    <row r="77" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL76" s="3">
+        <v>-106</v>
+      </c>
+      <c r="AM76" s="3">
+        <v>-52</v>
+      </c>
+      <c r="AN76" s="3">
+        <v>-944</v>
+      </c>
+      <c r="AO76" s="3">
+        <f>-588+257</f>
+        <v>-331</v>
+      </c>
+      <c r="AP76" s="3">
+        <f>-489-16</f>
+        <v>-505</v>
+      </c>
+      <c r="AQ76" s="3">
+        <f>-3333-28</f>
+        <v>-3361</v>
+      </c>
+    </row>
+    <row r="77" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="3" t="s">
         <v>104</v>
       </c>
@@ -3876,8 +4746,32 @@
         <f>-2471-4121+777+36-554-AE77</f>
         <v>-91</v>
       </c>
-    </row>
-    <row r="78" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL77" s="3">
+        <f>162-1563+1221+733+130</f>
+        <v>683</v>
+      </c>
+      <c r="AM77" s="3">
+        <f>-688-2195+152+5348+278</f>
+        <v>2895</v>
+      </c>
+      <c r="AN77" s="3">
+        <f>-1000-1031+2701+1162-310</f>
+        <v>1522</v>
+      </c>
+      <c r="AO77" s="3">
+        <f>-2523-1374+4053+1964+126</f>
+        <v>2246</v>
+      </c>
+      <c r="AP77" s="3">
+        <f>-3114-2444+3482+3516+203</f>
+        <v>1643</v>
+      </c>
+      <c r="AQ77" s="3">
+        <f>-1437-4140+2503+2463-197</f>
+        <v>-808</v>
+      </c>
+    </row>
+    <row r="78" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="3" t="s">
         <v>95</v>
       </c>
@@ -3913,8 +4807,32 @@
         <f>SUM(AF71:AF77)</f>
         <v>6746</v>
       </c>
-    </row>
-    <row r="79" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL78" s="3">
+        <f>SUM(AL71:AL77)</f>
+        <v>18463</v>
+      </c>
+      <c r="AM78" s="3">
+        <f>SUM(AM71:AM77)</f>
+        <v>22174</v>
+      </c>
+      <c r="AN78" s="3">
+        <f>SUM(AN71:AN77)</f>
+        <v>22343</v>
+      </c>
+      <c r="AO78" s="3">
+        <f>SUM(AO71:AO77)</f>
+        <v>26206</v>
+      </c>
+      <c r="AP78" s="3">
+        <f>SUM(AP71:AP77)</f>
+        <v>29068</v>
+      </c>
+      <c r="AQ78" s="3">
+        <f>SUM(AQ71:AQ77)</f>
+        <v>24204</v>
+      </c>
+    </row>
+    <row r="79" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -3940,7 +4858,7 @@
       <c r="Y79" s="4"/>
       <c r="Z79" s="4"/>
     </row>
-    <row r="80" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="3" t="s">
         <v>96</v>
       </c>
@@ -3976,8 +4894,32 @@
         <f>-10130+5288+4621-AE80</f>
         <v>-713</v>
       </c>
-    </row>
-    <row r="81" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL80" s="3">
+        <f>-18131+8536+7091</f>
+        <v>-2504</v>
+      </c>
+      <c r="AM80" s="3">
+        <f>-16577+6489+7252</f>
+        <v>-2836</v>
+      </c>
+      <c r="AN80" s="3">
+        <f>-17139+7045+8251</f>
+        <v>-1843</v>
+      </c>
+      <c r="AO80" s="3">
+        <f>-18825+5907+6081</f>
+        <v>-6837</v>
+      </c>
+      <c r="AP80" s="3">
+        <f>-18314+7307+9230</f>
+        <v>-1777</v>
+      </c>
+      <c r="AQ80" s="3">
+        <f>-27308+18514+9319</f>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="81" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="s">
         <v>85</v>
       </c>
@@ -4020,8 +4962,26 @@
         <f>-3031-AE81</f>
         <v>-25</v>
       </c>
-    </row>
-    <row r="82" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL81" s="3">
+        <v>-8343</v>
+      </c>
+      <c r="AM81" s="3">
+        <v>-7139</v>
+      </c>
+      <c r="AN81" s="3">
+        <v>-4821</v>
+      </c>
+      <c r="AO81" s="3">
+        <v>-21458</v>
+      </c>
+      <c r="AP81" s="3">
+        <v>-10136</v>
+      </c>
+      <c r="AQ81" s="3">
+        <v>-13408</v>
+      </c>
+    </row>
+    <row r="82" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
         <v>99</v>
       </c>
@@ -4056,8 +5016,26 @@
         <f>-1596-AE82</f>
         <v>-853</v>
       </c>
-    </row>
-    <row r="83" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL82" s="3">
+        <v>-2071</v>
+      </c>
+      <c r="AM82" s="3">
+        <v>-2051</v>
+      </c>
+      <c r="AN82" s="3">
+        <v>-2454</v>
+      </c>
+      <c r="AO82" s="3">
+        <v>-2802</v>
+      </c>
+      <c r="AP82" s="3">
+        <v>-3386</v>
+      </c>
+      <c r="AQ82" s="3">
+        <v>-3499</v>
+      </c>
+    </row>
+    <row r="83" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="s">
         <v>98</v>
       </c>
@@ -4092,8 +5070,31 @@
         <f>-809-AE83</f>
         <v>2274</v>
       </c>
-    </row>
-    <row r="84" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL83" s="3">
+        <v>219</v>
+      </c>
+      <c r="AM83" s="3">
+        <f>221-727</f>
+        <v>-506</v>
+      </c>
+      <c r="AN83" s="3">
+        <f>15-1269</f>
+        <v>-1254</v>
+      </c>
+      <c r="AO83" s="3">
+        <f>3414-793</f>
+        <v>2621</v>
+      </c>
+      <c r="AP83" s="3">
+        <f>685-960</f>
+        <v>-275</v>
+      </c>
+      <c r="AQ83" s="3">
+        <f>2041-1667</f>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="84" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="s">
         <v>112</v>
       </c>
@@ -4128,8 +5129,27 @@
         <f>-8100-AE84</f>
         <v>-8100</v>
       </c>
-    </row>
-    <row r="85" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ84" s="3">
+        <f>-9033+4514</f>
+        <v>-4519</v>
+      </c>
+    </row>
+    <row r="85" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
         <v>97</v>
       </c>
@@ -4165,8 +5185,32 @@
         <f>SUM(AF80:AF84)</f>
         <v>-7417</v>
       </c>
-    </row>
-    <row r="87" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AL85" s="3">
+        <f>SUM(AL80:AL84)</f>
+        <v>-12699</v>
+      </c>
+      <c r="AM85" s="3">
+        <f>SUM(AM80:AM84)</f>
+        <v>-12532</v>
+      </c>
+      <c r="AN85" s="3">
+        <f>SUM(AN80:AN84)</f>
+        <v>-10372</v>
+      </c>
+      <c r="AO85" s="3">
+        <f>SUM(AO80:AO84)</f>
+        <v>-28476</v>
+      </c>
+      <c r="AP85" s="3">
+        <f>SUM(AP80:AP84)</f>
+        <v>-15574</v>
+      </c>
+      <c r="AQ85" s="3">
+        <f>SUM(AQ80:AQ84)</f>
+        <v>-20527</v>
+      </c>
+    </row>
+    <row r="87" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
         <v>105</v>
       </c>
@@ -4177,8 +5221,26 @@
         <f>-3072-AE87</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AL87" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="AM87" s="3">
+        <v>-4250</v>
+      </c>
+      <c r="AN87" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="AO87" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="AP87" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="AQ87" s="3">
+        <v>-9000</v>
+      </c>
+    </row>
+    <row r="88" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
         <v>106</v>
       </c>
@@ -4189,8 +5251,26 @@
         <f>-3664-AE88</f>
         <v>-1935</v>
       </c>
-    </row>
-    <row r="89" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AL88" s="3">
+        <v>-3932</v>
+      </c>
+      <c r="AM88" s="3">
+        <v>-4584</v>
+      </c>
+      <c r="AN88" s="3">
+        <v>-5280</v>
+      </c>
+      <c r="AO88" s="3">
+        <v>-5991</v>
+      </c>
+      <c r="AP88" s="3">
+        <v>-6761</v>
+      </c>
+      <c r="AQ88" s="3">
+        <v>-7533</v>
+      </c>
+    </row>
+    <row r="89" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
         <v>107</v>
       </c>
@@ -4201,8 +5281,26 @@
         <f>744-AE89</f>
         <v>258</v>
       </c>
-    </row>
-    <row r="90" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AL89" s="3">
+        <v>1037</v>
+      </c>
+      <c r="AM89" s="3">
+        <v>1440</v>
+      </c>
+      <c r="AN89" s="3">
+        <v>1355</v>
+      </c>
+      <c r="AO89" s="3">
+        <v>1253</v>
+      </c>
+      <c r="AP89" s="3">
+        <v>1353</v>
+      </c>
+      <c r="AQ89" s="3">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="90" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
         <v>4</v>
       </c>
@@ -4214,8 +5312,32 @@
         <f>-1750+8615+5925-AE90</f>
         <v>1426</v>
       </c>
-    </row>
-    <row r="91" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AL90" s="3">
+        <f>-1750+300+5444</f>
+        <v>3994</v>
+      </c>
+      <c r="AM90" s="3">
+        <f>-3150+4864+872</f>
+        <v>2586</v>
+      </c>
+      <c r="AN90" s="3">
+        <f>-3150-1302+6933</f>
+        <v>2481</v>
+      </c>
+      <c r="AO90" s="3">
+        <f>-3015+732+14819</f>
+        <v>12536</v>
+      </c>
+      <c r="AP90" s="3">
+        <f>-2125+11+6394</f>
+        <v>4280</v>
+      </c>
+      <c r="AQ90" s="3">
+        <f>-3000-151+17811</f>
+        <v>14660</v>
+      </c>
+    </row>
+    <row r="91" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
         <v>108</v>
       </c>
@@ -4226,8 +5348,26 @@
         <f>990-AE91</f>
         <v>-755</v>
       </c>
-    </row>
-    <row r="92" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AL91" s="3">
+        <v>13</v>
+      </c>
+      <c r="AM91" s="3">
+        <v>1677</v>
+      </c>
+      <c r="AN91" s="3">
+        <v>622</v>
+      </c>
+      <c r="AO91" s="3">
+        <v>5548</v>
+      </c>
+      <c r="AP91" s="3">
+        <v>-521</v>
+      </c>
+      <c r="AQ91" s="3">
+        <v>-1560</v>
+      </c>
+    </row>
+    <row r="92" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
         <v>98</v>
       </c>
@@ -4238,8 +5378,32 @@
         <f>-753-AE92</f>
         <v>-190</v>
       </c>
-    </row>
-    <row r="93" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AL92" s="3">
+        <f>-618-619</f>
+        <v>-1237</v>
+      </c>
+      <c r="AM92" s="3">
+        <f>-459</f>
+        <v>-459</v>
+      </c>
+      <c r="AN92" s="3">
+        <f>-1338-295</f>
+        <v>-1633</v>
+      </c>
+      <c r="AO92" s="3">
+        <f>-176-1944</f>
+        <v>-2120</v>
+      </c>
+      <c r="AP92" s="3">
+        <f>-730-1150</f>
+        <v>-1880</v>
+      </c>
+      <c r="AQ92" s="3">
+        <f>-280-1645</f>
+        <v>-1925</v>
+      </c>
+    </row>
+    <row r="93" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="s">
         <v>109</v>
       </c>
@@ -4251,8 +5415,32 @@
         <f>SUM(AF87:AF92)</f>
         <v>-1196</v>
       </c>
-    </row>
-    <row r="94" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AL93" s="3">
+        <f>SUM(AL87:AL92)</f>
+        <v>-5625</v>
+      </c>
+      <c r="AM93" s="3">
+        <f>SUM(AM87:AM92)</f>
+        <v>-3590</v>
+      </c>
+      <c r="AN93" s="3">
+        <f>SUM(AN87:AN92)</f>
+        <v>-7455</v>
+      </c>
+      <c r="AO93" s="3">
+        <f>SUM(AO87:AO92)</f>
+        <v>4226</v>
+      </c>
+      <c r="AP93" s="3">
+        <f>SUM(AP87:AP92)</f>
+        <v>-11529</v>
+      </c>
+      <c r="AQ93" s="3">
+        <f>SUM(AQ87:AQ92)</f>
+        <v>-3512</v>
+      </c>
+    </row>
+    <row r="94" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
         <v>110</v>
       </c>
@@ -4263,8 +5451,26 @@
         <f>-44-AE94</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AL94">
+        <v>-20</v>
+      </c>
+      <c r="AM94">
+        <v>-116</v>
+      </c>
+      <c r="AN94">
+        <v>-62</v>
+      </c>
+      <c r="AO94">
+        <v>34</v>
+      </c>
+      <c r="AP94">
+        <v>97</v>
+      </c>
+      <c r="AQ94">
+        <v>-61</v>
+      </c>
+    </row>
+    <row r="95" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B95" s="3" t="s">
         <v>111</v>
       </c>
@@ -4275,6 +5481,59 @@
       <c r="AF95" s="3">
         <f>+AF94+AF93+AF85+AF78</f>
         <v>-1863</v>
+      </c>
+      <c r="AL95" s="3">
+        <f>+AL93+AL94+AL85+AL78</f>
+        <v>119</v>
+      </c>
+      <c r="AM95" s="3">
+        <f>+AM93+AM94+AM85+AM78</f>
+        <v>5936</v>
+      </c>
+      <c r="AN95" s="3">
+        <f>+AN93+AN94+AN85+AN78</f>
+        <v>4454</v>
+      </c>
+      <c r="AO95" s="3">
+        <f>+AO93+AO94+AO85+AO78</f>
+        <v>1990</v>
+      </c>
+      <c r="AP95" s="3">
+        <f>+AP93+AP94+AP85+AP78</f>
+        <v>2062</v>
+      </c>
+      <c r="AQ95" s="3">
+        <f>+AQ93+AQ94+AQ85+AQ78</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="97" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B97" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL97" s="3">
+        <f t="shared" ref="AL97:AQ97" si="39">+AL78+AL82</f>
+        <v>16392</v>
+      </c>
+      <c r="AM97" s="3">
+        <f t="shared" si="39"/>
+        <v>20123</v>
+      </c>
+      <c r="AN97" s="3">
+        <f t="shared" si="39"/>
+        <v>19889</v>
+      </c>
+      <c r="AO97" s="3">
+        <f t="shared" si="39"/>
+        <v>23404</v>
+      </c>
+      <c r="AP97" s="3">
+        <f t="shared" si="39"/>
+        <v>25682</v>
+      </c>
+      <c r="AQ97" s="3">
+        <f>+AQ78+AQ82</f>
+        <v>20705</v>
       </c>
     </row>
   </sheetData>

--- a/UNH.xlsx
+++ b/UNH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313F4C3C-E51D-4EA8-B4FA-2F9D1B6647D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226C808C-15B5-4F69-9D1A-A4D5582D9B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43210" yWindow="4520" windowWidth="18720" windowHeight="14690" activeTab="1" xr2:uid="{04FE48EC-24E3-4318-82CA-AE691D8B8F65}"/>
+    <workbookView xWindow="51000" yWindow="3200" windowWidth="28800" windowHeight="15370" xr2:uid="{04FE48EC-24E3-4318-82CA-AE691D8B8F65}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -894,7 +894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0A3C4E-9822-4718-A83E-52B4DD123491}">
   <dimension ref="L2:N10"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>375</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="12:14" x14ac:dyDescent="0.25">
@@ -926,7 +926,7 @@
       </c>
       <c r="M4" s="3">
         <f>+M2*M3</f>
-        <v>348375</v>
+        <v>315860</v>
       </c>
     </row>
     <row r="5" spans="12:14" x14ac:dyDescent="0.25">
@@ -957,7 +957,7 @@
       </c>
       <c r="M7" s="3">
         <f>+M4-M5+M6</f>
-        <v>343812</v>
+        <v>311297</v>
       </c>
     </row>
     <row r="10" spans="12:14" x14ac:dyDescent="0.25">
@@ -974,11 +974,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09717AAE-9570-49D1-9F3C-CCC93C2EDF11}">
   <dimension ref="A1:AX97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AK22" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AK72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AR43" sqref="AR43"/>
+      <selection pane="bottomRight" activeCell="AQ78" sqref="AL78:AQ78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1100,47 +1100,47 @@
         <v>2020</v>
       </c>
       <c r="AN2">
-        <f>+AM2+1</f>
+        <f t="shared" ref="AN2:AX2" si="0">+AM2+1</f>
         <v>2021</v>
       </c>
       <c r="AO2">
-        <f>+AN2+1</f>
+        <f t="shared" si="0"/>
         <v>2022</v>
       </c>
       <c r="AP2">
-        <f>+AO2+1</f>
+        <f t="shared" si="0"/>
         <v>2023</v>
       </c>
       <c r="AQ2">
-        <f>+AP2+1</f>
+        <f t="shared" si="0"/>
         <v>2024</v>
       </c>
       <c r="AR2">
-        <f>+AQ2+1</f>
+        <f t="shared" si="0"/>
         <v>2025</v>
       </c>
       <c r="AS2">
-        <f>+AR2+1</f>
+        <f t="shared" si="0"/>
         <v>2026</v>
       </c>
       <c r="AT2">
-        <f>+AS2+1</f>
+        <f t="shared" si="0"/>
         <v>2027</v>
       </c>
       <c r="AU2">
-        <f>+AT2+1</f>
+        <f t="shared" si="0"/>
         <v>2028</v>
       </c>
       <c r="AV2">
-        <f>+AU2+1</f>
+        <f t="shared" si="0"/>
         <v>2029</v>
       </c>
       <c r="AW2">
-        <f>+AV2+1</f>
+        <f t="shared" si="0"/>
         <v>2030</v>
       </c>
       <c r="AX2">
-        <f>+AW2+1</f>
+        <f t="shared" si="0"/>
         <v>2031</v>
       </c>
     </row>
@@ -1275,25 +1275,25 @@
       </c>
       <c r="U5" s="6"/>
       <c r="V5" s="6">
-        <f t="shared" ref="V5:X5" si="0">+V4+V3</f>
+        <f t="shared" ref="V5:X5" si="1">+V4+V3</f>
         <v>26580</v>
       </c>
       <c r="W5" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26410</v>
       </c>
       <c r="X5" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26490</v>
       </c>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6">
-        <f t="shared" ref="AA5" si="1">+AA4+AA3</f>
+        <f t="shared" ref="AA5" si="2">+AA4+AA3</f>
         <v>27175</v>
       </c>
       <c r="AE5" s="6">
-        <f t="shared" ref="AE5" si="2">+AE4+AE3</f>
+        <f t="shared" ref="AE5" si="3">+AE4+AE3</f>
         <v>29570</v>
       </c>
       <c r="AO5" s="5">
@@ -1492,25 +1492,25 @@
       </c>
       <c r="U9" s="6"/>
       <c r="V9" s="6">
-        <f t="shared" ref="V9:X9" si="3">SUM(V6:V8)</f>
+        <f t="shared" ref="V9:X9" si="4">SUM(V6:V8)</f>
         <v>18540</v>
       </c>
       <c r="W9" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19055</v>
       </c>
       <c r="X9" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19290</v>
       </c>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6">
-        <f t="shared" ref="AA9" si="4">SUM(AA6:AA8)</f>
+        <f t="shared" ref="AA9" si="5">SUM(AA6:AA8)</f>
         <v>20275</v>
       </c>
       <c r="AE9" s="6">
-        <f t="shared" ref="AE9" si="5">SUM(AE6:AE8)</f>
+        <f t="shared" ref="AE9" si="6">SUM(AE6:AE8)</f>
         <v>19515</v>
       </c>
       <c r="AO9" s="5">
@@ -2367,7 +2367,7 @@
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6">
-        <f t="shared" ref="S32" si="6">SUM(S28:S31)</f>
+        <f t="shared" ref="S32" si="7">SUM(S28:S31)</f>
         <v>70196</v>
       </c>
       <c r="T32" s="6">
@@ -2377,75 +2377,75 @@
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
       <c r="W32" s="6">
-        <f t="shared" ref="W32" si="7">SUM(W28:W31)</f>
+        <f t="shared" ref="W32" si="8">SUM(W28:W31)</f>
         <v>80149</v>
       </c>
       <c r="X32" s="6">
-        <f t="shared" ref="X32:AH32" si="8">SUM(X28:X31)</f>
+        <f t="shared" ref="X32:AH32" si="9">SUM(X28:X31)</f>
         <v>80332</v>
       </c>
       <c r="Y32" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z32" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA32" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>91931</v>
       </c>
       <c r="AB32" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>92903</v>
       </c>
       <c r="AC32" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD32" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE32" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>99796</v>
       </c>
       <c r="AF32" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>98855</v>
       </c>
       <c r="AG32" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AH32" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL32" s="5">
-        <f>SUM(AL28:AL31)</f>
+        <f t="shared" ref="AL32:AQ32" si="10">SUM(AL28:AL31)</f>
         <v>242155</v>
       </c>
       <c r="AM32" s="5">
-        <f>SUM(AM28:AM31)</f>
+        <f t="shared" si="10"/>
         <v>257141</v>
       </c>
       <c r="AN32" s="5">
-        <f>SUM(AN28:AN31)</f>
+        <f t="shared" si="10"/>
         <v>287597</v>
       </c>
       <c r="AO32" s="5">
-        <f>SUM(AO28:AO31)</f>
+        <f t="shared" si="10"/>
         <v>324162</v>
       </c>
       <c r="AP32" s="5">
-        <f>SUM(AP28:AP31)</f>
+        <f t="shared" si="10"/>
         <v>371622</v>
       </c>
       <c r="AQ32" s="5">
-        <f>SUM(AQ28:AQ31)</f>
+        <f t="shared" si="10"/>
         <v>400278</v>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4">
-        <f t="shared" ref="S36" si="9">SUM(S33:S35)</f>
+        <f t="shared" ref="S36" si="11">SUM(S33:S35)</f>
         <v>62699</v>
       </c>
       <c r="T36" s="4">
@@ -2681,7 +2681,7 @@
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
       <c r="W36" s="4">
-        <f t="shared" ref="W36" si="10">SUM(W33:W35)</f>
+        <f t="shared" ref="W36" si="12">SUM(W33:W35)</f>
         <v>72411</v>
       </c>
       <c r="X36" s="4">
@@ -2689,68 +2689,68 @@
         <v>72398</v>
       </c>
       <c r="Y36" s="4">
-        <f t="shared" ref="Y36:AH36" si="11">SUM(Y33:Y35)</f>
+        <f t="shared" ref="Y36:AH36" si="13">SUM(Y33:Y35)</f>
         <v>0</v>
       </c>
       <c r="Z36" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA36" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>82875</v>
       </c>
       <c r="AB36" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>83825</v>
       </c>
       <c r="AC36" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD36" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE36" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>90868</v>
       </c>
       <c r="AF36" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>89960</v>
       </c>
       <c r="AG36" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AH36" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AK36" s="4"/>
       <c r="AL36" s="4">
-        <f t="shared" ref="AL36:AM36" si="12">SUM(AL33:AL35)</f>
+        <f t="shared" ref="AL36:AM36" si="14">SUM(AL33:AL35)</f>
         <v>219750</v>
       </c>
       <c r="AM36" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>231845</v>
       </c>
       <c r="AN36" s="4">
-        <f t="shared" ref="AN36:AO36" si="13">SUM(AN33:AN35)</f>
+        <f t="shared" ref="AN36" si="15">SUM(AN33:AN35)</f>
         <v>260524</v>
       </c>
       <c r="AO36" s="4">
-        <f t="shared" ref="AO36" si="14">SUM(AO33:AO35)</f>
+        <f t="shared" ref="AO36" si="16">SUM(AO33:AO35)</f>
         <v>292327</v>
       </c>
       <c r="AP36" s="4">
-        <f t="shared" ref="AP36" si="15">SUM(AP33:AP35)</f>
+        <f t="shared" ref="AP36" si="17">SUM(AP33:AP35)</f>
         <v>335292</v>
       </c>
       <c r="AQ36" s="4">
-        <f t="shared" ref="AQ36" si="16">SUM(AQ33:AQ35)</f>
+        <f t="shared" ref="AQ36" si="18">SUM(AQ33:AQ35)</f>
         <v>363892</v>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4">
-        <f t="shared" ref="S37" si="17">S32-S36</f>
+        <f t="shared" ref="S37" si="19">S32-S36</f>
         <v>7497</v>
       </c>
       <c r="T37" s="4">
@@ -2785,7 +2785,7 @@
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37" s="4">
-        <f t="shared" ref="W37" si="18">W32-W36</f>
+        <f t="shared" ref="W37" si="20">W32-W36</f>
         <v>7738</v>
       </c>
       <c r="X37" s="4">
@@ -2793,68 +2793,68 @@
         <v>7934</v>
       </c>
       <c r="Y37" s="4">
-        <f t="shared" ref="Y37:AH37" si="19">Y32-Y36</f>
+        <f t="shared" ref="Y37:AH37" si="21">Y32-Y36</f>
         <v>0</v>
       </c>
       <c r="Z37" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AA37" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9056</v>
       </c>
       <c r="AB37" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9078</v>
       </c>
       <c r="AC37" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AD37" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AE37" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>8928</v>
       </c>
       <c r="AF37" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>8895</v>
       </c>
       <c r="AG37" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AH37" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AK37" s="4"/>
       <c r="AL37" s="4">
-        <f t="shared" ref="AL37:AM37" si="20">AL32-AL36</f>
+        <f t="shared" ref="AL37:AM37" si="22">AL32-AL36</f>
         <v>22405</v>
       </c>
       <c r="AM37" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>25296</v>
       </c>
       <c r="AN37" s="4">
-        <f t="shared" ref="AN37:AO37" si="21">AN32-AN36</f>
+        <f t="shared" ref="AN37" si="23">AN32-AN36</f>
         <v>27073</v>
       </c>
       <c r="AO37" s="4">
-        <f t="shared" ref="AO37" si="22">AO32-AO36</f>
+        <f t="shared" ref="AO37" si="24">AO32-AO36</f>
         <v>31835</v>
       </c>
       <c r="AP37" s="4">
-        <f t="shared" ref="AP37" si="23">AP32-AP36</f>
+        <f t="shared" ref="AP37" si="25">AP32-AP36</f>
         <v>36330</v>
       </c>
       <c r="AQ37" s="4">
-        <f t="shared" ref="AQ37" si="24">AQ32-AQ36</f>
+        <f t="shared" ref="AQ37" si="26">AQ32-AQ36</f>
         <v>36386</v>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4">
-        <f t="shared" ref="S39" si="25">+S37+S38</f>
+        <f t="shared" ref="S39" si="27">+S37+S38</f>
         <v>7100</v>
       </c>
       <c r="T39" s="4">
@@ -2956,7 +2956,7 @@
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
       <c r="W39" s="4">
-        <f t="shared" ref="W39" si="26">+W37+W38</f>
+        <f t="shared" ref="W39" si="28">+W37+W38</f>
         <v>7305</v>
       </c>
       <c r="X39" s="4">
@@ -2982,27 +2982,27 @@
         <v>7910</v>
       </c>
       <c r="AL39" s="3">
-        <f>+AL37+AL38</f>
+        <f t="shared" ref="AL39:AQ39" si="29">+AL37+AL38</f>
         <v>20701</v>
       </c>
       <c r="AM39" s="3">
-        <f>+AM37+AM38</f>
+        <f t="shared" si="29"/>
         <v>23633</v>
       </c>
       <c r="AN39" s="3">
-        <f>+AN37+AN38</f>
+        <f t="shared" si="29"/>
         <v>25413</v>
       </c>
       <c r="AO39" s="3">
-        <f>+AO37+AO38</f>
+        <f t="shared" si="29"/>
         <v>29743</v>
       </c>
       <c r="AP39" s="3">
-        <f>+AP37+AP38</f>
+        <f t="shared" si="29"/>
         <v>33084</v>
       </c>
       <c r="AQ39" s="3">
-        <f>+AQ37+AQ38</f>
+        <f t="shared" si="29"/>
         <v>32480</v>
       </c>
     </row>
@@ -3100,7 +3100,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
       <c r="S41" s="4">
-        <f t="shared" ref="S41" si="27">+S39-S40</f>
+        <f t="shared" ref="S41" si="30">+S39-S40</f>
         <v>5620</v>
       </c>
       <c r="T41" s="4">
@@ -3110,7 +3110,7 @@
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
       <c r="W41" s="4">
-        <f t="shared" ref="W41" si="28">+W39-W40</f>
+        <f t="shared" ref="W41" si="31">+W39-W40</f>
         <v>5815</v>
       </c>
       <c r="X41" s="4">
@@ -3136,27 +3136,27 @@
         <v>6461</v>
       </c>
       <c r="AL41" s="3">
-        <f>+AL39-AL40</f>
+        <f t="shared" ref="AL41:AQ41" si="32">+AL39-AL40</f>
         <v>16959</v>
       </c>
       <c r="AM41" s="3">
-        <f>+AM39-AM40</f>
+        <f t="shared" si="32"/>
         <v>18660</v>
       </c>
       <c r="AN41" s="3">
-        <f>+AN39-AN40</f>
+        <f t="shared" si="32"/>
         <v>20835</v>
       </c>
       <c r="AO41" s="3">
-        <f>+AO39-AO40</f>
+        <f t="shared" si="32"/>
         <v>24039</v>
       </c>
       <c r="AP41" s="3">
-        <f>+AP39-AP40</f>
+        <f t="shared" si="32"/>
         <v>27098</v>
       </c>
       <c r="AQ41" s="3">
-        <f>+AQ39-AQ40</f>
+        <f t="shared" si="32"/>
         <v>27651</v>
       </c>
     </row>
@@ -3165,7 +3165,7 @@
         <v>33</v>
       </c>
       <c r="S42" s="7">
-        <f t="shared" ref="S42" si="29">S41/S43</f>
+        <f t="shared" ref="S42" si="33">S41/S43</f>
         <v>5.8725182863113901</v>
       </c>
       <c r="T42" s="7">
@@ -3173,7 +3173,7 @@
         <v>5.3870292887029292</v>
       </c>
       <c r="W42" s="7">
-        <f t="shared" ref="W42" si="30">W41/W43</f>
+        <f t="shared" ref="W42" si="34">W41/W43</f>
         <v>6.0953878406708597</v>
       </c>
       <c r="X42" s="7">
@@ -3198,27 +3198,27 @@
       </c>
       <c r="AK42" s="1"/>
       <c r="AL42" s="1">
-        <f>+AL41/AL43</f>
+        <f t="shared" ref="AL42:AQ42" si="35">+AL41/AL43</f>
         <v>17.555900621118013</v>
       </c>
       <c r="AM42" s="1">
-        <f>+AM41/AM43</f>
+        <f t="shared" si="35"/>
         <v>19.417273673257025</v>
       </c>
       <c r="AN42" s="1">
-        <f>+AN41/AN43</f>
+        <f t="shared" si="35"/>
         <v>21.793933054393307</v>
       </c>
       <c r="AO42" s="1">
-        <f>+AO41/AO43</f>
+        <f t="shared" si="35"/>
         <v>25.304210526315789</v>
       </c>
       <c r="AP42" s="1">
-        <f>+AP41/AP43</f>
+        <f t="shared" si="35"/>
         <v>28.889125799573559</v>
       </c>
       <c r="AQ42" s="1">
-        <f>+AQ41/AQ43</f>
+        <f t="shared" si="35"/>
         <v>29.764262648008611</v>
       </c>
     </row>
@@ -3290,7 +3290,7 @@
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
       <c r="S45" s="10">
-        <f t="shared" ref="S45" si="31">S33/S28</f>
+        <f t="shared" ref="S45" si="36">S33/S28</f>
         <v>0.80928522510182754</v>
       </c>
       <c r="T45" s="10">
@@ -3308,67 +3308,67 @@
         <v>0.81527795167146611</v>
       </c>
       <c r="Y45" s="10" t="e">
-        <f t="shared" ref="Y45:AH45" si="32">Y33/Y28</f>
+        <f t="shared" ref="Y45:AH45" si="37">Y33/Y28</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z45" s="10" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA45" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0.82220481960816638</v>
       </c>
       <c r="AB45" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0.8315809807655159</v>
       </c>
       <c r="AC45" s="10" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD45" s="10" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE45" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0.84288608503872386</v>
       </c>
       <c r="AF45" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0.85124257123164748</v>
       </c>
       <c r="AG45" s="10" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH45" s="10" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL45" s="10">
-        <f t="shared" ref="AL45:AM45" si="33">AL33/AL28</f>
+        <f t="shared" ref="AL45:AM45" si="38">AL33/AL28</f>
         <v>0.82467487967780539</v>
       </c>
       <c r="AM45" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.79113352326308584</v>
       </c>
       <c r="AN45" s="10">
-        <f t="shared" ref="AN45:AQ45" si="34">AN33/AN28</f>
+        <f t="shared" ref="AN45:AQ45" si="39">AN33/AN28</f>
         <v>0.82618804506857979</v>
       </c>
       <c r="AO45" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.81989601683018543</v>
       </c>
       <c r="AP45" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.83174533313619436</v>
       </c>
       <c r="AQ45" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.8554936692464622</v>
       </c>
     </row>
@@ -3873,7 +3873,7 @@
       <c r="U58" s="4"/>
       <c r="V58" s="4"/>
       <c r="W58" s="4">
-        <f t="shared" ref="W58" si="35">SUM(W50:W57)</f>
+        <f t="shared" ref="W58" si="40">SUM(W50:W57)</f>
         <v>221238</v>
       </c>
       <c r="X58" s="4">
@@ -3883,7 +3883,7 @@
       <c r="Y58" s="4"/>
       <c r="Z58" s="4"/>
       <c r="AE58" s="4">
-        <f t="shared" ref="AE58" si="36">SUM(AE50:AE57)</f>
+        <f t="shared" ref="AE58" si="41">SUM(AE50:AE57)</f>
         <v>284210</v>
       </c>
       <c r="AF58" s="4">
@@ -4296,7 +4296,7 @@
       <c r="U68" s="4"/>
       <c r="V68" s="4"/>
       <c r="W68" s="4">
-        <f t="shared" ref="W68" si="37">SUM(W60:W67)</f>
+        <f t="shared" ref="W68" si="42">SUM(W60:W67)</f>
         <v>221238</v>
       </c>
       <c r="X68" s="4">
@@ -4306,7 +4306,7 @@
       <c r="Y68" s="4"/>
       <c r="Z68" s="4"/>
       <c r="AE68" s="4">
-        <f t="shared" ref="AE68" si="38">SUM(AE60:AE67)</f>
+        <f t="shared" ref="AE68" si="43">SUM(AE60:AE67)</f>
         <v>284210</v>
       </c>
       <c r="AF68" s="4">
@@ -4359,27 +4359,27 @@
         <v>6461</v>
       </c>
       <c r="AL70" s="3">
-        <f>+AL41</f>
+        <f t="shared" ref="AL70:AQ70" si="44">+AL41</f>
         <v>16959</v>
       </c>
       <c r="AM70" s="3">
-        <f>+AM41</f>
+        <f t="shared" si="44"/>
         <v>18660</v>
       </c>
       <c r="AN70" s="3">
-        <f>+AN41</f>
+        <f t="shared" si="44"/>
         <v>20835</v>
       </c>
       <c r="AO70" s="3">
-        <f>+AO41</f>
+        <f t="shared" si="44"/>
         <v>24039</v>
       </c>
       <c r="AP70" s="3">
-        <f>+AP41</f>
+        <f t="shared" si="44"/>
         <v>27098</v>
       </c>
       <c r="AQ70" s="3">
-        <f>+AQ41</f>
+        <f t="shared" si="44"/>
         <v>27651</v>
       </c>
     </row>
@@ -4808,27 +4808,27 @@
         <v>6746</v>
       </c>
       <c r="AL78" s="3">
-        <f>SUM(AL71:AL77)</f>
+        <f t="shared" ref="AL78:AQ78" si="45">SUM(AL71:AL77)</f>
         <v>18463</v>
       </c>
       <c r="AM78" s="3">
-        <f>SUM(AM71:AM77)</f>
+        <f t="shared" si="45"/>
         <v>22174</v>
       </c>
       <c r="AN78" s="3">
-        <f>SUM(AN71:AN77)</f>
+        <f t="shared" si="45"/>
         <v>22343</v>
       </c>
       <c r="AO78" s="3">
-        <f>SUM(AO71:AO77)</f>
+        <f t="shared" si="45"/>
         <v>26206</v>
       </c>
       <c r="AP78" s="3">
-        <f>SUM(AP71:AP77)</f>
+        <f t="shared" si="45"/>
         <v>29068</v>
       </c>
       <c r="AQ78" s="3">
-        <f>SUM(AQ71:AQ77)</f>
+        <f t="shared" si="45"/>
         <v>24204</v>
       </c>
     </row>
@@ -5186,27 +5186,27 @@
         <v>-7417</v>
       </c>
       <c r="AL85" s="3">
-        <f>SUM(AL80:AL84)</f>
+        <f t="shared" ref="AL85:AQ85" si="46">SUM(AL80:AL84)</f>
         <v>-12699</v>
       </c>
       <c r="AM85" s="3">
-        <f>SUM(AM80:AM84)</f>
+        <f t="shared" si="46"/>
         <v>-12532</v>
       </c>
       <c r="AN85" s="3">
-        <f>SUM(AN80:AN84)</f>
+        <f t="shared" si="46"/>
         <v>-10372</v>
       </c>
       <c r="AO85" s="3">
-        <f>SUM(AO80:AO84)</f>
+        <f t="shared" si="46"/>
         <v>-28476</v>
       </c>
       <c r="AP85" s="3">
-        <f>SUM(AP80:AP84)</f>
+        <f t="shared" si="46"/>
         <v>-15574</v>
       </c>
       <c r="AQ85" s="3">
-        <f>SUM(AQ80:AQ84)</f>
+        <f t="shared" si="46"/>
         <v>-20527</v>
       </c>
     </row>
@@ -5416,27 +5416,27 @@
         <v>-1196</v>
       </c>
       <c r="AL93" s="3">
-        <f>SUM(AL87:AL92)</f>
+        <f t="shared" ref="AL93:AQ93" si="47">SUM(AL87:AL92)</f>
         <v>-5625</v>
       </c>
       <c r="AM93" s="3">
-        <f>SUM(AM87:AM92)</f>
+        <f t="shared" si="47"/>
         <v>-3590</v>
       </c>
       <c r="AN93" s="3">
-        <f>SUM(AN87:AN92)</f>
+        <f t="shared" si="47"/>
         <v>-7455</v>
       </c>
       <c r="AO93" s="3">
-        <f>SUM(AO87:AO92)</f>
+        <f t="shared" si="47"/>
         <v>4226</v>
       </c>
       <c r="AP93" s="3">
-        <f>SUM(AP87:AP92)</f>
+        <f t="shared" si="47"/>
         <v>-11529</v>
       </c>
       <c r="AQ93" s="3">
-        <f>SUM(AQ87:AQ92)</f>
+        <f t="shared" si="47"/>
         <v>-3512</v>
       </c>
     </row>
@@ -5483,27 +5483,27 @@
         <v>-1863</v>
       </c>
       <c r="AL95" s="3">
-        <f>+AL93+AL94+AL85+AL78</f>
+        <f t="shared" ref="AL95:AQ95" si="48">+AL93+AL94+AL85+AL78</f>
         <v>119</v>
       </c>
       <c r="AM95" s="3">
-        <f>+AM93+AM94+AM85+AM78</f>
+        <f t="shared" si="48"/>
         <v>5936</v>
       </c>
       <c r="AN95" s="3">
-        <f>+AN93+AN94+AN85+AN78</f>
+        <f t="shared" si="48"/>
         <v>4454</v>
       </c>
       <c r="AO95" s="3">
-        <f>+AO93+AO94+AO85+AO78</f>
+        <f t="shared" si="48"/>
         <v>1990</v>
       </c>
       <c r="AP95" s="3">
-        <f>+AP93+AP94+AP85+AP78</f>
+        <f t="shared" si="48"/>
         <v>2062</v>
       </c>
       <c r="AQ95" s="3">
-        <f>+AQ93+AQ94+AQ85+AQ78</f>
+        <f t="shared" si="48"/>
         <v>104</v>
       </c>
     </row>
@@ -5512,23 +5512,23 @@
         <v>114</v>
       </c>
       <c r="AL97" s="3">
-        <f t="shared" ref="AL97:AQ97" si="39">+AL78+AL82</f>
+        <f t="shared" ref="AL97:AP97" si="49">+AL78+AL82</f>
         <v>16392</v>
       </c>
       <c r="AM97" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="49"/>
         <v>20123</v>
       </c>
       <c r="AN97" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="49"/>
         <v>19889</v>
       </c>
       <c r="AO97" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="49"/>
         <v>23404</v>
       </c>
       <c r="AP97" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="49"/>
         <v>25682</v>
       </c>
       <c r="AQ97" s="3">

--- a/UNH.xlsx
+++ b/UNH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226C808C-15B5-4F69-9D1A-A4D5582D9B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020242D2-4ACD-43E6-9A70-997E18318893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51000" yWindow="3200" windowWidth="28800" windowHeight="15370" xr2:uid="{04FE48EC-24E3-4318-82CA-AE691D8B8F65}"/>
+    <workbookView xWindow="43500" yWindow="3720" windowWidth="18540" windowHeight="15370" xr2:uid="{04FE48EC-24E3-4318-82CA-AE691D8B8F65}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="119">
   <si>
     <t>Price</t>
   </si>
@@ -384,6 +384,15 @@
   </si>
   <si>
     <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
   </si>
 </sst>
 </file>
@@ -436,7 +445,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -470,6 +479,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -494,14 +506,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>61707</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>29957</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>61707</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>29957</xdr:colOff>
       <xdr:row>105</xdr:row>
       <xdr:rowOff>33130</xdr:rowOff>
     </xdr:to>
@@ -518,8 +530,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20994620" y="0"/>
-          <a:ext cx="0" cy="16692217"/>
+          <a:off x="23489238" y="0"/>
+          <a:ext cx="0" cy="16749505"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -544,13 +556,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>22087</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>66261</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>22087</xdr:colOff>
       <xdr:row>111</xdr:row>
       <xdr:rowOff>11044</xdr:rowOff>
@@ -894,7 +906,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0A3C4E-9822-4718-A83E-52B4DD123491}">
   <dimension ref="L2:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -906,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>340</v>
+        <v>259.64</v>
       </c>
     </row>
     <row r="3" spans="12:14" x14ac:dyDescent="0.25">
@@ -926,7 +940,7 @@
       </c>
       <c r="M4" s="3">
         <f>+M2*M3</f>
-        <v>315860</v>
+        <v>241205.56</v>
       </c>
     </row>
     <row r="5" spans="12:14" x14ac:dyDescent="0.25">
@@ -957,7 +971,7 @@
       </c>
       <c r="M7" s="3">
         <f>+M4-M5+M6</f>
-        <v>311297</v>
+        <v>236642.56</v>
       </c>
     </row>
     <row r="10" spans="12:14" x14ac:dyDescent="0.25">
@@ -972,13 +986,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09717AAE-9570-49D1-9F3C-CCC93C2EDF11}">
-  <dimension ref="A1:AX97"/>
+  <dimension ref="A1:BC97"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AK72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AO89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AQ78" sqref="AL78:AQ78"/>
+      <selection pane="bottomRight" activeCell="AV97" sqref="AQ97:AV97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -988,12 +1002,12 @@
     <col min="3" max="26" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>82</v>
       </c>
@@ -1090,61 +1104,74 @@
       <c r="AH2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AK2">
+      <c r="AI2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AM2" s="2"/>
+      <c r="AP2">
         <v>2018</v>
       </c>
-      <c r="AL2">
+      <c r="AQ2">
         <v>2019</v>
       </c>
-      <c r="AM2">
+      <c r="AR2">
         <v>2020</v>
       </c>
-      <c r="AN2">
-        <f t="shared" ref="AN2:AX2" si="0">+AM2+1</f>
+      <c r="AS2">
+        <f t="shared" ref="AS2:BC2" si="0">+AR2+1</f>
         <v>2021</v>
       </c>
-      <c r="AO2">
+      <c r="AT2">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="AP2">
+      <c r="AU2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AQ2">
+      <c r="AV2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AR2">
+      <c r="AW2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AS2">
+      <c r="AX2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AT2">
+      <c r="AY2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AU2">
+      <c r="AZ2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AV2">
+      <c r="BA2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AW2">
+      <c r="BB2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AX2">
+      <c r="BC2">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
     </row>
-    <row r="3" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>46</v>
       </c>
@@ -1183,20 +1210,41 @@
       <c r="AA3" s="3">
         <v>8035</v>
       </c>
+      <c r="AC3" s="3">
+        <v>8120</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>8115</v>
+      </c>
       <c r="AE3" s="3">
+        <v>8545</v>
+      </c>
+      <c r="AF3" s="3">
         <v>8735</v>
       </c>
-      <c r="AO3" s="3">
+      <c r="AG3" s="3">
+        <v>8900</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>8845</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>8410</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>8440</v>
+      </c>
+      <c r="AT3" s="3">
         <v>8045</v>
       </c>
-      <c r="AP3" s="3">
+      <c r="AU3" s="3">
         <v>8115</v>
       </c>
-      <c r="AQ3" s="3">
+      <c r="AV3" s="3">
         <v>8845</v>
       </c>
     </row>
-    <row r="4" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>47</v>
       </c>
@@ -1235,20 +1283,41 @@
       <c r="AA4" s="3">
         <v>19140</v>
       </c>
+      <c r="AC4" s="3">
+        <v>19130</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>19200</v>
+      </c>
       <c r="AE4" s="3">
+        <v>20870</v>
+      </c>
+      <c r="AF4" s="3">
         <v>20835</v>
       </c>
-      <c r="AO4" s="3">
+      <c r="AG4" s="3">
+        <v>20830</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>20885</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>21590</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>21530</v>
+      </c>
+      <c r="AT4" s="3">
         <v>18640</v>
       </c>
-      <c r="AP4" s="3">
+      <c r="AU4" s="3">
         <v>19200</v>
       </c>
-      <c r="AQ4" s="3">
+      <c r="AV4" s="3">
         <v>20885</v>
       </c>
     </row>
-    <row r="5" spans="1:50" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:55" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>48</v>
       </c>
@@ -1289,27 +1358,59 @@
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6">
-        <f t="shared" ref="AA5" si="2">+AA4+AA3</f>
+        <f t="shared" ref="AA5:AD5" si="2">+AA4+AA3</f>
         <v>27175</v>
       </c>
+      <c r="AB5" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="6">
+        <f t="shared" si="2"/>
+        <v>27250</v>
+      </c>
+      <c r="AD5" s="6">
+        <f t="shared" ref="AD5:AJ5" si="3">+AD4+AD3</f>
+        <v>27315</v>
+      </c>
       <c r="AE5" s="6">
-        <f t="shared" ref="AE5" si="3">+AE4+AE3</f>
+        <f t="shared" si="3"/>
+        <v>29415</v>
+      </c>
+      <c r="AF5" s="6">
+        <f t="shared" si="3"/>
         <v>29570</v>
       </c>
-      <c r="AO5" s="5">
-        <f>+AO3+AO4</f>
+      <c r="AG5" s="6">
+        <f t="shared" si="3"/>
+        <v>29730</v>
+      </c>
+      <c r="AH5" s="6">
+        <f t="shared" si="3"/>
+        <v>29730</v>
+      </c>
+      <c r="AI5" s="6">
+        <f t="shared" si="3"/>
+        <v>30000</v>
+      </c>
+      <c r="AJ5" s="6">
+        <f t="shared" si="3"/>
+        <v>29970</v>
+      </c>
+      <c r="AT5" s="5">
+        <f>+AT3+AT4</f>
         <v>26685</v>
       </c>
-      <c r="AP5" s="5">
-        <f>+AP3+AP4</f>
+      <c r="AU5" s="5">
+        <f>+AU3+AU4</f>
         <v>27315</v>
       </c>
-      <c r="AQ5" s="5">
-        <f>+AQ3+AQ4</f>
+      <c r="AV5" s="5">
+        <f>+AV3+AV4</f>
         <v>29730</v>
       </c>
     </row>
-    <row r="6" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>49</v>
       </c>
@@ -1348,20 +1449,41 @@
       <c r="AA6" s="3">
         <v>7590</v>
       </c>
+      <c r="AC6" s="3">
+        <v>7645</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>7695</v>
+      </c>
       <c r="AE6" s="3">
+        <v>7760</v>
+      </c>
+      <c r="AF6" s="3">
         <v>7770</v>
       </c>
-      <c r="AO6" s="3">
+      <c r="AG6" s="3">
+        <v>7810</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>7845</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>8245</v>
+      </c>
+      <c r="AJ6" s="3">
+        <v>8350</v>
+      </c>
+      <c r="AT6" s="3">
         <v>7105</v>
       </c>
-      <c r="AP6" s="3">
+      <c r="AU6" s="3">
         <v>7695</v>
       </c>
-      <c r="AQ6" s="3">
+      <c r="AV6" s="3">
         <v>7845</v>
       </c>
     </row>
-    <row r="7" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>50</v>
       </c>
@@ -1400,20 +1522,41 @@
       <c r="AA7" s="3">
         <v>8355</v>
       </c>
+      <c r="AC7" s="3">
+        <v>8065</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>7845</v>
+      </c>
       <c r="AE7" s="3">
+        <v>7680</v>
+      </c>
+      <c r="AF7" s="3">
         <v>7410</v>
       </c>
-      <c r="AO7" s="3">
+      <c r="AG7" s="3">
+        <v>7450</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>7435</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>7570</v>
+      </c>
+      <c r="AJ7" s="3">
+        <v>7490</v>
+      </c>
+      <c r="AT7" s="3">
         <v>8170</v>
       </c>
-      <c r="AP7" s="3">
+      <c r="AU7" s="3">
         <v>7845</v>
       </c>
-      <c r="AQ7" s="3">
+      <c r="AV7" s="3">
         <v>7435</v>
       </c>
     </row>
-    <row r="8" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>51</v>
       </c>
@@ -1452,20 +1595,41 @@
       <c r="AA8" s="3">
         <v>4330</v>
       </c>
+      <c r="AC8" s="3">
+        <v>4345</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>4355</v>
+      </c>
       <c r="AE8" s="3">
+        <v>4325</v>
+      </c>
+      <c r="AF8" s="3">
         <v>4335</v>
       </c>
-      <c r="AO8" s="3">
+      <c r="AG8" s="3">
+        <v>4340</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>4335</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>4310</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>4305</v>
+      </c>
+      <c r="AT8" s="3">
         <v>4375</v>
       </c>
-      <c r="AP8" s="3">
+      <c r="AU8" s="3">
         <v>4355</v>
       </c>
-      <c r="AQ8" s="3">
+      <c r="AV8" s="3">
         <v>4335</v>
       </c>
     </row>
-    <row r="9" spans="1:50" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:55" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>52</v>
       </c>
@@ -1506,27 +1670,59 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6">
-        <f t="shared" ref="AA9" si="5">SUM(AA6:AA8)</f>
+        <f t="shared" ref="AA9:AD9" si="5">SUM(AA6:AA8)</f>
         <v>20275</v>
       </c>
+      <c r="AB9" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="6">
+        <f t="shared" si="5"/>
+        <v>20055</v>
+      </c>
+      <c r="AD9" s="6">
+        <f t="shared" ref="AD9:AJ9" si="6">SUM(AD6:AD8)</f>
+        <v>19895</v>
+      </c>
       <c r="AE9" s="6">
-        <f t="shared" ref="AE9" si="6">SUM(AE6:AE8)</f>
+        <f t="shared" si="6"/>
+        <v>19765</v>
+      </c>
+      <c r="AF9" s="6">
+        <f t="shared" si="6"/>
         <v>19515</v>
       </c>
-      <c r="AO9" s="5">
-        <f>+AO8+AO7+AO6</f>
+      <c r="AG9" s="6">
+        <f t="shared" si="6"/>
+        <v>19600</v>
+      </c>
+      <c r="AH9" s="6">
+        <f t="shared" si="6"/>
+        <v>19615</v>
+      </c>
+      <c r="AI9" s="6">
+        <f t="shared" si="6"/>
+        <v>20125</v>
+      </c>
+      <c r="AJ9" s="6">
+        <f t="shared" si="6"/>
+        <v>20145</v>
+      </c>
+      <c r="AT9" s="5">
+        <f>+AT8+AT7+AT6</f>
         <v>19650</v>
       </c>
-      <c r="AP9" s="5">
-        <f>+AP8+AP7+AP6</f>
+      <c r="AU9" s="5">
+        <f>+AU8+AU7+AU6</f>
         <v>19895</v>
       </c>
-      <c r="AQ9" s="5">
-        <f>+AQ8+AQ7+AQ6</f>
+      <c r="AV9" s="5">
+        <f>+AV8+AV7+AV6</f>
         <v>19615</v>
       </c>
     </row>
-    <row r="10" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>53</v>
       </c>
@@ -1565,20 +1761,41 @@
       <c r="AA10" s="3">
         <v>5385</v>
       </c>
+      <c r="AC10" s="3">
+        <v>5475</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>5540</v>
+      </c>
       <c r="AE10" s="3">
+        <v>2295</v>
+      </c>
+      <c r="AF10" s="3">
         <v>1330</v>
       </c>
-      <c r="AO10" s="3">
+      <c r="AG10" s="3">
+        <v>1335</v>
+      </c>
+      <c r="AH10" s="3">
+        <v>1330</v>
+      </c>
+      <c r="AI10" s="3">
+        <v>1160</v>
+      </c>
+      <c r="AJ10" s="3">
+        <v>1165</v>
+      </c>
+      <c r="AT10" s="3">
         <v>5360</v>
       </c>
-      <c r="AP10" s="3">
+      <c r="AU10" s="3">
         <v>5540</v>
       </c>
-      <c r="AQ10" s="3">
+      <c r="AV10" s="3">
         <v>1330</v>
       </c>
     </row>
-    <row r="11" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>54</v>
       </c>
@@ -1617,20 +1834,41 @@
       <c r="AA11" s="3">
         <v>3355</v>
       </c>
+      <c r="AC11" s="3">
+        <v>3355</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>3315</v>
+      </c>
       <c r="AE11" s="3">
+        <v>3085</v>
+      </c>
+      <c r="AF11" s="3">
         <v>3065</v>
       </c>
-      <c r="AO11" s="3">
+      <c r="AG11" s="3">
+        <v>3055</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>3050</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>2835</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>2800</v>
+      </c>
+      <c r="AT11" s="3">
         <v>3295</v>
       </c>
-      <c r="AP11" s="3">
+      <c r="AU11" s="3">
         <v>3315</v>
       </c>
-      <c r="AQ11" s="3">
+      <c r="AV11" s="3">
         <v>3050</v>
       </c>
     </row>
-    <row r="12" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1656,7 +1894,7 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
     </row>
-    <row r="13" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>55</v>
       </c>
@@ -1693,7 +1931,7 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
     </row>
-    <row r="14" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>56</v>
       </c>
@@ -1730,7 +1968,7 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>57</v>
       </c>
@@ -1767,7 +2005,7 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
     </row>
-    <row r="17" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>38</v>
       </c>
@@ -1802,11 +2040,11 @@
       <c r="AA17" s="3">
         <v>16759</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>18646</v>
       </c>
     </row>
-    <row r="18" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>39</v>
       </c>
@@ -1841,11 +2079,11 @@
       <c r="AA18" s="3">
         <v>2325</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>591</v>
       </c>
     </row>
-    <row r="19" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>40</v>
       </c>
@@ -1880,11 +2118,11 @@
       <c r="AA19" s="3">
         <v>32440</v>
       </c>
-      <c r="AE19" s="3">
+      <c r="AF19" s="3">
         <v>34904</v>
       </c>
     </row>
-    <row r="20" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>41</v>
       </c>
@@ -1919,11 +2157,11 @@
       <c r="AA20" s="3">
         <v>18707</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>19725</v>
       </c>
     </row>
-    <row r="21" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>42</v>
       </c>
@@ -1959,10 +2197,19 @@
         <v>56344</v>
       </c>
       <c r="AE21" s="3">
+        <v>61052</v>
+      </c>
+      <c r="AF21" s="3">
         <v>62879</v>
       </c>
-    </row>
-    <row r="22" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI21" s="3">
+        <v>63885</v>
+      </c>
+      <c r="AJ21" s="3">
+        <v>67225</v>
+      </c>
+    </row>
+    <row r="22" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>43</v>
       </c>
@@ -1994,8 +2241,29 @@
       </c>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
-    </row>
-    <row r="23" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB22" s="3">
+        <v>103</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>103</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>103</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>104</v>
+      </c>
+      <c r="AF22" s="3">
+        <v>104</v>
+      </c>
+      <c r="AH22" s="3">
+        <v>100</v>
+      </c>
+      <c r="AI22" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>44</v>
       </c>
@@ -2027,8 +2295,29 @@
       </c>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
-    </row>
-    <row r="24" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB23" s="3">
+        <v>31.4</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>31.6</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>32.1</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="AF23" s="3">
+        <v>32.6</v>
+      </c>
+      <c r="AH23" s="3">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="AI23" s="3">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>45</v>
       </c>
@@ -2060,8 +2349,29 @@
       </c>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
-    </row>
-    <row r="26" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="AB24" s="3">
+        <v>381</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>383</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>395</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>399</v>
+      </c>
+      <c r="AH24" s="3">
+        <v>422</v>
+      </c>
+      <c r="AI24" s="3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="26" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>34</v>
       </c>
@@ -2075,10 +2385,10 @@
       </c>
       <c r="AF26" s="3"/>
     </row>
-    <row r="27" spans="2:43" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:48" ht="13" x14ac:dyDescent="0.3">
       <c r="AF27" s="5"/>
     </row>
-    <row r="28" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>7</v>
       </c>
@@ -2120,32 +2430,50 @@
       <c r="AB28" s="3">
         <v>72474</v>
       </c>
+      <c r="AC28" s="3">
+        <v>72339</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>73228</v>
+      </c>
       <c r="AE28" s="3">
         <v>77988</v>
       </c>
       <c r="AF28" s="3">
         <v>76897</v>
       </c>
-      <c r="AL28" s="3">
+      <c r="AG28" s="3">
+        <v>77442</v>
+      </c>
+      <c r="AH28" s="3">
+        <v>76483</v>
+      </c>
+      <c r="AI28" s="3">
+        <v>86534</v>
+      </c>
+      <c r="AJ28" s="3">
+        <v>87905</v>
+      </c>
+      <c r="AQ28" s="3">
         <v>189699</v>
       </c>
-      <c r="AM28" s="3">
+      <c r="AR28" s="3">
         <v>201478</v>
       </c>
-      <c r="AN28" s="3">
+      <c r="AS28" s="3">
         <v>226233</v>
       </c>
-      <c r="AO28" s="3">
+      <c r="AT28" s="3">
         <v>257157</v>
       </c>
-      <c r="AP28" s="3">
+      <c r="AU28" s="3">
         <v>290827</v>
       </c>
-      <c r="AQ28" s="3">
+      <c r="AV28" s="3">
         <v>308810</v>
       </c>
     </row>
-    <row r="29" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>20</v>
       </c>
@@ -2187,32 +2515,50 @@
       <c r="AB29" s="3">
         <v>10651</v>
       </c>
+      <c r="AC29" s="3">
+        <v>10354</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>11311</v>
+      </c>
       <c r="AE29" s="3">
         <v>11909</v>
       </c>
       <c r="AF29" s="3">
         <v>12211</v>
       </c>
-      <c r="AL29" s="3">
+      <c r="AG29" s="3">
+        <v>12631</v>
+      </c>
+      <c r="AH29" s="3">
+        <v>13475</v>
+      </c>
+      <c r="AI29" s="3">
+        <v>13036</v>
+      </c>
+      <c r="AJ29" s="3">
+        <v>13564</v>
+      </c>
+      <c r="AQ29" s="3">
         <v>31597</v>
       </c>
-      <c r="AM29" s="3">
+      <c r="AR29" s="3">
         <v>34145</v>
       </c>
-      <c r="AN29" s="3">
+      <c r="AS29" s="3">
         <v>34437</v>
       </c>
-      <c r="AO29" s="3">
+      <c r="AT29" s="3">
         <v>37424</v>
       </c>
-      <c r="AP29" s="3">
+      <c r="AU29" s="3">
         <v>42583</v>
       </c>
-      <c r="AQ29" s="3">
+      <c r="AV29" s="3">
         <v>50226</v>
       </c>
     </row>
-    <row r="30" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>22</v>
       </c>
@@ -2254,32 +2600,50 @@
       <c r="AB30" s="3">
         <v>8663</v>
       </c>
+      <c r="AC30" s="3">
+        <v>8671</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>8709</v>
+      </c>
       <c r="AE30" s="3">
         <v>8888</v>
       </c>
       <c r="AF30" s="3">
         <v>8750</v>
       </c>
-      <c r="AL30" s="3">
+      <c r="AG30" s="3">
+        <v>9104</v>
+      </c>
+      <c r="AH30" s="3">
+        <v>9298</v>
+      </c>
+      <c r="AI30" s="3">
+        <v>8972</v>
+      </c>
+      <c r="AJ30" s="3">
+        <v>9039</v>
+      </c>
+      <c r="AQ30" s="3">
         <v>18973</v>
       </c>
-      <c r="AM30" s="3">
+      <c r="AR30" s="3">
         <v>20016</v>
       </c>
-      <c r="AN30" s="3">
+      <c r="AS30" s="3">
         <v>24603</v>
       </c>
-      <c r="AO30" s="3">
+      <c r="AT30" s="3">
         <v>27551</v>
       </c>
-      <c r="AP30" s="3">
+      <c r="AU30" s="3">
         <v>34123</v>
       </c>
-      <c r="AQ30" s="3">
+      <c r="AV30" s="3">
         <v>36040</v>
       </c>
     </row>
-    <row r="31" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>21</v>
       </c>
@@ -2321,32 +2685,50 @@
       <c r="AB31" s="3">
         <v>1115</v>
       </c>
+      <c r="AC31" s="3">
+        <v>997</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>1179</v>
+      </c>
       <c r="AE31" s="3">
         <v>1011</v>
       </c>
       <c r="AF31" s="3">
         <v>997</v>
       </c>
-      <c r="AL31" s="3">
+      <c r="AG31" s="3">
+        <v>1643</v>
+      </c>
+      <c r="AH31" s="3">
+        <v>1551</v>
+      </c>
+      <c r="AI31" s="3">
+        <v>1033</v>
+      </c>
+      <c r="AJ31" s="3">
+        <v>1108</v>
+      </c>
+      <c r="AQ31" s="3">
         <v>1886</v>
       </c>
-      <c r="AM31" s="3">
+      <c r="AR31" s="3">
         <v>1502</v>
       </c>
-      <c r="AN31" s="3">
+      <c r="AS31" s="3">
         <v>2324</v>
       </c>
-      <c r="AO31" s="3">
+      <c r="AT31" s="3">
         <v>2030</v>
       </c>
-      <c r="AP31" s="3">
+      <c r="AU31" s="3">
         <v>4089</v>
       </c>
-      <c r="AQ31" s="3">
+      <c r="AV31" s="3">
         <v>5202</v>
       </c>
     </row>
-    <row r="32" spans="2:43" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:48" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
         <v>23</v>
       </c>
@@ -2381,7 +2763,7 @@
         <v>80149</v>
       </c>
       <c r="X32" s="6">
-        <f t="shared" ref="X32:AH32" si="9">SUM(X28:X31)</f>
+        <f t="shared" ref="X32:AJ32" si="9">SUM(X28:X31)</f>
         <v>80332</v>
       </c>
       <c r="Y32" s="6">
@@ -2402,11 +2784,11 @@
       </c>
       <c r="AC32" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>92361</v>
       </c>
       <c r="AD32" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>94427</v>
       </c>
       <c r="AE32" s="6">
         <f t="shared" si="9"/>
@@ -2418,38 +2800,49 @@
       </c>
       <c r="AG32" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>100820</v>
       </c>
       <c r="AH32" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AL32" s="5">
-        <f t="shared" ref="AL32:AQ32" si="10">SUM(AL28:AL31)</f>
+        <v>100807</v>
+      </c>
+      <c r="AI32" s="6">
+        <f t="shared" si="9"/>
+        <v>109575</v>
+      </c>
+      <c r="AJ32" s="6">
+        <f t="shared" si="9"/>
+        <v>111616</v>
+      </c>
+      <c r="AK32" s="6"/>
+      <c r="AL32" s="6"/>
+      <c r="AM32" s="6"/>
+      <c r="AQ32" s="5">
+        <f t="shared" ref="AQ32:AV32" si="10">SUM(AQ28:AQ31)</f>
         <v>242155</v>
       </c>
-      <c r="AM32" s="5">
+      <c r="AR32" s="5">
         <f t="shared" si="10"/>
         <v>257141</v>
       </c>
-      <c r="AN32" s="5">
+      <c r="AS32" s="5">
         <f t="shared" si="10"/>
         <v>287597</v>
       </c>
-      <c r="AO32" s="5">
+      <c r="AT32" s="5">
         <f t="shared" si="10"/>
         <v>324162</v>
       </c>
-      <c r="AP32" s="5">
+      <c r="AU32" s="5">
         <f t="shared" si="10"/>
         <v>371622</v>
       </c>
-      <c r="AQ32" s="5">
+      <c r="AV32" s="5">
         <f t="shared" si="10"/>
         <v>400278</v>
       </c>
     </row>
-    <row r="33" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>24</v>
       </c>
@@ -2491,32 +2884,50 @@
       <c r="AB33" s="3">
         <v>60268</v>
       </c>
+      <c r="AC33" s="3">
+        <v>59550</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>62231</v>
+      </c>
       <c r="AE33" s="3">
         <v>65735</v>
       </c>
       <c r="AF33" s="3">
         <v>65458</v>
       </c>
-      <c r="AL33" s="3">
+      <c r="AG33" s="3">
+        <v>65957</v>
+      </c>
+      <c r="AH33" s="3">
+        <v>67035</v>
+      </c>
+      <c r="AI33" s="3">
+        <v>73411</v>
+      </c>
+      <c r="AJ33" s="3">
+        <v>78585</v>
+      </c>
+      <c r="AQ33" s="3">
         <v>156440</v>
       </c>
-      <c r="AM33" s="3">
+      <c r="AR33" s="3">
         <v>159396</v>
       </c>
-      <c r="AN33" s="3">
+      <c r="AS33" s="3">
         <v>186911</v>
       </c>
-      <c r="AO33" s="3">
+      <c r="AT33" s="3">
         <v>210842</v>
       </c>
-      <c r="AP33" s="3">
+      <c r="AU33" s="3">
         <v>241894</v>
       </c>
-      <c r="AQ33" s="3">
+      <c r="AV33" s="3">
         <v>264185</v>
       </c>
     </row>
-    <row r="34" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>25</v>
       </c>
@@ -2558,32 +2969,50 @@
       <c r="AB34" s="3">
         <v>13809</v>
       </c>
+      <c r="AC34" s="3">
+        <v>13855</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>13339</v>
+      </c>
       <c r="AE34" s="3">
         <v>14077</v>
       </c>
       <c r="AF34" s="3">
         <v>13162</v>
       </c>
-      <c r="AL34" s="3">
+      <c r="AG34" s="3">
+        <v>13280</v>
+      </c>
+      <c r="AH34" s="3">
+        <v>12494</v>
+      </c>
+      <c r="AI34" s="3">
+        <v>13594</v>
+      </c>
+      <c r="AJ34" s="3">
+        <v>13778</v>
+      </c>
+      <c r="AQ34" s="3">
         <v>35193</v>
       </c>
-      <c r="AM34" s="3">
+      <c r="AR34" s="3">
         <v>41704</v>
       </c>
-      <c r="AN34" s="3">
+      <c r="AS34" s="3">
         <v>42579</v>
       </c>
-      <c r="AO34" s="3">
+      <c r="AT34" s="3">
         <v>47782</v>
       </c>
-      <c r="AP34" s="3">
+      <c r="AU34" s="3">
         <v>54628</v>
       </c>
-      <c r="AQ34" s="3">
+      <c r="AV34" s="3">
         <v>53013</v>
       </c>
     </row>
-    <row r="35" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>26</v>
       </c>
@@ -2625,32 +3054,50 @@
       <c r="AB35" s="3">
         <v>9748</v>
       </c>
+      <c r="AC35" s="3">
+        <v>9423</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>10194</v>
+      </c>
       <c r="AE35" s="3">
         <v>11056</v>
       </c>
       <c r="AF35" s="3">
         <v>11340</v>
       </c>
-      <c r="AL35" s="3">
+      <c r="AG35" s="3">
+        <v>11834</v>
+      </c>
+      <c r="AH35" s="3">
+        <v>12464</v>
+      </c>
+      <c r="AI35" s="3">
+        <v>12390</v>
+      </c>
+      <c r="AJ35" s="3">
+        <v>13019</v>
+      </c>
+      <c r="AQ35" s="3">
         <v>28117</v>
       </c>
-      <c r="AM35" s="3">
+      <c r="AR35" s="3">
         <v>30745</v>
       </c>
-      <c r="AN35" s="3">
+      <c r="AS35" s="3">
         <v>31034</v>
       </c>
-      <c r="AO35" s="3">
+      <c r="AT35" s="3">
         <v>33703</v>
       </c>
-      <c r="AP35" s="3">
+      <c r="AU35" s="3">
         <v>38770</v>
       </c>
-      <c r="AQ35" s="3">
+      <c r="AV35" s="3">
         <v>46694</v>
       </c>
     </row>
-    <row r="36" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>27</v>
       </c>
@@ -2706,11 +3153,11 @@
       </c>
       <c r="AC36" s="4">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>82828</v>
       </c>
       <c r="AD36" s="4">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>85764</v>
       </c>
       <c r="AE36" s="4">
         <f t="shared" si="13"/>
@@ -2722,39 +3169,50 @@
       </c>
       <c r="AG36" s="4">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>91071</v>
       </c>
       <c r="AH36" s="4">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>91993</v>
+      </c>
+      <c r="AI36" s="4">
+        <f t="shared" ref="AI36:AJ36" si="14">SUM(AI33:AI35)</f>
+        <v>99395</v>
+      </c>
+      <c r="AJ36" s="4">
+        <f t="shared" si="14"/>
+        <v>105382</v>
       </c>
       <c r="AK36" s="4"/>
-      <c r="AL36" s="4">
-        <f t="shared" ref="AL36:AM36" si="14">SUM(AL33:AL35)</f>
+      <c r="AL36" s="4"/>
+      <c r="AM36" s="4"/>
+      <c r="AP36" s="4"/>
+      <c r="AQ36" s="4">
+        <f t="shared" ref="AQ36:AR36" si="15">SUM(AQ33:AQ35)</f>
         <v>219750</v>
       </c>
-      <c r="AM36" s="4">
-        <f t="shared" si="14"/>
+      <c r="AR36" s="4">
+        <f t="shared" si="15"/>
         <v>231845</v>
       </c>
-      <c r="AN36" s="4">
-        <f t="shared" ref="AN36" si="15">SUM(AN33:AN35)</f>
+      <c r="AS36" s="4">
+        <f t="shared" ref="AS36" si="16">SUM(AS33:AS35)</f>
         <v>260524</v>
       </c>
-      <c r="AO36" s="4">
-        <f t="shared" ref="AO36" si="16">SUM(AO33:AO35)</f>
+      <c r="AT36" s="4">
+        <f t="shared" ref="AT36" si="17">SUM(AT33:AT35)</f>
         <v>292327</v>
       </c>
-      <c r="AP36" s="4">
-        <f t="shared" ref="AP36" si="17">SUM(AP33:AP35)</f>
+      <c r="AU36" s="4">
+        <f t="shared" ref="AU36" si="18">SUM(AU33:AU35)</f>
         <v>335292</v>
       </c>
-      <c r="AQ36" s="4">
-        <f t="shared" ref="AQ36" si="18">SUM(AQ33:AQ35)</f>
+      <c r="AV36" s="4">
+        <f t="shared" ref="AV36" si="19">SUM(AV33:AV35)</f>
         <v>363892</v>
       </c>
     </row>
-    <row r="37" spans="2:43" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>30</v>
       </c>
@@ -2775,7 +3233,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4">
-        <f t="shared" ref="S37" si="19">S32-S36</f>
+        <f t="shared" ref="S37" si="20">S32-S36</f>
         <v>7497</v>
       </c>
       <c r="T37" s="4">
@@ -2785,7 +3243,7 @@
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37" s="4">
-        <f t="shared" ref="W37" si="20">W32-W36</f>
+        <f t="shared" ref="W37" si="21">W32-W36</f>
         <v>7738</v>
       </c>
       <c r="X37" s="4">
@@ -2793,72 +3251,83 @@
         <v>7934</v>
       </c>
       <c r="Y37" s="4">
-        <f t="shared" ref="Y37:AH37" si="21">Y32-Y36</f>
+        <f t="shared" ref="Y37:AH37" si="22">Y32-Y36</f>
         <v>0</v>
       </c>
       <c r="Z37" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AA37" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>9056</v>
       </c>
       <c r="AB37" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>9078</v>
       </c>
       <c r="AC37" s="4">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>9533</v>
       </c>
       <c r="AD37" s="4">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>8663</v>
       </c>
       <c r="AE37" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>8928</v>
       </c>
-      <c r="AF37" s="6">
-        <f t="shared" si="21"/>
+      <c r="AF37" s="17">
+        <f t="shared" si="22"/>
         <v>8895</v>
       </c>
       <c r="AG37" s="4">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>9749</v>
       </c>
       <c r="AH37" s="4">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>8814</v>
+      </c>
+      <c r="AI37" s="4">
+        <f t="shared" ref="AI37:AJ37" si="23">AI32-AI36</f>
+        <v>10180</v>
+      </c>
+      <c r="AJ37" s="4">
+        <f t="shared" si="23"/>
+        <v>6234</v>
       </c>
       <c r="AK37" s="4"/>
-      <c r="AL37" s="4">
-        <f t="shared" ref="AL37:AM37" si="22">AL32-AL36</f>
+      <c r="AL37" s="4"/>
+      <c r="AM37" s="4"/>
+      <c r="AP37" s="4"/>
+      <c r="AQ37" s="4">
+        <f t="shared" ref="AQ37:AR37" si="24">AQ32-AQ36</f>
         <v>22405</v>
       </c>
-      <c r="AM37" s="4">
-        <f t="shared" si="22"/>
+      <c r="AR37" s="4">
+        <f t="shared" si="24"/>
         <v>25296</v>
       </c>
-      <c r="AN37" s="4">
-        <f t="shared" ref="AN37" si="23">AN32-AN36</f>
+      <c r="AS37" s="4">
+        <f t="shared" ref="AS37" si="25">AS32-AS36</f>
         <v>27073</v>
       </c>
-      <c r="AO37" s="4">
-        <f t="shared" ref="AO37" si="24">AO32-AO36</f>
+      <c r="AT37" s="4">
+        <f t="shared" ref="AT37" si="26">AT32-AT36</f>
         <v>31835</v>
       </c>
-      <c r="AP37" s="4">
-        <f t="shared" ref="AP37" si="25">AP32-AP36</f>
+      <c r="AU37" s="4">
+        <f t="shared" ref="AU37" si="27">AU32-AU36</f>
         <v>36330</v>
       </c>
-      <c r="AQ37" s="4">
-        <f t="shared" ref="AQ37" si="26">AQ32-AQ36</f>
+      <c r="AV37" s="4">
+        <f t="shared" ref="AV37" si="28">AV32-AV36</f>
         <v>36386</v>
       </c>
     </row>
-    <row r="38" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>29</v>
       </c>
@@ -2900,32 +3369,50 @@
       <c r="AB38" s="3">
         <v>-828</v>
       </c>
+      <c r="AC38" s="3">
+        <v>-834</v>
+      </c>
+      <c r="AD38" s="3">
+        <v>-830</v>
+      </c>
       <c r="AE38" s="3">
         <v>-985</v>
       </c>
       <c r="AF38" s="3">
         <v>-985</v>
       </c>
-      <c r="AL38" s="3">
+      <c r="AG38" s="3">
+        <v>-1074</v>
+      </c>
+      <c r="AH38" s="3">
+        <v>-1003</v>
+      </c>
+      <c r="AI38" s="3">
+        <v>-998</v>
+      </c>
+      <c r="AJ38" s="3">
+        <v>-1027</v>
+      </c>
+      <c r="AQ38" s="3">
         <v>-1704</v>
       </c>
-      <c r="AM38" s="3">
+      <c r="AR38" s="3">
         <v>-1663</v>
       </c>
-      <c r="AN38" s="3">
+      <c r="AS38" s="3">
         <v>-1660</v>
       </c>
-      <c r="AO38" s="3">
+      <c r="AT38" s="3">
         <v>-2092</v>
       </c>
-      <c r="AP38" s="3">
+      <c r="AU38" s="3">
         <v>-3246</v>
       </c>
-      <c r="AQ38" s="3">
+      <c r="AV38" s="3">
         <v>-3906</v>
       </c>
     </row>
-    <row r="39" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>28</v>
       </c>
@@ -2946,7 +3433,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4">
-        <f t="shared" ref="S39" si="27">+S37+S38</f>
+        <f t="shared" ref="S39" si="29">+S37+S38</f>
         <v>7100</v>
       </c>
       <c r="T39" s="4">
@@ -2956,7 +3443,7 @@
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
       <c r="W39" s="4">
-        <f t="shared" ref="W39" si="28">+W37+W38</f>
+        <f t="shared" ref="W39" si="30">+W37+W38</f>
         <v>7305</v>
       </c>
       <c r="X39" s="4">
@@ -2973,6 +3460,14 @@
         <f>+AB37+AB38</f>
         <v>8250</v>
       </c>
+      <c r="AC39" s="4">
+        <f>+AC37+AC38</f>
+        <v>8699</v>
+      </c>
+      <c r="AD39" s="4">
+        <f>+AD37+AD38</f>
+        <v>7833</v>
+      </c>
       <c r="AE39" s="4">
         <f>+AE37+AE38</f>
         <v>7943</v>
@@ -2981,32 +3476,48 @@
         <f>+AF37+AF38</f>
         <v>7910</v>
       </c>
-      <c r="AL39" s="3">
-        <f t="shared" ref="AL39:AQ39" si="29">+AL37+AL38</f>
+      <c r="AG39" s="4">
+        <f t="shared" ref="AG39:AJ39" si="31">+AG37+AG38</f>
+        <v>8675</v>
+      </c>
+      <c r="AH39" s="4">
+        <f t="shared" si="31"/>
+        <v>7811</v>
+      </c>
+      <c r="AI39" s="4">
+        <f t="shared" si="31"/>
+        <v>9182</v>
+      </c>
+      <c r="AJ39" s="4">
+        <f t="shared" si="31"/>
+        <v>5207</v>
+      </c>
+      <c r="AQ39" s="3">
+        <f t="shared" ref="AQ39:AV39" si="32">+AQ37+AQ38</f>
         <v>20701</v>
       </c>
-      <c r="AM39" s="3">
-        <f t="shared" si="29"/>
+      <c r="AR39" s="3">
+        <f t="shared" si="32"/>
         <v>23633</v>
       </c>
-      <c r="AN39" s="3">
-        <f t="shared" si="29"/>
+      <c r="AS39" s="3">
+        <f t="shared" si="32"/>
         <v>25413</v>
       </c>
-      <c r="AO39" s="3">
-        <f t="shared" si="29"/>
+      <c r="AT39" s="3">
+        <f t="shared" si="32"/>
         <v>29743</v>
       </c>
-      <c r="AP39" s="3">
-        <f t="shared" si="29"/>
+      <c r="AU39" s="3">
+        <f t="shared" si="32"/>
         <v>33084</v>
       </c>
-      <c r="AQ39" s="3">
-        <f t="shared" si="29"/>
+      <c r="AV39" s="3">
+        <f t="shared" si="32"/>
         <v>32480</v>
       </c>
     </row>
-    <row r="40" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>31</v>
       </c>
@@ -3052,6 +3563,14 @@
         <f>1572+183</f>
         <v>1755</v>
       </c>
+      <c r="AC40" s="3">
+        <f>1654+197</f>
+        <v>1851</v>
+      </c>
+      <c r="AD40" s="3">
+        <f>-1184-220</f>
+        <v>-1404</v>
+      </c>
       <c r="AE40" s="4">
         <f>1222+188</f>
         <v>1410</v>
@@ -3060,26 +3579,42 @@
         <f>1244+205</f>
         <v>1449</v>
       </c>
-      <c r="AL40" s="3">
+      <c r="AG40" s="3">
+        <f>1356+203</f>
+        <v>1559</v>
+      </c>
+      <c r="AH40" s="3">
+        <f>-1007-241</f>
+        <v>-1248</v>
+      </c>
+      <c r="AI40" s="3">
+        <f>1632+182</f>
+        <v>1814</v>
+      </c>
+      <c r="AJ40" s="3">
+        <f>510+166</f>
+        <v>676</v>
+      </c>
+      <c r="AQ40" s="3">
         <v>3742</v>
       </c>
-      <c r="AM40" s="3">
+      <c r="AR40" s="3">
         <v>4973</v>
       </c>
-      <c r="AN40" s="3">
+      <c r="AS40" s="3">
         <v>4578</v>
       </c>
-      <c r="AO40" s="3">
+      <c r="AT40" s="3">
         <v>5704</v>
       </c>
-      <c r="AP40" s="3">
+      <c r="AU40" s="3">
         <v>5986</v>
       </c>
-      <c r="AQ40" s="3">
+      <c r="AV40" s="3">
         <v>4829</v>
       </c>
     </row>
-    <row r="41" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>32</v>
       </c>
@@ -3100,7 +3635,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
       <c r="S41" s="4">
-        <f t="shared" ref="S41" si="30">+S39-S40</f>
+        <f t="shared" ref="S41" si="33">+S39-S40</f>
         <v>5620</v>
       </c>
       <c r="T41" s="4">
@@ -3110,7 +3645,7 @@
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
       <c r="W41" s="4">
-        <f t="shared" ref="W41" si="31">+W39-W40</f>
+        <f t="shared" ref="W41" si="34">+W39-W40</f>
         <v>5815</v>
       </c>
       <c r="X41" s="4">
@@ -3127,6 +3662,14 @@
         <f>+AB39-AB40</f>
         <v>6495</v>
       </c>
+      <c r="AC41" s="4">
+        <f>+AC39-AC40</f>
+        <v>6848</v>
+      </c>
+      <c r="AD41" s="4">
+        <f>+AD39-AD40</f>
+        <v>9237</v>
+      </c>
       <c r="AE41" s="4">
         <f>+AE39-AE40</f>
         <v>6533</v>
@@ -3135,37 +3678,53 @@
         <f>+AF39-AF40</f>
         <v>6461</v>
       </c>
-      <c r="AL41" s="3">
-        <f t="shared" ref="AL41:AQ41" si="32">+AL39-AL40</f>
+      <c r="AG41" s="4">
+        <f t="shared" ref="AG41:AJ41" si="35">+AG39-AG40</f>
+        <v>7116</v>
+      </c>
+      <c r="AH41" s="4">
+        <f t="shared" si="35"/>
+        <v>9059</v>
+      </c>
+      <c r="AI41" s="4">
+        <f t="shared" si="35"/>
+        <v>7368</v>
+      </c>
+      <c r="AJ41" s="4">
+        <f t="shared" si="35"/>
+        <v>4531</v>
+      </c>
+      <c r="AQ41" s="3">
+        <f t="shared" ref="AQ41:AV41" si="36">+AQ39-AQ40</f>
         <v>16959</v>
       </c>
-      <c r="AM41" s="3">
-        <f t="shared" si="32"/>
+      <c r="AR41" s="3">
+        <f t="shared" si="36"/>
         <v>18660</v>
       </c>
-      <c r="AN41" s="3">
-        <f t="shared" si="32"/>
+      <c r="AS41" s="3">
+        <f t="shared" si="36"/>
         <v>20835</v>
       </c>
-      <c r="AO41" s="3">
-        <f t="shared" si="32"/>
+      <c r="AT41" s="3">
+        <f t="shared" si="36"/>
         <v>24039</v>
       </c>
-      <c r="AP41" s="3">
-        <f t="shared" si="32"/>
+      <c r="AU41" s="3">
+        <f t="shared" si="36"/>
         <v>27098</v>
       </c>
-      <c r="AQ41" s="3">
-        <f t="shared" si="32"/>
+      <c r="AV41" s="3">
+        <f t="shared" si="36"/>
         <v>27651</v>
       </c>
     </row>
-    <row r="42" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S42" s="7">
-        <f t="shared" ref="S42" si="33">S41/S43</f>
+        <f t="shared" ref="S42" si="37">S41/S43</f>
         <v>5.8725182863113901</v>
       </c>
       <c r="T42" s="7">
@@ -3173,7 +3732,7 @@
         <v>5.3870292887029292</v>
       </c>
       <c r="W42" s="7">
-        <f t="shared" ref="W42" si="34">W41/W43</f>
+        <f t="shared" ref="W42" si="38">W41/W43</f>
         <v>6.0953878406708597</v>
       </c>
       <c r="X42" s="7">
@@ -3188,6 +3747,14 @@
         <f>AB41/AB43</f>
         <v>6.9095744680851068</v>
       </c>
+      <c r="AC42" s="7">
+        <f>AC41/AC43</f>
+        <v>7.316239316239316</v>
+      </c>
+      <c r="AD42" s="7">
+        <f>AD41/AD43</f>
+        <v>9.8791443850267378</v>
+      </c>
       <c r="AE42" s="7">
         <f>AE41/AE43</f>
         <v>7.0856832971800436</v>
@@ -3196,33 +3763,49 @@
         <f>AF41/AF43</f>
         <v>6.962284482758621</v>
       </c>
-      <c r="AK42" s="1"/>
-      <c r="AL42" s="1">
-        <f t="shared" ref="AL42:AQ42" si="35">+AL41/AL43</f>
+      <c r="AG42" s="7">
+        <f t="shared" ref="AG42:AJ42" si="39">AG41/AG43</f>
+        <v>7.6516129032258062</v>
+      </c>
+      <c r="AH42" s="7">
+        <f t="shared" si="39"/>
+        <v>9.7723840345199573</v>
+      </c>
+      <c r="AI42" s="7">
+        <f t="shared" si="39"/>
+        <v>8.0261437908496731</v>
+      </c>
+      <c r="AJ42" s="7">
+        <f t="shared" si="39"/>
+        <v>4.9791208791208792</v>
+      </c>
+      <c r="AP42" s="1"/>
+      <c r="AQ42" s="1">
+        <f t="shared" ref="AQ42:AV42" si="40">+AQ41/AQ43</f>
         <v>17.555900621118013</v>
       </c>
-      <c r="AM42" s="1">
-        <f t="shared" si="35"/>
+      <c r="AR42" s="1">
+        <f t="shared" si="40"/>
         <v>19.417273673257025</v>
       </c>
-      <c r="AN42" s="1">
-        <f t="shared" si="35"/>
+      <c r="AS42" s="1">
+        <f t="shared" si="40"/>
         <v>21.793933054393307</v>
       </c>
-      <c r="AO42" s="1">
-        <f t="shared" si="35"/>
+      <c r="AT42" s="1">
+        <f t="shared" si="40"/>
         <v>25.304210526315789</v>
       </c>
-      <c r="AP42" s="1">
-        <f t="shared" si="35"/>
+      <c r="AU42" s="1">
+        <f t="shared" si="40"/>
         <v>28.889125799573559</v>
       </c>
-      <c r="AQ42" s="1">
-        <f t="shared" si="35"/>
+      <c r="AV42" s="1">
+        <f t="shared" si="40"/>
         <v>29.764262648008611</v>
       </c>
     </row>
-    <row r="43" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>1</v>
       </c>
@@ -3244,32 +3827,50 @@
       <c r="AB43" s="2">
         <v>940</v>
       </c>
+      <c r="AC43" s="2">
+        <v>936</v>
+      </c>
+      <c r="AD43" s="2">
+        <v>935</v>
+      </c>
       <c r="AE43" s="2">
         <v>922</v>
       </c>
       <c r="AF43" s="2">
         <v>928</v>
       </c>
-      <c r="AL43">
+      <c r="AG43" s="2">
+        <v>930</v>
+      </c>
+      <c r="AH43" s="2">
+        <v>927</v>
+      </c>
+      <c r="AI43">
+        <v>918</v>
+      </c>
+      <c r="AJ43">
+        <v>910</v>
+      </c>
+      <c r="AQ43">
         <v>966</v>
       </c>
-      <c r="AM43">
+      <c r="AR43">
         <v>961</v>
       </c>
-      <c r="AN43">
+      <c r="AS43">
         <v>956</v>
       </c>
-      <c r="AO43">
+      <c r="AT43">
         <v>950</v>
       </c>
-      <c r="AP43">
+      <c r="AU43">
         <v>938</v>
       </c>
-      <c r="AQ43">
+      <c r="AV43">
         <v>929</v>
       </c>
     </row>
-    <row r="45" spans="2:43" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:48" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="9" t="s">
         <v>35</v>
       </c>
@@ -3290,7 +3891,7 @@
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
       <c r="S45" s="10">
-        <f t="shared" ref="S45" si="36">S33/S28</f>
+        <f t="shared" ref="S45" si="41">S33/S28</f>
         <v>0.80928522510182754</v>
       </c>
       <c r="T45" s="10">
@@ -3308,71 +3909,82 @@
         <v>0.81527795167146611</v>
       </c>
       <c r="Y45" s="10" t="e">
-        <f t="shared" ref="Y45:AH45" si="37">Y33/Y28</f>
+        <f t="shared" ref="Y45:AJ45" si="42">Y33/Y28</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z45" s="10" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA45" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>0.82220481960816638</v>
       </c>
       <c r="AB45" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>0.8315809807655159</v>
       </c>
-      <c r="AC45" s="10" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD45" s="10" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
+      <c r="AC45" s="10">
+        <f t="shared" si="42"/>
+        <v>0.82320739849873514</v>
+      </c>
+      <c r="AD45" s="10">
+        <f t="shared" si="42"/>
+        <v>0.84982520347408097</v>
       </c>
       <c r="AE45" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>0.84288608503872386</v>
       </c>
       <c r="AF45" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>0.85124257123164748</v>
       </c>
-      <c r="AG45" s="10" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH45" s="10" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL45" s="10">
-        <f t="shared" ref="AL45:AM45" si="38">AL33/AL28</f>
+      <c r="AG45" s="10">
+        <f t="shared" si="42"/>
+        <v>0.85169546241057825</v>
+      </c>
+      <c r="AH45" s="10">
+        <f t="shared" si="42"/>
+        <v>0.87646928075520047</v>
+      </c>
+      <c r="AI45" s="10">
+        <f t="shared" si="42"/>
+        <v>0.84834862597360572</v>
+      </c>
+      <c r="AJ45" s="10">
+        <f t="shared" si="42"/>
+        <v>0.89397645185143049</v>
+      </c>
+      <c r="AK45" s="10"/>
+      <c r="AL45" s="10"/>
+      <c r="AM45" s="10"/>
+      <c r="AQ45" s="10">
+        <f t="shared" ref="AQ45:AR45" si="43">AQ33/AQ28</f>
         <v>0.82467487967780539</v>
       </c>
-      <c r="AM45" s="10">
-        <f t="shared" si="38"/>
+      <c r="AR45" s="10">
+        <f t="shared" si="43"/>
         <v>0.79113352326308584</v>
       </c>
-      <c r="AN45" s="10">
-        <f t="shared" ref="AN45:AQ45" si="39">AN33/AN28</f>
+      <c r="AS45" s="10">
+        <f t="shared" ref="AS45:AV45" si="44">AS33/AS28</f>
         <v>0.82618804506857979</v>
       </c>
-      <c r="AO45" s="10">
-        <f t="shared" si="39"/>
+      <c r="AT45" s="10">
+        <f t="shared" si="44"/>
         <v>0.81989601683018543</v>
       </c>
-      <c r="AP45" s="10">
-        <f t="shared" si="39"/>
+      <c r="AU45" s="10">
+        <f t="shared" si="44"/>
         <v>0.83174533313619436</v>
       </c>
-      <c r="AQ45" s="10">
-        <f t="shared" si="39"/>
+      <c r="AV45" s="10">
+        <f t="shared" si="44"/>
         <v>0.8554936692464622</v>
       </c>
     </row>
-    <row r="47" spans="2:43" s="13" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:48" s="13" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B47" s="13" t="s">
         <v>36</v>
       </c>
@@ -3414,28 +4026,44 @@
         <f>+AF32/AB32-1</f>
         <v>6.4066822384637678E-2</v>
       </c>
-      <c r="AM47" s="16">
-        <f>+AM32/AL32-1</f>
+      <c r="AG47" s="16">
+        <f>+AG32/AC32-1</f>
+        <v>9.158627559251209E-2</v>
+      </c>
+      <c r="AH47" s="16">
+        <f>+AH32/AD32-1</f>
+        <v>6.7565420907155893E-2</v>
+      </c>
+      <c r="AI47" s="16">
+        <f>+AI32/AE32-1</f>
+        <v>9.7989899394765212E-2</v>
+      </c>
+      <c r="AJ47" s="16">
+        <f>+AJ32/AF32-1</f>
+        <v>0.12908805826715897</v>
+      </c>
+      <c r="AR47" s="16">
+        <f>+AR32/AQ32-1</f>
         <v>6.1885982118890848E-2</v>
       </c>
-      <c r="AN47" s="16">
-        <f>+AN32/AM32-1</f>
+      <c r="AS47" s="16">
+        <f>+AS32/AR32-1</f>
         <v>0.11844085540617799</v>
       </c>
-      <c r="AO47" s="16">
-        <f>+AO32/AN32-1</f>
+      <c r="AT47" s="16">
+        <f>+AT32/AS32-1</f>
         <v>0.12713971286209524</v>
       </c>
-      <c r="AP47" s="16">
-        <f>+AP32/AO32-1</f>
+      <c r="AU47" s="16">
+        <f>+AU32/AT32-1</f>
         <v>0.14640827734281014</v>
       </c>
-      <c r="AQ47" s="16">
-        <f>+AQ32/AP32-1</f>
+      <c r="AV47" s="16">
+        <f>+AV32/AU32-1</f>
         <v>7.7110612396467326E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>37</v>
       </c>
@@ -3455,28 +4083,28 @@
         <f>+AF28/AB28-1</f>
         <v>6.1028782735877751E-2</v>
       </c>
-      <c r="AM48" s="12">
-        <f>+AM28/AL28-1</f>
+      <c r="AR48" s="12">
+        <f>+AR28/AQ28-1</f>
         <v>6.2093105393280945E-2</v>
       </c>
-      <c r="AN48" s="12">
-        <f>+AN28/AM28-1</f>
+      <c r="AS48" s="12">
+        <f>+AS28/AR28-1</f>
         <v>0.12286701277558842</v>
       </c>
-      <c r="AO48" s="12">
-        <f>+AO28/AN28-1</f>
+      <c r="AT48" s="12">
+        <f>+AT28/AS28-1</f>
         <v>0.13669093368341478</v>
       </c>
-      <c r="AP48" s="12">
-        <f>+AP28/AO28-1</f>
+      <c r="AU48" s="12">
+        <f>+AU28/AT28-1</f>
         <v>0.13093168764606844</v>
       </c>
-      <c r="AQ48" s="12">
-        <f>+AQ28/AP28-1</f>
+      <c r="AV48" s="12">
+        <f>+AV28/AU28-1</f>
         <v>6.1834011285059498E-2</v>
       </c>
     </row>
-    <row r="50" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>3</v>
       </c>
@@ -3518,16 +4146,20 @@
         <f>26286+5037+46113</f>
         <v>77436</v>
       </c>
-      <c r="AP50" s="3">
+      <c r="AI50" s="3">
+        <f>30717+3574+51863</f>
+        <v>86154</v>
+      </c>
+      <c r="AU50" s="3">
         <f>25427+4201+47609</f>
         <v>77237</v>
       </c>
-      <c r="AQ50" s="3">
+      <c r="AV50" s="3">
         <f>25312+3801+52354</f>
         <v>81467</v>
       </c>
     </row>
-    <row r="51" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>59</v>
       </c>
@@ -3565,14 +4197,17 @@
       <c r="AF51" s="3">
         <v>23115</v>
       </c>
-      <c r="AP51" s="3">
+      <c r="AI51" s="3">
+        <v>26936</v>
+      </c>
+      <c r="AU51" s="3">
         <v>21276</v>
       </c>
-      <c r="AQ51" s="3">
+      <c r="AV51" s="3">
         <v>22365</v>
       </c>
     </row>
-    <row r="52" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>60</v>
       </c>
@@ -3610,14 +4245,17 @@
       <c r="AF52" s="3">
         <v>26762</v>
       </c>
-      <c r="AP52" s="3">
+      <c r="AI52" s="3">
+        <v>26022</v>
+      </c>
+      <c r="AU52" s="3">
         <v>17694</v>
       </c>
-      <c r="AQ52" s="3">
+      <c r="AV52" s="3">
         <v>26089</v>
       </c>
     </row>
-    <row r="53" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
         <v>61</v>
       </c>
@@ -3655,14 +4293,17 @@
       <c r="AF53" s="3">
         <v>3414</v>
       </c>
-      <c r="AP53" s="3">
+      <c r="AI53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU53" s="3">
         <v>3755</v>
       </c>
-      <c r="AQ53" s="3">
+      <c r="AV53" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
         <v>62</v>
       </c>
@@ -3700,14 +4341,17 @@
       <c r="AF54" s="3">
         <v>7424</v>
       </c>
-      <c r="AP54" s="3">
+      <c r="AI54" s="3">
+        <v>9036</v>
+      </c>
+      <c r="AU54" s="3">
         <v>6084</v>
       </c>
-      <c r="AQ54" s="3">
+      <c r="AV54" s="3">
         <v>8212</v>
       </c>
     </row>
-    <row r="55" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
         <v>63</v>
       </c>
@@ -3745,14 +4389,17 @@
       <c r="AF55" s="3">
         <v>9801</v>
       </c>
-      <c r="AP55" s="3">
+      <c r="AI55" s="3">
+        <v>10734</v>
+      </c>
+      <c r="AU55" s="3">
         <v>11450</v>
       </c>
-      <c r="AQ55" s="3">
+      <c r="AV55" s="3">
         <v>10553</v>
       </c>
     </row>
-    <row r="56" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
         <v>64</v>
       </c>
@@ -3794,16 +4441,20 @@
         <f>105436+14729</f>
         <v>120165</v>
       </c>
-      <c r="AP56" s="3">
+      <c r="AI56" s="3">
+        <f>22947+107566</f>
+        <v>130513</v>
+      </c>
+      <c r="AU56" s="3">
         <f>103732+15194</f>
         <v>118926</v>
       </c>
-      <c r="AQ56" s="3">
+      <c r="AV56" s="3">
         <f>106734+23268</f>
         <v>130002</v>
       </c>
     </row>
-    <row r="57" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
         <v>65</v>
       </c>
@@ -3841,14 +4492,17 @@
       <c r="AF57" s="3">
         <v>17939</v>
       </c>
-      <c r="AP57" s="3">
+      <c r="AI57" s="3">
+        <v>20395</v>
+      </c>
+      <c r="AU57" s="3">
         <v>17298</v>
       </c>
-      <c r="AQ57" s="3">
+      <c r="AV57" s="3">
         <v>19590</v>
       </c>
     </row>
-    <row r="58" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
         <v>58</v>
       </c>
@@ -3873,7 +4527,7 @@
       <c r="U58" s="4"/>
       <c r="V58" s="4"/>
       <c r="W58" s="4">
-        <f t="shared" ref="W58" si="40">SUM(W50:W57)</f>
+        <f t="shared" ref="W58" si="45">SUM(W50:W57)</f>
         <v>221238</v>
       </c>
       <c r="X58" s="4">
@@ -3883,23 +4537,39 @@
       <c r="Y58" s="4"/>
       <c r="Z58" s="4"/>
       <c r="AE58" s="4">
-        <f t="shared" ref="AE58" si="41">SUM(AE50:AE57)</f>
+        <f t="shared" ref="AE58" si="46">SUM(AE50:AE57)</f>
         <v>284210</v>
       </c>
       <c r="AF58" s="4">
         <f>SUM(AF50:AF57)</f>
         <v>286056</v>
       </c>
-      <c r="AP58" s="3">
-        <f>SUM(AP50:AP57)</f>
+      <c r="AG58" s="4">
+        <f>SUM(AG50:AG57)</f>
+        <v>0</v>
+      </c>
+      <c r="AH58" s="4">
+        <f>SUM(AH50:AH57)</f>
+        <v>0</v>
+      </c>
+      <c r="AI58" s="4">
+        <f>SUM(AI50:AI57)</f>
+        <v>309790</v>
+      </c>
+      <c r="AJ58" s="4">
+        <f>SUM(AJ50:AJ57)</f>
+        <v>0</v>
+      </c>
+      <c r="AU58" s="3">
+        <f>SUM(AU50:AU57)</f>
         <v>273720</v>
       </c>
-      <c r="AQ58" s="3">
-        <f>SUM(AQ50:AQ57)</f>
+      <c r="AV58" s="3">
+        <f>SUM(AV50:AV57)</f>
         <v>298278</v>
       </c>
     </row>
-    <row r="60" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
         <v>66</v>
       </c>
@@ -3937,14 +4607,17 @@
       <c r="AF60" s="3">
         <v>32547</v>
       </c>
-      <c r="AP60" s="3">
+      <c r="AI60" s="3">
+        <v>37136</v>
+      </c>
+      <c r="AU60" s="3">
         <v>32395</v>
       </c>
-      <c r="AQ60" s="3">
+      <c r="AV60" s="3">
         <v>34224</v>
       </c>
     </row>
-    <row r="61" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
         <v>67</v>
       </c>
@@ -3982,14 +4655,17 @@
       <c r="AF61" s="3">
         <v>30886</v>
       </c>
-      <c r="AP61" s="3">
+      <c r="AI61" s="3">
+        <v>33566</v>
+      </c>
+      <c r="AU61" s="3">
         <v>31958</v>
       </c>
-      <c r="AQ61" s="3">
+      <c r="AV61" s="3">
         <v>34337</v>
       </c>
     </row>
-    <row r="62" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4031,16 +4707,20 @@
         <f>11371+63727</f>
         <v>75098</v>
       </c>
-      <c r="AP62" s="3">
+      <c r="AI62" s="3">
+        <f>9986+71285</f>
+        <v>81271</v>
+      </c>
+      <c r="AU62" s="3">
         <f>4274+58263</f>
         <v>62537</v>
       </c>
-      <c r="AQ62" s="3">
+      <c r="AV62" s="3">
         <f>4545+72359</f>
         <v>76904</v>
       </c>
     </row>
-    <row r="63" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
         <v>68</v>
       </c>
@@ -4078,14 +4758,17 @@
       <c r="AF63" s="3">
         <v>2572</v>
       </c>
-      <c r="AP63" s="3">
+      <c r="AI63" s="3">
+        <v>3296</v>
+      </c>
+      <c r="AU63" s="3">
         <v>3355</v>
       </c>
-      <c r="AQ63" s="3">
+      <c r="AV63" s="3">
         <v>3317</v>
       </c>
     </row>
-    <row r="64" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>69</v>
       </c>
@@ -4123,14 +4806,17 @@
       <c r="AF64" s="3">
         <v>27294</v>
       </c>
-      <c r="AP64" s="3">
+      <c r="AI64" s="3">
+        <v>29487</v>
+      </c>
+      <c r="AU64" s="3">
         <v>27072</v>
       </c>
-      <c r="AQ64" s="3">
+      <c r="AV64" s="3">
         <v>27346</v>
       </c>
     </row>
-    <row r="65" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
         <v>70</v>
       </c>
@@ -4168,14 +4854,17 @@
       <c r="AF65" s="3">
         <v>3631</v>
       </c>
-      <c r="AP65" s="3">
+      <c r="AI65" s="3">
+        <v>3902</v>
+      </c>
+      <c r="AU65" s="3">
         <v>3021</v>
       </c>
-      <c r="AQ65" s="3">
+      <c r="AV65" s="3">
         <v>3620</v>
       </c>
     </row>
-    <row r="66" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
         <v>71</v>
       </c>
@@ -4213,14 +4902,17 @@
       <c r="AF66" s="3">
         <v>14794</v>
       </c>
-      <c r="AP66" s="3">
+      <c r="AI66" s="3">
+        <v>15963</v>
+      </c>
+      <c r="AU66" s="3">
         <v>14463</v>
       </c>
-      <c r="AQ66" s="3">
+      <c r="AV66" s="3">
         <v>15939</v>
       </c>
     </row>
-    <row r="67" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
         <v>72</v>
       </c>
@@ -4262,16 +4954,20 @@
         <f>94676+4558</f>
         <v>99234</v>
       </c>
-      <c r="AP67" s="3">
+      <c r="AI67" s="3">
+        <f>100811+4358</f>
+        <v>105169</v>
+      </c>
+      <c r="AU67" s="3">
         <f>94421+4498</f>
         <v>98919</v>
       </c>
-      <c r="AQ67" s="3">
+      <c r="AV67" s="3">
         <f>98268+4323</f>
         <v>102591</v>
       </c>
     </row>
-    <row r="68" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
         <v>73</v>
       </c>
@@ -4296,7 +4992,7 @@
       <c r="U68" s="4"/>
       <c r="V68" s="4"/>
       <c r="W68" s="4">
-        <f t="shared" ref="W68" si="42">SUM(W60:W67)</f>
+        <f t="shared" ref="W68" si="47">SUM(W60:W67)</f>
         <v>221238</v>
       </c>
       <c r="X68" s="4">
@@ -4306,23 +5002,35 @@
       <c r="Y68" s="4"/>
       <c r="Z68" s="4"/>
       <c r="AE68" s="4">
-        <f t="shared" ref="AE68" si="43">SUM(AE60:AE67)</f>
+        <f t="shared" ref="AE68" si="48">SUM(AE60:AE67)</f>
         <v>284210</v>
       </c>
       <c r="AF68" s="4">
         <f>SUM(AF60:AF67)</f>
         <v>286056</v>
       </c>
-      <c r="AP68" s="3">
-        <f>SUM(AP60:AP67)</f>
+      <c r="AG68" s="4">
+        <f t="shared" ref="AG68:AI68" si="49">SUM(AG60:AG67)</f>
+        <v>0</v>
+      </c>
+      <c r="AH68" s="4">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AI68" s="4">
+        <f t="shared" si="49"/>
+        <v>309790</v>
+      </c>
+      <c r="AU68" s="3">
+        <f>SUM(AU60:AU67)</f>
         <v>273720</v>
       </c>
-      <c r="AQ68" s="3">
-        <f>SUM(AQ60:AQ67)</f>
+      <c r="AV68" s="3">
+        <f>SUM(AV60:AV67)</f>
         <v>298278</v>
       </c>
     </row>
-    <row r="70" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
         <v>94</v>
       </c>
@@ -4358,32 +5066,44 @@
         <f>+AF41</f>
         <v>6461</v>
       </c>
-      <c r="AL70" s="3">
-        <f t="shared" ref="AL70:AQ70" si="44">+AL41</f>
+      <c r="AG70" s="3">
+        <f>+AG41</f>
+        <v>7116</v>
+      </c>
+      <c r="AH70" s="3">
+        <f>+AH41</f>
+        <v>9059</v>
+      </c>
+      <c r="AI70" s="3">
+        <f>+AI41</f>
+        <v>7368</v>
+      </c>
+      <c r="AQ70" s="3">
+        <f t="shared" ref="AQ70:AV70" si="50">+AQ41</f>
         <v>16959</v>
       </c>
-      <c r="AM70" s="3">
-        <f t="shared" si="44"/>
+      <c r="AR70" s="3">
+        <f t="shared" si="50"/>
         <v>18660</v>
       </c>
-      <c r="AN70" s="3">
-        <f t="shared" si="44"/>
+      <c r="AS70" s="3">
+        <f t="shared" si="50"/>
         <v>20835</v>
       </c>
-      <c r="AO70" s="3">
-        <f t="shared" si="44"/>
+      <c r="AT70" s="3">
+        <f t="shared" si="50"/>
         <v>24039</v>
       </c>
-      <c r="AP70" s="3">
-        <f t="shared" si="44"/>
+      <c r="AU70" s="3">
+        <f t="shared" si="50"/>
         <v>27098</v>
       </c>
-      <c r="AQ70" s="3">
-        <f t="shared" si="44"/>
+      <c r="AV70" s="3">
+        <f t="shared" si="50"/>
         <v>27651</v>
       </c>
     </row>
-    <row r="71" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
         <v>100</v>
       </c>
@@ -4418,26 +5138,29 @@
         <f>3200-AE71</f>
         <v>4421</v>
       </c>
-      <c r="AL71" s="3">
+      <c r="AI71" s="3">
+        <v>6474</v>
+      </c>
+      <c r="AQ71" s="3">
         <v>14239</v>
       </c>
-      <c r="AM71" s="3">
+      <c r="AR71" s="3">
         <v>15769</v>
       </c>
-      <c r="AN71" s="3">
+      <c r="AS71" s="3">
         <v>17732</v>
       </c>
-      <c r="AO71" s="3">
+      <c r="AT71" s="3">
         <v>20639</v>
       </c>
-      <c r="AP71" s="3">
+      <c r="AU71" s="3">
         <v>23144</v>
       </c>
-      <c r="AQ71" s="3">
+      <c r="AV71" s="3">
         <v>15242</v>
       </c>
     </row>
-    <row r="72" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
         <v>101</v>
       </c>
@@ -4472,26 +5195,29 @@
         <f>2017-AE72</f>
         <v>1020</v>
       </c>
-      <c r="AL72" s="3">
+      <c r="AI72" s="3">
+        <v>1061</v>
+      </c>
+      <c r="AQ72" s="3">
         <v>2720</v>
       </c>
-      <c r="AM72" s="3">
+      <c r="AR72" s="3">
         <v>2891</v>
       </c>
-      <c r="AN72" s="3">
+      <c r="AS72" s="3">
         <v>3103</v>
       </c>
-      <c r="AO72" s="3">
+      <c r="AT72" s="3">
         <v>3400</v>
       </c>
-      <c r="AP72" s="3">
+      <c r="AU72" s="3">
         <v>3972</v>
       </c>
-      <c r="AQ72" s="3">
+      <c r="AV72" s="3">
         <v>4099</v>
       </c>
     </row>
-    <row r="73" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
         <v>70</v>
       </c>
@@ -4526,26 +5252,29 @@
         <f>-358-AE73</f>
         <v>-331</v>
       </c>
-      <c r="AL73" s="3">
+      <c r="AI73" s="3">
+        <v>64</v>
+      </c>
+      <c r="AQ73" s="3">
         <v>230</v>
       </c>
-      <c r="AM73" s="3">
+      <c r="AR73" s="3">
         <v>-8</v>
       </c>
-      <c r="AN73" s="3">
+      <c r="AS73" s="3">
         <v>130</v>
       </c>
-      <c r="AO73" s="3">
+      <c r="AT73" s="3">
         <v>-673</v>
       </c>
-      <c r="AP73" s="3">
+      <c r="AU73" s="3">
         <v>-245</v>
       </c>
-      <c r="AQ73" s="3">
+      <c r="AV73" s="3">
         <v>-296</v>
       </c>
     </row>
-    <row r="74" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
         <v>102</v>
       </c>
@@ -4580,26 +5309,29 @@
         <f>594-AE74</f>
         <v>222</v>
       </c>
-      <c r="AL74" s="3">
+      <c r="AI74" s="3">
+        <v>375</v>
+      </c>
+      <c r="AQ74" s="3">
         <v>697</v>
       </c>
-      <c r="AM74" s="3">
+      <c r="AR74" s="3">
         <v>679</v>
       </c>
-      <c r="AN74" s="3">
+      <c r="AS74" s="3">
         <v>800</v>
       </c>
-      <c r="AO74" s="3">
+      <c r="AT74" s="3">
         <v>925</v>
       </c>
-      <c r="AP74" s="3">
+      <c r="AU74" s="3">
         <v>1059</v>
       </c>
-      <c r="AQ74" s="3">
+      <c r="AV74" s="3">
         <v>1018</v>
       </c>
     </row>
-    <row r="75" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
         <v>103</v>
       </c>
@@ -4634,26 +5366,29 @@
         <f>8311-AE75</f>
         <v>1225</v>
       </c>
-      <c r="AL75" s="3">
+      <c r="AI75" s="3">
+        <v>15</v>
+      </c>
+      <c r="AQ75" s="3">
         <v>0</v>
       </c>
-      <c r="AM75" s="3">
+      <c r="AR75" s="3">
         <v>0</v>
       </c>
-      <c r="AN75" s="3">
+      <c r="AS75" s="3">
         <v>0</v>
       </c>
-      <c r="AO75" s="3">
+      <c r="AT75" s="3">
         <v>0</v>
       </c>
-      <c r="AP75" s="3">
+      <c r="AU75" s="3">
         <v>0</v>
       </c>
-      <c r="AQ75" s="3">
+      <c r="AV75" s="3">
         <v>8310</v>
       </c>
     </row>
-    <row r="76" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
         <v>98</v>
       </c>
@@ -4688,29 +5423,32 @@
         <f>459-AE76</f>
         <v>280</v>
       </c>
-      <c r="AL76" s="3">
+      <c r="AI76" s="3">
+        <v>97</v>
+      </c>
+      <c r="AQ76" s="3">
         <v>-106</v>
       </c>
-      <c r="AM76" s="3">
+      <c r="AR76" s="3">
         <v>-52</v>
       </c>
-      <c r="AN76" s="3">
+      <c r="AS76" s="3">
         <v>-944</v>
       </c>
-      <c r="AO76" s="3">
+      <c r="AT76" s="3">
         <f>-588+257</f>
         <v>-331</v>
       </c>
-      <c r="AP76" s="3">
+      <c r="AU76" s="3">
         <f>-489-16</f>
         <v>-505</v>
       </c>
-      <c r="AQ76" s="3">
+      <c r="AV76" s="3">
         <f>-3333-28</f>
         <v>-3361</v>
       </c>
     </row>
-    <row r="77" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="3" t="s">
         <v>104</v>
       </c>
@@ -4746,32 +5484,36 @@
         <f>-2471-4121+777+36-554-AE77</f>
         <v>-91</v>
       </c>
-      <c r="AL77" s="3">
+      <c r="AI77" s="3">
+        <f>-4462-544+2993-607-10</f>
+        <v>-2630</v>
+      </c>
+      <c r="AQ77" s="3">
         <f>162-1563+1221+733+130</f>
         <v>683</v>
       </c>
-      <c r="AM77" s="3">
+      <c r="AR77" s="3">
         <f>-688-2195+152+5348+278</f>
         <v>2895</v>
       </c>
-      <c r="AN77" s="3">
+      <c r="AS77" s="3">
         <f>-1000-1031+2701+1162-310</f>
         <v>1522</v>
       </c>
-      <c r="AO77" s="3">
+      <c r="AT77" s="3">
         <f>-2523-1374+4053+1964+126</f>
         <v>2246</v>
       </c>
-      <c r="AP77" s="3">
+      <c r="AU77" s="3">
         <f>-3114-2444+3482+3516+203</f>
         <v>1643</v>
       </c>
-      <c r="AQ77" s="3">
+      <c r="AV77" s="3">
         <f>-1437-4140+2503+2463-197</f>
         <v>-808</v>
       </c>
     </row>
-    <row r="78" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="3" t="s">
         <v>95</v>
       </c>
@@ -4807,32 +5549,36 @@
         <f>SUM(AF71:AF77)</f>
         <v>6746</v>
       </c>
-      <c r="AL78" s="3">
-        <f t="shared" ref="AL78:AQ78" si="45">SUM(AL71:AL77)</f>
+      <c r="AI78" s="3">
+        <f>SUM(AI71:AI77)</f>
+        <v>5456</v>
+      </c>
+      <c r="AQ78" s="3">
+        <f t="shared" ref="AQ78:AV78" si="51">SUM(AQ71:AQ77)</f>
         <v>18463</v>
       </c>
-      <c r="AM78" s="3">
-        <f t="shared" si="45"/>
+      <c r="AR78" s="3">
+        <f t="shared" si="51"/>
         <v>22174</v>
       </c>
-      <c r="AN78" s="3">
-        <f t="shared" si="45"/>
+      <c r="AS78" s="3">
+        <f t="shared" si="51"/>
         <v>22343</v>
       </c>
-      <c r="AO78" s="3">
-        <f t="shared" si="45"/>
+      <c r="AT78" s="3">
+        <f t="shared" si="51"/>
         <v>26206</v>
       </c>
-      <c r="AP78" s="3">
-        <f t="shared" si="45"/>
+      <c r="AU78" s="3">
+        <f t="shared" si="51"/>
         <v>29068</v>
       </c>
-      <c r="AQ78" s="3">
-        <f t="shared" si="45"/>
+      <c r="AV78" s="3">
+        <f t="shared" si="51"/>
         <v>24204</v>
       </c>
     </row>
-    <row r="79" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -4858,7 +5604,7 @@
       <c r="Y79" s="4"/>
       <c r="Z79" s="4"/>
     </row>
-    <row r="80" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="3" t="s">
         <v>96</v>
       </c>
@@ -4894,32 +5640,36 @@
         <f>-10130+5288+4621-AE80</f>
         <v>-713</v>
       </c>
-      <c r="AL80" s="3">
+      <c r="AI80" s="3">
+        <f>-4135+3185+2167</f>
+        <v>1217</v>
+      </c>
+      <c r="AQ80" s="3">
         <f>-18131+8536+7091</f>
         <v>-2504</v>
       </c>
-      <c r="AM80" s="3">
+      <c r="AR80" s="3">
         <f>-16577+6489+7252</f>
         <v>-2836</v>
       </c>
-      <c r="AN80" s="3">
+      <c r="AS80" s="3">
         <f>-17139+7045+8251</f>
         <v>-1843</v>
       </c>
-      <c r="AO80" s="3">
+      <c r="AT80" s="3">
         <f>-18825+5907+6081</f>
         <v>-6837</v>
       </c>
-      <c r="AP80" s="3">
+      <c r="AU80" s="3">
         <f>-18314+7307+9230</f>
         <v>-1777</v>
       </c>
-      <c r="AQ80" s="3">
+      <c r="AV80" s="3">
         <f>-27308+18514+9319</f>
         <v>525</v>
       </c>
     </row>
-    <row r="81" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="s">
         <v>85</v>
       </c>
@@ -4962,26 +5712,29 @@
         <f>-3031-AE81</f>
         <v>-25</v>
       </c>
-      <c r="AL81" s="3">
+      <c r="AI81" s="3">
+        <v>-702</v>
+      </c>
+      <c r="AQ81" s="3">
         <v>-8343</v>
       </c>
-      <c r="AM81" s="3">
+      <c r="AR81" s="3">
         <v>-7139</v>
       </c>
-      <c r="AN81" s="3">
+      <c r="AS81" s="3">
         <v>-4821</v>
       </c>
-      <c r="AO81" s="3">
+      <c r="AT81" s="3">
         <v>-21458</v>
       </c>
-      <c r="AP81" s="3">
+      <c r="AU81" s="3">
         <v>-10136</v>
       </c>
-      <c r="AQ81" s="3">
+      <c r="AV81" s="3">
         <v>-13408</v>
       </c>
     </row>
-    <row r="82" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
         <v>99</v>
       </c>
@@ -5016,26 +5769,29 @@
         <f>-1596-AE82</f>
         <v>-853</v>
       </c>
-      <c r="AL82" s="3">
+      <c r="AI82" s="3">
+        <v>-898</v>
+      </c>
+      <c r="AQ82" s="3">
         <v>-2071</v>
       </c>
-      <c r="AM82" s="3">
+      <c r="AR82" s="3">
         <v>-2051</v>
       </c>
-      <c r="AN82" s="3">
+      <c r="AS82" s="3">
         <v>-2454</v>
       </c>
-      <c r="AO82" s="3">
+      <c r="AT82" s="3">
         <v>-2802</v>
       </c>
-      <c r="AP82" s="3">
+      <c r="AU82" s="3">
         <v>-3386</v>
       </c>
-      <c r="AQ82" s="3">
+      <c r="AV82" s="3">
         <v>-3499</v>
       </c>
     </row>
-    <row r="83" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="s">
         <v>98</v>
       </c>
@@ -5070,31 +5826,34 @@
         <f>-809-AE83</f>
         <v>2274</v>
       </c>
-      <c r="AL83" s="3">
+      <c r="AI83" s="3">
+        <v>-582</v>
+      </c>
+      <c r="AQ83" s="3">
         <v>219</v>
       </c>
-      <c r="AM83" s="3">
+      <c r="AR83" s="3">
         <f>221-727</f>
         <v>-506</v>
       </c>
-      <c r="AN83" s="3">
+      <c r="AS83" s="3">
         <f>15-1269</f>
         <v>-1254</v>
       </c>
-      <c r="AO83" s="3">
+      <c r="AT83" s="3">
         <f>3414-793</f>
         <v>2621</v>
       </c>
-      <c r="AP83" s="3">
+      <c r="AU83" s="3">
         <f>685-960</f>
         <v>-275</v>
       </c>
-      <c r="AQ83" s="3">
+      <c r="AV83" s="3">
         <f>2041-1667</f>
         <v>374</v>
       </c>
     </row>
-    <row r="84" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="s">
         <v>112</v>
       </c>
@@ -5129,27 +5888,30 @@
         <f>-8100-AE84</f>
         <v>-8100</v>
       </c>
-      <c r="AL84" s="3">
+      <c r="AI84" s="3">
+        <v>891</v>
+      </c>
+      <c r="AQ84" s="3">
         <v>0</v>
       </c>
-      <c r="AM84" s="3">
+      <c r="AR84" s="3">
         <v>0</v>
       </c>
-      <c r="AN84" s="3">
+      <c r="AS84" s="3">
         <v>0</v>
       </c>
-      <c r="AO84" s="3">
+      <c r="AT84" s="3">
         <v>0</v>
       </c>
-      <c r="AP84" s="3">
+      <c r="AU84" s="3">
         <v>0</v>
       </c>
-      <c r="AQ84" s="3">
+      <c r="AV84" s="3">
         <f>-9033+4514</f>
         <v>-4519</v>
       </c>
     </row>
-    <row r="85" spans="2:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
         <v>97</v>
       </c>
@@ -5185,32 +5947,36 @@
         <f>SUM(AF80:AF84)</f>
         <v>-7417</v>
       </c>
-      <c r="AL85" s="3">
-        <f t="shared" ref="AL85:AQ85" si="46">SUM(AL80:AL84)</f>
+      <c r="AI85" s="3">
+        <f>SUM(AI80:AI84)</f>
+        <v>-74</v>
+      </c>
+      <c r="AQ85" s="3">
+        <f t="shared" ref="AQ85:AV85" si="52">SUM(AQ80:AQ84)</f>
         <v>-12699</v>
       </c>
-      <c r="AM85" s="3">
-        <f t="shared" si="46"/>
+      <c r="AR85" s="3">
+        <f t="shared" si="52"/>
         <v>-12532</v>
       </c>
-      <c r="AN85" s="3">
-        <f t="shared" si="46"/>
+      <c r="AS85" s="3">
+        <f t="shared" si="52"/>
         <v>-10372</v>
       </c>
-      <c r="AO85" s="3">
-        <f t="shared" si="46"/>
+      <c r="AT85" s="3">
+        <f t="shared" si="52"/>
         <v>-28476</v>
       </c>
-      <c r="AP85" s="3">
-        <f t="shared" si="46"/>
+      <c r="AU85" s="3">
+        <f t="shared" si="52"/>
         <v>-15574</v>
       </c>
-      <c r="AQ85" s="3">
-        <f t="shared" si="46"/>
+      <c r="AV85" s="3">
+        <f t="shared" si="52"/>
         <v>-20527</v>
       </c>
     </row>
-    <row r="87" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
         <v>105</v>
       </c>
@@ -5221,26 +5987,29 @@
         <f>-3072-AE87</f>
         <v>0</v>
       </c>
-      <c r="AL87" s="3">
+      <c r="AI87" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="AQ87" s="3">
         <v>-5500</v>
       </c>
-      <c r="AM87" s="3">
+      <c r="AR87" s="3">
         <v>-4250</v>
       </c>
-      <c r="AN87" s="3">
+      <c r="AS87" s="3">
         <v>-5000</v>
       </c>
-      <c r="AO87" s="3">
+      <c r="AT87" s="3">
         <v>-7000</v>
       </c>
-      <c r="AP87" s="3">
+      <c r="AU87" s="3">
         <v>-8000</v>
       </c>
-      <c r="AQ87" s="3">
+      <c r="AV87" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="88" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
         <v>106</v>
       </c>
@@ -5251,26 +6020,29 @@
         <f>-3664-AE88</f>
         <v>-1935</v>
       </c>
-      <c r="AL88" s="3">
+      <c r="AI88" s="3">
+        <v>-1912</v>
+      </c>
+      <c r="AQ88" s="3">
         <v>-3932</v>
       </c>
-      <c r="AM88" s="3">
+      <c r="AR88" s="3">
         <v>-4584</v>
       </c>
-      <c r="AN88" s="3">
+      <c r="AS88" s="3">
         <v>-5280</v>
       </c>
-      <c r="AO88" s="3">
+      <c r="AT88" s="3">
         <v>-5991</v>
       </c>
-      <c r="AP88" s="3">
+      <c r="AU88" s="3">
         <v>-6761</v>
       </c>
-      <c r="AQ88" s="3">
+      <c r="AV88" s="3">
         <v>-7533</v>
       </c>
     </row>
-    <row r="89" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
         <v>107</v>
       </c>
@@ -5281,26 +6053,29 @@
         <f>744-AE89</f>
         <v>258</v>
       </c>
-      <c r="AL89" s="3">
+      <c r="AI89" s="3">
+        <v>360</v>
+      </c>
+      <c r="AQ89" s="3">
         <v>1037</v>
       </c>
-      <c r="AM89" s="3">
+      <c r="AR89" s="3">
         <v>1440</v>
       </c>
-      <c r="AN89" s="3">
+      <c r="AS89" s="3">
         <v>1355</v>
       </c>
-      <c r="AO89" s="3">
+      <c r="AT89" s="3">
         <v>1253</v>
       </c>
-      <c r="AP89" s="3">
+      <c r="AU89" s="3">
         <v>1353</v>
       </c>
-      <c r="AQ89" s="3">
+      <c r="AV89" s="3">
         <v>1846</v>
       </c>
     </row>
-    <row r="90" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
         <v>4</v>
       </c>
@@ -5312,32 +6087,35 @@
         <f>-1750+8615+5925-AE90</f>
         <v>1426</v>
       </c>
-      <c r="AL90" s="3">
+      <c r="AI90" s="3">
+        <v>3911</v>
+      </c>
+      <c r="AQ90" s="3">
         <f>-1750+300+5444</f>
         <v>3994</v>
       </c>
-      <c r="AM90" s="3">
+      <c r="AR90" s="3">
         <f>-3150+4864+872</f>
         <v>2586</v>
       </c>
-      <c r="AN90" s="3">
+      <c r="AS90" s="3">
         <f>-3150-1302+6933</f>
         <v>2481</v>
       </c>
-      <c r="AO90" s="3">
+      <c r="AT90" s="3">
         <f>-3015+732+14819</f>
         <v>12536</v>
       </c>
-      <c r="AP90" s="3">
+      <c r="AU90" s="3">
         <f>-2125+11+6394</f>
         <v>4280</v>
       </c>
-      <c r="AQ90" s="3">
+      <c r="AV90" s="3">
         <f>-3000-151+17811</f>
         <v>14660</v>
       </c>
     </row>
-    <row r="91" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
         <v>108</v>
       </c>
@@ -5348,26 +6126,29 @@
         <f>990-AE91</f>
         <v>-755</v>
       </c>
-      <c r="AL91" s="3">
+      <c r="AI91" s="3">
+        <v>1245</v>
+      </c>
+      <c r="AQ91" s="3">
         <v>13</v>
       </c>
-      <c r="AM91" s="3">
+      <c r="AR91" s="3">
         <v>1677</v>
       </c>
-      <c r="AN91" s="3">
+      <c r="AS91" s="3">
         <v>622</v>
       </c>
-      <c r="AO91" s="3">
+      <c r="AT91" s="3">
         <v>5548</v>
       </c>
-      <c r="AP91" s="3">
+      <c r="AU91" s="3">
         <v>-521</v>
       </c>
-      <c r="AQ91" s="3">
+      <c r="AV91" s="3">
         <v>-1560</v>
       </c>
     </row>
-    <row r="92" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
         <v>98</v>
       </c>
@@ -5378,32 +6159,35 @@
         <f>-753-AE92</f>
         <v>-190</v>
       </c>
-      <c r="AL92" s="3">
+      <c r="AI92" s="3">
+        <v>-505</v>
+      </c>
+      <c r="AQ92" s="3">
         <f>-618-619</f>
         <v>-1237</v>
       </c>
-      <c r="AM92" s="3">
+      <c r="AR92" s="3">
         <f>-459</f>
         <v>-459</v>
       </c>
-      <c r="AN92" s="3">
+      <c r="AS92" s="3">
         <f>-1338-295</f>
         <v>-1633</v>
       </c>
-      <c r="AO92" s="3">
+      <c r="AT92" s="3">
         <f>-176-1944</f>
         <v>-2120</v>
       </c>
-      <c r="AP92" s="3">
+      <c r="AU92" s="3">
         <f>-730-1150</f>
         <v>-1880</v>
       </c>
-      <c r="AQ92" s="3">
+      <c r="AV92" s="3">
         <f>-280-1645</f>
         <v>-1925</v>
       </c>
     </row>
-    <row r="93" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="s">
         <v>109</v>
       </c>
@@ -5415,32 +6199,44 @@
         <f>SUM(AF87:AF92)</f>
         <v>-1196</v>
       </c>
-      <c r="AL93" s="3">
-        <f t="shared" ref="AL93:AQ93" si="47">SUM(AL87:AL92)</f>
+      <c r="AG93" s="3">
+        <f>SUM(AG87:AG92)</f>
+        <v>0</v>
+      </c>
+      <c r="AH93" s="3">
+        <f>SUM(AH87:AH92)</f>
+        <v>0</v>
+      </c>
+      <c r="AI93" s="3">
+        <f>SUM(AI87:AI92)</f>
+        <v>99</v>
+      </c>
+      <c r="AQ93" s="3">
+        <f t="shared" ref="AQ93:AV93" si="53">SUM(AQ87:AQ92)</f>
         <v>-5625</v>
       </c>
-      <c r="AM93" s="3">
-        <f t="shared" si="47"/>
+      <c r="AR93" s="3">
+        <f t="shared" si="53"/>
         <v>-3590</v>
       </c>
-      <c r="AN93" s="3">
-        <f t="shared" si="47"/>
+      <c r="AS93" s="3">
+        <f t="shared" si="53"/>
         <v>-7455</v>
       </c>
-      <c r="AO93" s="3">
-        <f t="shared" si="47"/>
+      <c r="AT93" s="3">
+        <f t="shared" si="53"/>
         <v>4226</v>
       </c>
-      <c r="AP93" s="3">
-        <f t="shared" si="47"/>
+      <c r="AU93" s="3">
+        <f t="shared" si="53"/>
         <v>-11529</v>
       </c>
-      <c r="AQ93" s="3">
-        <f t="shared" si="47"/>
+      <c r="AV93" s="3">
+        <f t="shared" si="53"/>
         <v>-3512</v>
       </c>
     </row>
-    <row r="94" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
         <v>110</v>
       </c>
@@ -5451,26 +6247,29 @@
         <f>-44-AE94</f>
         <v>4</v>
       </c>
-      <c r="AL94">
+      <c r="AI94" s="3">
+        <v>15</v>
+      </c>
+      <c r="AQ94">
         <v>-20</v>
       </c>
-      <c r="AM94">
+      <c r="AR94">
         <v>-116</v>
       </c>
-      <c r="AN94">
+      <c r="AS94">
         <v>-62</v>
       </c>
-      <c r="AO94">
+      <c r="AT94">
         <v>34</v>
       </c>
-      <c r="AP94">
+      <c r="AU94">
         <v>97</v>
       </c>
-      <c r="AQ94">
+      <c r="AV94">
         <v>-61</v>
       </c>
     </row>
-    <row r="95" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B95" s="3" t="s">
         <v>111</v>
       </c>
@@ -5482,57 +6281,81 @@
         <f>+AF94+AF93+AF85+AF78</f>
         <v>-1863</v>
       </c>
-      <c r="AL95" s="3">
-        <f t="shared" ref="AL95:AQ95" si="48">+AL93+AL94+AL85+AL78</f>
+      <c r="AG95" s="3">
+        <f>+AG94+AG93+AG85+AG78</f>
+        <v>0</v>
+      </c>
+      <c r="AH95" s="3">
+        <f>+AH94+AH93+AH85+AH78</f>
+        <v>0</v>
+      </c>
+      <c r="AI95" s="3">
+        <f>+AI94+AI93+AI85+AI78</f>
+        <v>5496</v>
+      </c>
+      <c r="AQ95" s="3">
+        <f t="shared" ref="AQ95:AV95" si="54">+AQ93+AQ94+AQ85+AQ78</f>
         <v>119</v>
       </c>
-      <c r="AM95" s="3">
-        <f t="shared" si="48"/>
+      <c r="AR95" s="3">
+        <f t="shared" si="54"/>
         <v>5936</v>
       </c>
-      <c r="AN95" s="3">
-        <f t="shared" si="48"/>
+      <c r="AS95" s="3">
+        <f t="shared" si="54"/>
         <v>4454</v>
       </c>
-      <c r="AO95" s="3">
-        <f t="shared" si="48"/>
+      <c r="AT95" s="3">
+        <f t="shared" si="54"/>
         <v>1990</v>
       </c>
-      <c r="AP95" s="3">
-        <f t="shared" si="48"/>
+      <c r="AU95" s="3">
+        <f t="shared" si="54"/>
         <v>2062</v>
       </c>
-      <c r="AQ95" s="3">
-        <f t="shared" si="48"/>
+      <c r="AV95" s="3">
+        <f t="shared" si="54"/>
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AL97" s="3">
-        <f t="shared" ref="AL97:AP97" si="49">+AL78+AL82</f>
+      <c r="AE97" s="3">
+        <f>+AE78+AE82</f>
+        <v>401</v>
+      </c>
+      <c r="AF97" s="3">
+        <f>+AF78+AF82</f>
+        <v>5893</v>
+      </c>
+      <c r="AI97" s="3">
+        <f>+AI78+AI82</f>
+        <v>4558</v>
+      </c>
+      <c r="AQ97" s="3">
+        <f t="shared" ref="AQ97:AU97" si="55">+AQ78+AQ82</f>
         <v>16392</v>
       </c>
-      <c r="AM97" s="3">
-        <f t="shared" si="49"/>
+      <c r="AR97" s="3">
+        <f t="shared" si="55"/>
         <v>20123</v>
       </c>
-      <c r="AN97" s="3">
-        <f t="shared" si="49"/>
+      <c r="AS97" s="3">
+        <f t="shared" si="55"/>
         <v>19889</v>
       </c>
-      <c r="AO97" s="3">
-        <f t="shared" si="49"/>
+      <c r="AT97" s="3">
+        <f t="shared" si="55"/>
         <v>23404</v>
       </c>
-      <c r="AP97" s="3">
-        <f t="shared" si="49"/>
+      <c r="AU97" s="3">
+        <f t="shared" si="55"/>
         <v>25682</v>
       </c>
-      <c r="AQ97" s="3">
-        <f>+AQ78+AQ82</f>
+      <c r="AV97" s="3">
+        <f>+AV78+AV82</f>
         <v>20705</v>
       </c>
     </row>
